--- a/data/trans_orig/IP24_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP24_R-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ED352D80-2834-4895-8BC2-893CDF11AA25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{75331A1A-9B86-4276-9431-852AE17F9A19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{D83FEC64-81D2-4780-988A-E0431E1B0694}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{07A37E5D-EE5C-4D14-BCF1-CD07EB497B7A}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -68,12 +68,132 @@
     <t>lím sup IC</t>
   </si>
   <si>
+    <t>Menos de 2</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>74,62%</t>
+  </si>
+  <si>
+    <t>55,9%</t>
+  </si>
+  <si>
+    <t>87,4%</t>
+  </si>
+  <si>
+    <t>96,86%</t>
+  </si>
+  <si>
+    <t>82,57%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>85,11%</t>
+  </si>
+  <si>
+    <t>74,63%</t>
+  </si>
+  <si>
+    <t>93,29%</t>
+  </si>
+  <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>25,38%</t>
+  </si>
+  <si>
+    <t>12,6%</t>
+  </si>
+  <si>
+    <t>44,1%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>17,43%</t>
+  </si>
+  <si>
+    <t>14,89%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>25,37%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2/10</t>
+  </si>
+  <si>
+    <t>77,39%</t>
+  </si>
+  <si>
+    <t>71,35%</t>
+  </si>
+  <si>
+    <t>82,99%</t>
+  </si>
+  <si>
+    <t>70,46%</t>
+  </si>
+  <si>
+    <t>62,75%</t>
+  </si>
+  <si>
+    <t>76,74%</t>
+  </si>
+  <si>
+    <t>74,11%</t>
+  </si>
+  <si>
+    <t>69,31%</t>
+  </si>
+  <si>
+    <t>78,53%</t>
+  </si>
+  <si>
+    <t>22,61%</t>
+  </si>
+  <si>
+    <t>17,01%</t>
+  </si>
+  <si>
+    <t>28,65%</t>
+  </si>
+  <si>
+    <t>29,54%</t>
+  </si>
+  <si>
+    <t>23,26%</t>
+  </si>
+  <si>
+    <t>37,25%</t>
+  </si>
+  <si>
+    <t>25,89%</t>
+  </si>
+  <si>
+    <t>21,47%</t>
+  </si>
+  <si>
+    <t>30,69%</t>
+  </si>
+  <si>
     <t>10/50</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
     <t>76,58%</t>
   </si>
   <si>
@@ -101,9 +221,6 @@
     <t>77,69%</t>
   </si>
   <si>
-    <t>Sí</t>
-  </si>
-  <si>
     <t>23,42%</t>
   </si>
   <si>
@@ -131,64 +248,61 @@
     <t>28,73%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>77,39%</t>
-  </si>
-  <si>
-    <t>71,35%</t>
-  </si>
-  <si>
-    <t>82,99%</t>
-  </si>
-  <si>
-    <t>70,46%</t>
-  </si>
-  <si>
-    <t>62,75%</t>
-  </si>
-  <si>
-    <t>76,74%</t>
-  </si>
-  <si>
-    <t>74,11%</t>
-  </si>
-  <si>
-    <t>69,31%</t>
-  </si>
-  <si>
-    <t>78,53%</t>
-  </si>
-  <si>
-    <t>22,61%</t>
-  </si>
-  <si>
-    <t>17,01%</t>
-  </si>
-  <si>
-    <t>28,65%</t>
-  </si>
-  <si>
-    <t>29,54%</t>
-  </si>
-  <si>
-    <t>23,26%</t>
-  </si>
-  <si>
-    <t>37,25%</t>
-  </si>
-  <si>
-    <t>25,89%</t>
-  </si>
-  <si>
-    <t>21,47%</t>
-  </si>
-  <si>
-    <t>30,69%</t>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>80,24%</t>
+  </si>
+  <si>
+    <t>74,48%</t>
+  </si>
+  <si>
+    <t>85,0%</t>
+  </si>
+  <si>
+    <t>77,31%</t>
+  </si>
+  <si>
+    <t>71,4%</t>
+  </si>
+  <si>
+    <t>82,07%</t>
+  </si>
+  <si>
+    <t>78,84%</t>
+  </si>
+  <si>
+    <t>74,89%</t>
+  </si>
+  <si>
+    <t>82,49%</t>
+  </si>
+  <si>
+    <t>19,76%</t>
+  </si>
+  <si>
+    <t>15,0%</t>
+  </si>
+  <si>
+    <t>25,52%</t>
+  </si>
+  <si>
+    <t>22,69%</t>
+  </si>
+  <si>
+    <t>17,93%</t>
+  </si>
+  <si>
+    <t>28,6%</t>
+  </si>
+  <si>
+    <t>21,16%</t>
+  </si>
+  <si>
+    <t>17,51%</t>
+  </si>
+  <si>
+    <t>25,11%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -209,9 +323,6 @@
     <t>69,89%</t>
   </si>
   <si>
-    <t>80,24%</t>
-  </si>
-  <si>
     <t>74,47%</t>
   </si>
   <si>
@@ -233,9 +344,6 @@
     <t>24,77%</t>
   </si>
   <si>
-    <t>19,76%</t>
-  </si>
-  <si>
     <t>30,11%</t>
   </si>
   <si>
@@ -248,114 +356,6 @@
     <t>29,21%</t>
   </si>
   <si>
-    <t>Menos de 2</t>
-  </si>
-  <si>
-    <t>74,62%</t>
-  </si>
-  <si>
-    <t>55,9%</t>
-  </si>
-  <si>
-    <t>87,4%</t>
-  </si>
-  <si>
-    <t>96,86%</t>
-  </si>
-  <si>
-    <t>82,57%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>85,11%</t>
-  </si>
-  <si>
-    <t>74,63%</t>
-  </si>
-  <si>
-    <t>93,29%</t>
-  </si>
-  <si>
-    <t>25,38%</t>
-  </si>
-  <si>
-    <t>12,6%</t>
-  </si>
-  <si>
-    <t>44,1%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>17,43%</t>
-  </si>
-  <si>
-    <t>14,89%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>25,37%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>74,48%</t>
-  </si>
-  <si>
-    <t>85,0%</t>
-  </si>
-  <si>
-    <t>77,31%</t>
-  </si>
-  <si>
-    <t>71,4%</t>
-  </si>
-  <si>
-    <t>82,07%</t>
-  </si>
-  <si>
-    <t>78,84%</t>
-  </si>
-  <si>
-    <t>74,89%</t>
-  </si>
-  <si>
-    <t>82,49%</t>
-  </si>
-  <si>
-    <t>15,0%</t>
-  </si>
-  <si>
-    <t>25,52%</t>
-  </si>
-  <si>
-    <t>22,69%</t>
-  </si>
-  <si>
-    <t>17,93%</t>
-  </si>
-  <si>
-    <t>28,6%</t>
-  </si>
-  <si>
-    <t>21,16%</t>
-  </si>
-  <si>
-    <t>17,51%</t>
-  </si>
-  <si>
-    <t>25,11%</t>
-  </si>
-  <si>
     <t>76,59%</t>
   </si>
   <si>
@@ -413,6 +413,108 @@
     <t>Menores según si no hacen ejercicio en 2012 (Tasa respuesta: 98,95%)</t>
   </si>
   <si>
+    <t>86,89%</t>
+  </si>
+  <si>
+    <t>70,69%</t>
+  </si>
+  <si>
+    <t>96,82%</t>
+  </si>
+  <si>
+    <t>49,34%</t>
+  </si>
+  <si>
+    <t>86,53%</t>
+  </si>
+  <si>
+    <t>79,49%</t>
+  </si>
+  <si>
+    <t>66,41%</t>
+  </si>
+  <si>
+    <t>87,86%</t>
+  </si>
+  <si>
+    <t>13,11%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>29,31%</t>
+  </si>
+  <si>
+    <t>13,47%</t>
+  </si>
+  <si>
+    <t>50,66%</t>
+  </si>
+  <si>
+    <t>20,51%</t>
+  </si>
+  <si>
+    <t>12,14%</t>
+  </si>
+  <si>
+    <t>33,59%</t>
+  </si>
+  <si>
+    <t>84,2%</t>
+  </si>
+  <si>
+    <t>78,27%</t>
+  </si>
+  <si>
+    <t>88,77%</t>
+  </si>
+  <si>
+    <t>83,88%</t>
+  </si>
+  <si>
+    <t>77,94%</t>
+  </si>
+  <si>
+    <t>89,08%</t>
+  </si>
+  <si>
+    <t>84,05%</t>
+  </si>
+  <si>
+    <t>79,6%</t>
+  </si>
+  <si>
+    <t>87,78%</t>
+  </si>
+  <si>
+    <t>15,8%</t>
+  </si>
+  <si>
+    <t>11,23%</t>
+  </si>
+  <si>
+    <t>21,73%</t>
+  </si>
+  <si>
+    <t>16,12%</t>
+  </si>
+  <si>
+    <t>10,92%</t>
+  </si>
+  <si>
+    <t>22,06%</t>
+  </si>
+  <si>
+    <t>15,95%</t>
+  </si>
+  <si>
+    <t>12,22%</t>
+  </si>
+  <si>
+    <t>20,4%</t>
+  </si>
+  <si>
     <t>84,16%</t>
   </si>
   <si>
@@ -467,58 +569,52 @@
     <t>21,93%</t>
   </si>
   <si>
-    <t>84,2%</t>
-  </si>
-  <si>
-    <t>78,27%</t>
-  </si>
-  <si>
-    <t>88,77%</t>
-  </si>
-  <si>
-    <t>83,88%</t>
-  </si>
-  <si>
-    <t>77,94%</t>
-  </si>
-  <si>
-    <t>89,08%</t>
-  </si>
-  <si>
-    <t>84,05%</t>
-  </si>
-  <si>
-    <t>79,6%</t>
-  </si>
-  <si>
-    <t>87,78%</t>
-  </si>
-  <si>
-    <t>15,8%</t>
-  </si>
-  <si>
-    <t>11,23%</t>
-  </si>
-  <si>
-    <t>21,73%</t>
-  </si>
-  <si>
-    <t>16,12%</t>
-  </si>
-  <si>
-    <t>10,92%</t>
-  </si>
-  <si>
-    <t>22,06%</t>
-  </si>
-  <si>
-    <t>15,95%</t>
-  </si>
-  <si>
-    <t>12,22%</t>
-  </si>
-  <si>
-    <t>20,4%</t>
+    <t>82,08%</t>
+  </si>
+  <si>
+    <t>77,26%</t>
+  </si>
+  <si>
+    <t>87,11%</t>
+  </si>
+  <si>
+    <t>78,1%</t>
+  </si>
+  <si>
+    <t>72,19%</t>
+  </si>
+  <si>
+    <t>80,16%</t>
+  </si>
+  <si>
+    <t>76,86%</t>
+  </si>
+  <si>
+    <t>83,64%</t>
+  </si>
+  <si>
+    <t>17,92%</t>
+  </si>
+  <si>
+    <t>12,89%</t>
+  </si>
+  <si>
+    <t>22,74%</t>
+  </si>
+  <si>
+    <t>21,9%</t>
+  </si>
+  <si>
+    <t>27,81%</t>
+  </si>
+  <si>
+    <t>19,84%</t>
+  </si>
+  <si>
+    <t>16,36%</t>
+  </si>
+  <si>
+    <t>23,14%</t>
   </si>
   <si>
     <t>85,14%</t>
@@ -575,102 +671,6 @@
     <t>20,34%</t>
   </si>
   <si>
-    <t>86,89%</t>
-  </si>
-  <si>
-    <t>70,69%</t>
-  </si>
-  <si>
-    <t>96,82%</t>
-  </si>
-  <si>
-    <t>49,34%</t>
-  </si>
-  <si>
-    <t>86,53%</t>
-  </si>
-  <si>
-    <t>79,49%</t>
-  </si>
-  <si>
-    <t>66,41%</t>
-  </si>
-  <si>
-    <t>87,86%</t>
-  </si>
-  <si>
-    <t>13,11%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>29,31%</t>
-  </si>
-  <si>
-    <t>13,47%</t>
-  </si>
-  <si>
-    <t>50,66%</t>
-  </si>
-  <si>
-    <t>20,51%</t>
-  </si>
-  <si>
-    <t>12,14%</t>
-  </si>
-  <si>
-    <t>33,59%</t>
-  </si>
-  <si>
-    <t>82,08%</t>
-  </si>
-  <si>
-    <t>77,26%</t>
-  </si>
-  <si>
-    <t>87,11%</t>
-  </si>
-  <si>
-    <t>78,1%</t>
-  </si>
-  <si>
-    <t>72,19%</t>
-  </si>
-  <si>
-    <t>80,16%</t>
-  </si>
-  <si>
-    <t>76,86%</t>
-  </si>
-  <si>
-    <t>83,64%</t>
-  </si>
-  <si>
-    <t>17,92%</t>
-  </si>
-  <si>
-    <t>12,89%</t>
-  </si>
-  <si>
-    <t>22,74%</t>
-  </si>
-  <si>
-    <t>21,9%</t>
-  </si>
-  <si>
-    <t>27,81%</t>
-  </si>
-  <si>
-    <t>19,84%</t>
-  </si>
-  <si>
-    <t>16,36%</t>
-  </si>
-  <si>
-    <t>23,14%</t>
-  </si>
-  <si>
     <t>84,06%</t>
   </si>
   <si>
@@ -722,6 +722,114 @@
     <t>Menores según si no hacen ejercicio en 2015 (Tasa respuesta: 99,62%)</t>
   </si>
   <si>
+    <t>82,15%</t>
+  </si>
+  <si>
+    <t>62,36%</t>
+  </si>
+  <si>
+    <t>93,37%</t>
+  </si>
+  <si>
+    <t>75,7%</t>
+  </si>
+  <si>
+    <t>53,28%</t>
+  </si>
+  <si>
+    <t>90,38%</t>
+  </si>
+  <si>
+    <t>79,06%</t>
+  </si>
+  <si>
+    <t>64,43%</t>
+  </si>
+  <si>
+    <t>88,61%</t>
+  </si>
+  <si>
+    <t>17,85%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>37,64%</t>
+  </si>
+  <si>
+    <t>24,3%</t>
+  </si>
+  <si>
+    <t>9,62%</t>
+  </si>
+  <si>
+    <t>46,72%</t>
+  </si>
+  <si>
+    <t>20,94%</t>
+  </si>
+  <si>
+    <t>11,39%</t>
+  </si>
+  <si>
+    <t>35,57%</t>
+  </si>
+  <si>
+    <t>86,78%</t>
+  </si>
+  <si>
+    <t>81,37%</t>
+  </si>
+  <si>
+    <t>91,22%</t>
+  </si>
+  <si>
+    <t>76,93%</t>
+  </si>
+  <si>
+    <t>69,81%</t>
+  </si>
+  <si>
+    <t>83,03%</t>
+  </si>
+  <si>
+    <t>82,11%</t>
+  </si>
+  <si>
+    <t>77,63%</t>
+  </si>
+  <si>
+    <t>86,05%</t>
+  </si>
+  <si>
+    <t>13,22%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>18,63%</t>
+  </si>
+  <si>
+    <t>23,07%</t>
+  </si>
+  <si>
+    <t>16,97%</t>
+  </si>
+  <si>
+    <t>30,19%</t>
+  </si>
+  <si>
+    <t>17,89%</t>
+  </si>
+  <si>
+    <t>13,95%</t>
+  </si>
+  <si>
+    <t>22,37%</t>
+  </si>
+  <si>
     <t>80,63%</t>
   </si>
   <si>
@@ -776,58 +884,58 @@
     <t>23,11%</t>
   </si>
   <si>
-    <t>86,78%</t>
-  </si>
-  <si>
-    <t>81,37%</t>
-  </si>
-  <si>
-    <t>91,22%</t>
-  </si>
-  <si>
-    <t>76,93%</t>
-  </si>
-  <si>
-    <t>69,81%</t>
-  </si>
-  <si>
-    <t>83,03%</t>
-  </si>
-  <si>
-    <t>82,11%</t>
-  </si>
-  <si>
-    <t>77,63%</t>
-  </si>
-  <si>
-    <t>86,05%</t>
-  </si>
-  <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>18,63%</t>
-  </si>
-  <si>
-    <t>23,07%</t>
-  </si>
-  <si>
-    <t>16,97%</t>
-  </si>
-  <si>
-    <t>30,19%</t>
-  </si>
-  <si>
-    <t>17,89%</t>
-  </si>
-  <si>
-    <t>13,95%</t>
-  </si>
-  <si>
-    <t>22,37%</t>
+    <t>84,77%</t>
+  </si>
+  <si>
+    <t>79,85%</t>
+  </si>
+  <si>
+    <t>89,04%</t>
+  </si>
+  <si>
+    <t>78,34%</t>
+  </si>
+  <si>
+    <t>73,22%</t>
+  </si>
+  <si>
+    <t>82,87%</t>
+  </si>
+  <si>
+    <t>81,66%</t>
+  </si>
+  <si>
+    <t>78,19%</t>
+  </si>
+  <si>
+    <t>84,86%</t>
+  </si>
+  <si>
+    <t>15,23%</t>
+  </si>
+  <si>
+    <t>10,96%</t>
+  </si>
+  <si>
+    <t>20,15%</t>
+  </si>
+  <si>
+    <t>21,66%</t>
+  </si>
+  <si>
+    <t>17,13%</t>
+  </si>
+  <si>
+    <t>26,78%</t>
+  </si>
+  <si>
+    <t>18,34%</t>
+  </si>
+  <si>
+    <t>15,14%</t>
+  </si>
+  <si>
+    <t>21,81%</t>
   </si>
   <si>
     <t>82,72%</t>
@@ -884,114 +992,6 @@
     <t>23,37%</t>
   </si>
   <si>
-    <t>82,15%</t>
-  </si>
-  <si>
-    <t>62,36%</t>
-  </si>
-  <si>
-    <t>93,37%</t>
-  </si>
-  <si>
-    <t>75,7%</t>
-  </si>
-  <si>
-    <t>53,28%</t>
-  </si>
-  <si>
-    <t>90,38%</t>
-  </si>
-  <si>
-    <t>79,06%</t>
-  </si>
-  <si>
-    <t>64,43%</t>
-  </si>
-  <si>
-    <t>88,61%</t>
-  </si>
-  <si>
-    <t>17,85%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>37,64%</t>
-  </si>
-  <si>
-    <t>24,3%</t>
-  </si>
-  <si>
-    <t>9,62%</t>
-  </si>
-  <si>
-    <t>46,72%</t>
-  </si>
-  <si>
-    <t>20,94%</t>
-  </si>
-  <si>
-    <t>11,39%</t>
-  </si>
-  <si>
-    <t>35,57%</t>
-  </si>
-  <si>
-    <t>84,77%</t>
-  </si>
-  <si>
-    <t>79,85%</t>
-  </si>
-  <si>
-    <t>89,04%</t>
-  </si>
-  <si>
-    <t>78,34%</t>
-  </si>
-  <si>
-    <t>73,22%</t>
-  </si>
-  <si>
-    <t>82,87%</t>
-  </si>
-  <si>
-    <t>81,66%</t>
-  </si>
-  <si>
-    <t>78,19%</t>
-  </si>
-  <si>
-    <t>84,86%</t>
-  </si>
-  <si>
-    <t>15,23%</t>
-  </si>
-  <si>
-    <t>10,96%</t>
-  </si>
-  <si>
-    <t>20,15%</t>
-  </si>
-  <si>
-    <t>21,66%</t>
-  </si>
-  <si>
-    <t>17,13%</t>
-  </si>
-  <si>
-    <t>26,78%</t>
-  </si>
-  <si>
-    <t>18,34%</t>
-  </si>
-  <si>
-    <t>15,14%</t>
-  </si>
-  <si>
-    <t>21,81%</t>
-  </si>
-  <si>
     <t>83,2%</t>
   </si>
   <si>
@@ -1049,6 +1049,114 @@
     <t>Menores según si no hacen ejercicio en 2023 (Tasa respuesta: 99,38%)</t>
   </si>
   <si>
+    <t>78,2%</t>
+  </si>
+  <si>
+    <t>52,32%</t>
+  </si>
+  <si>
+    <t>94,39%</t>
+  </si>
+  <si>
+    <t>77,06%</t>
+  </si>
+  <si>
+    <t>57,53%</t>
+  </si>
+  <si>
+    <t>89,02%</t>
+  </si>
+  <si>
+    <t>77,54%</t>
+  </si>
+  <si>
+    <t>64,02%</t>
+  </si>
+  <si>
+    <t>87,29%</t>
+  </si>
+  <si>
+    <t>21,8%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>47,68%</t>
+  </si>
+  <si>
+    <t>22,94%</t>
+  </si>
+  <si>
+    <t>10,98%</t>
+  </si>
+  <si>
+    <t>42,47%</t>
+  </si>
+  <si>
+    <t>22,46%</t>
+  </si>
+  <si>
+    <t>12,71%</t>
+  </si>
+  <si>
+    <t>35,98%</t>
+  </si>
+  <si>
+    <t>82,48%</t>
+  </si>
+  <si>
+    <t>65,14%</t>
+  </si>
+  <si>
+    <t>89,51%</t>
+  </si>
+  <si>
+    <t>87,47%</t>
+  </si>
+  <si>
+    <t>82,35%</t>
+  </si>
+  <si>
+    <t>91,9%</t>
+  </si>
+  <si>
+    <t>84,85%</t>
+  </si>
+  <si>
+    <t>76,38%</t>
+  </si>
+  <si>
+    <t>89,05%</t>
+  </si>
+  <si>
+    <t>17,52%</t>
+  </si>
+  <si>
+    <t>10,49%</t>
+  </si>
+  <si>
+    <t>34,86%</t>
+  </si>
+  <si>
+    <t>12,53%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>17,65%</t>
+  </si>
+  <si>
+    <t>15,15%</t>
+  </si>
+  <si>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>23,62%</t>
+  </si>
+  <si>
     <t>84,72%</t>
   </si>
   <si>
@@ -1103,58 +1211,52 @@
     <t>19,82%</t>
   </si>
   <si>
-    <t>82,48%</t>
-  </si>
-  <si>
-    <t>65,14%</t>
-  </si>
-  <si>
-    <t>89,51%</t>
-  </si>
-  <si>
-    <t>87,47%</t>
-  </si>
-  <si>
-    <t>82,35%</t>
-  </si>
-  <si>
-    <t>91,9%</t>
-  </si>
-  <si>
-    <t>84,85%</t>
-  </si>
-  <si>
-    <t>76,38%</t>
-  </si>
-  <si>
-    <t>89,05%</t>
-  </si>
-  <si>
-    <t>17,52%</t>
-  </si>
-  <si>
-    <t>10,49%</t>
-  </si>
-  <si>
-    <t>34,86%</t>
-  </si>
-  <si>
-    <t>12,53%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>17,65%</t>
-  </si>
-  <si>
-    <t>15,15%</t>
-  </si>
-  <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>23,62%</t>
+    <t>78,92%</t>
+  </si>
+  <si>
+    <t>72,8%</t>
+  </si>
+  <si>
+    <t>73,72%</t>
+  </si>
+  <si>
+    <t>60,71%</t>
+  </si>
+  <si>
+    <t>80,71%</t>
+  </si>
+  <si>
+    <t>76,34%</t>
+  </si>
+  <si>
+    <t>68,55%</t>
+  </si>
+  <si>
+    <t>80,41%</t>
+  </si>
+  <si>
+    <t>21,08%</t>
+  </si>
+  <si>
+    <t>27,2%</t>
+  </si>
+  <si>
+    <t>26,28%</t>
+  </si>
+  <si>
+    <t>19,29%</t>
+  </si>
+  <si>
+    <t>39,29%</t>
+  </si>
+  <si>
+    <t>23,66%</t>
+  </si>
+  <si>
+    <t>19,59%</t>
+  </si>
+  <si>
+    <t>31,45%</t>
   </si>
   <si>
     <t>87,24%</t>
@@ -1203,108 +1305,6 @@
   </si>
   <si>
     <t>18,96%</t>
-  </si>
-  <si>
-    <t>78,2%</t>
-  </si>
-  <si>
-    <t>52,32%</t>
-  </si>
-  <si>
-    <t>94,39%</t>
-  </si>
-  <si>
-    <t>77,06%</t>
-  </si>
-  <si>
-    <t>57,53%</t>
-  </si>
-  <si>
-    <t>89,02%</t>
-  </si>
-  <si>
-    <t>77,54%</t>
-  </si>
-  <si>
-    <t>64,02%</t>
-  </si>
-  <si>
-    <t>87,29%</t>
-  </si>
-  <si>
-    <t>21,8%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>47,68%</t>
-  </si>
-  <si>
-    <t>22,94%</t>
-  </si>
-  <si>
-    <t>10,98%</t>
-  </si>
-  <si>
-    <t>42,47%</t>
-  </si>
-  <si>
-    <t>22,46%</t>
-  </si>
-  <si>
-    <t>12,71%</t>
-  </si>
-  <si>
-    <t>35,98%</t>
-  </si>
-  <si>
-    <t>78,92%</t>
-  </si>
-  <si>
-    <t>72,8%</t>
-  </si>
-  <si>
-    <t>73,72%</t>
-  </si>
-  <si>
-    <t>60,71%</t>
-  </si>
-  <si>
-    <t>80,71%</t>
-  </si>
-  <si>
-    <t>76,34%</t>
-  </si>
-  <si>
-    <t>68,55%</t>
-  </si>
-  <si>
-    <t>80,41%</t>
-  </si>
-  <si>
-    <t>21,08%</t>
-  </si>
-  <si>
-    <t>27,2%</t>
-  </si>
-  <si>
-    <t>26,28%</t>
-  </si>
-  <si>
-    <t>19,29%</t>
-  </si>
-  <si>
-    <t>39,29%</t>
-  </si>
-  <si>
-    <t>23,66%</t>
-  </si>
-  <si>
-    <t>19,59%</t>
-  </si>
-  <si>
-    <t>31,45%</t>
   </si>
   <si>
     <t>83,49%</t>
@@ -1750,7 +1750,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0286F223-C150-4B09-BA7F-2E85429A1ECC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44D859F4-0179-4625-BC29-BB10666C32B7}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1868,10 +1868,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>247</v>
+        <v>25</v>
       </c>
       <c r="D4" s="7">
-        <v>162450</v>
+        <v>18986</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1883,10 +1883,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>226</v>
+        <v>28</v>
       </c>
       <c r="I4" s="7">
-        <v>140975</v>
+        <v>22010</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1898,10 +1898,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>473</v>
+        <v>53</v>
       </c>
       <c r="N4" s="7">
-        <v>303425</v>
+        <v>40996</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1919,10 +1919,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>75</v>
+        <v>8</v>
       </c>
       <c r="D5" s="7">
-        <v>49692</v>
+        <v>6458</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1934,10 +1934,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>86</v>
+        <v>1</v>
       </c>
       <c r="I5" s="7">
-        <v>54188</v>
+        <v>714</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1949,10 +1949,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>161</v>
+        <v>9</v>
       </c>
       <c r="N5" s="7">
-        <v>103880</v>
+        <v>7172</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1970,10 +1970,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>322</v>
+        <v>33</v>
       </c>
       <c r="D6" s="7">
-        <v>212142</v>
+        <v>25444</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -1985,10 +1985,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>312</v>
+        <v>29</v>
       </c>
       <c r="I6" s="7">
-        <v>195163</v>
+        <v>22724</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -2000,10 +2000,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>634</v>
+        <v>62</v>
       </c>
       <c r="N6" s="7">
-        <v>407305</v>
+        <v>48168</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -2178,10 +2178,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>222</v>
+        <v>247</v>
       </c>
       <c r="D10" s="7">
-        <v>152180</v>
+        <v>162450</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -2193,10 +2193,10 @@
         <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>205</v>
+        <v>226</v>
       </c>
       <c r="I10" s="7">
-        <v>157458</v>
+        <v>140975</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -2208,10 +2208,10 @@
         <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>427</v>
+        <v>473</v>
       </c>
       <c r="N10" s="7">
-        <v>309638</v>
+        <v>303425</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -2229,10 +2229,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="D11" s="7">
-        <v>54292</v>
+        <v>49692</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -2244,10 +2244,10 @@
         <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>69</v>
+        <v>86</v>
       </c>
       <c r="I11" s="7">
-        <v>51857</v>
+        <v>54188</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -2259,10 +2259,10 @@
         <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="N11" s="7">
-        <v>106149</v>
+        <v>103880</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -2280,10 +2280,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>304</v>
+        <v>322</v>
       </c>
       <c r="D12" s="7">
-        <v>206472</v>
+        <v>212142</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -2295,10 +2295,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>274</v>
+        <v>312</v>
       </c>
       <c r="I12" s="7">
-        <v>209315</v>
+        <v>195163</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -2310,10 +2310,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>578</v>
+        <v>634</v>
       </c>
       <c r="N12" s="7">
-        <v>415787</v>
+        <v>407305</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -2333,10 +2333,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>25</v>
+        <v>187</v>
       </c>
       <c r="D13" s="7">
-        <v>18986</v>
+        <v>120080</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>70</v>
@@ -2348,10 +2348,10 @@
         <v>72</v>
       </c>
       <c r="H13" s="7">
-        <v>28</v>
+        <v>175</v>
       </c>
       <c r="I13" s="7">
-        <v>22010</v>
+        <v>106056</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>73</v>
@@ -2363,10 +2363,10 @@
         <v>75</v>
       </c>
       <c r="M13" s="7">
-        <v>53</v>
+        <v>362</v>
       </c>
       <c r="N13" s="7">
-        <v>40996</v>
+        <v>226136</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>76</v>
@@ -2384,10 +2384,10 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>8</v>
+        <v>45</v>
       </c>
       <c r="D14" s="7">
-        <v>6458</v>
+        <v>29577</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>79</v>
@@ -2399,10 +2399,10 @@
         <v>81</v>
       </c>
       <c r="H14" s="7">
-        <v>1</v>
+        <v>53</v>
       </c>
       <c r="I14" s="7">
-        <v>714</v>
+        <v>31129</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>82</v>
@@ -2414,10 +2414,10 @@
         <v>84</v>
       </c>
       <c r="M14" s="7">
-        <v>9</v>
+        <v>98</v>
       </c>
       <c r="N14" s="7">
-        <v>7172</v>
+        <v>60706</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>85</v>
@@ -2435,10 +2435,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>33</v>
+        <v>232</v>
       </c>
       <c r="D15" s="7">
-        <v>25444</v>
+        <v>149657</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -2450,10 +2450,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>29</v>
+        <v>228</v>
       </c>
       <c r="I15" s="7">
-        <v>22724</v>
+        <v>137185</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -2465,10 +2465,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>62</v>
+        <v>460</v>
       </c>
       <c r="N15" s="7">
-        <v>48168</v>
+        <v>286842</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -2488,40 +2488,40 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>187</v>
+        <v>222</v>
       </c>
       <c r="D16" s="7">
-        <v>120080</v>
+        <v>152180</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>56</v>
+        <v>89</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H16" s="7">
-        <v>175</v>
+        <v>205</v>
       </c>
       <c r="I16" s="7">
-        <v>106056</v>
+        <v>157458</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>93</v>
+        <v>70</v>
       </c>
       <c r="M16" s="7">
-        <v>362</v>
+        <v>427</v>
       </c>
       <c r="N16" s="7">
-        <v>226136</v>
+        <v>309638</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>94</v>
@@ -2539,40 +2539,40 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>45</v>
+        <v>82</v>
       </c>
       <c r="D17" s="7">
-        <v>29577</v>
+        <v>54292</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>64</v>
+        <v>97</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H17" s="7">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="I17" s="7">
-        <v>31129</v>
+        <v>51857</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>100</v>
+        <v>79</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>101</v>
       </c>
       <c r="M17" s="7">
-        <v>98</v>
+        <v>151</v>
       </c>
       <c r="N17" s="7">
-        <v>60706</v>
+        <v>106149</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>102</v>
@@ -2590,10 +2590,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>232</v>
+        <v>304</v>
       </c>
       <c r="D18" s="7">
-        <v>149657</v>
+        <v>206472</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -2605,10 +2605,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>228</v>
+        <v>274</v>
       </c>
       <c r="I18" s="7">
-        <v>137185</v>
+        <v>209315</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -2620,10 +2620,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>460</v>
+        <v>578</v>
       </c>
       <c r="N18" s="7">
-        <v>286842</v>
+        <v>415787</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -2808,7 +2808,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A509AC9-DF59-4F0A-AA06-803401DD436E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AC462F9-C824-43ED-8DCE-6083975F7535}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2926,10 +2926,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>271</v>
+        <v>23</v>
       </c>
       <c r="D4" s="7">
-        <v>186720</v>
+        <v>21264</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>124</v>
@@ -2941,34 +2941,34 @@
         <v>126</v>
       </c>
       <c r="H4" s="7">
-        <v>247</v>
+        <v>19</v>
       </c>
       <c r="I4" s="7">
-        <v>161143</v>
+        <v>15975</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="L4" s="7" t="s">
+      <c r="M4" s="7">
+        <v>42</v>
+      </c>
+      <c r="N4" s="7">
+        <v>37239</v>
+      </c>
+      <c r="O4" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="M4" s="7">
-        <v>518</v>
-      </c>
-      <c r="N4" s="7">
-        <v>347863</v>
-      </c>
-      <c r="O4" s="7" t="s">
+      <c r="P4" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2977,49 +2977,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="D5" s="7">
-        <v>35153</v>
+        <v>3209</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="H5" s="7">
+        <v>7</v>
+      </c>
+      <c r="I5" s="7">
+        <v>6398</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="H5" s="7">
-        <v>71</v>
-      </c>
-      <c r="I5" s="7">
-        <v>44578</v>
-      </c>
-      <c r="J5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="M5" s="7">
+        <v>11</v>
+      </c>
+      <c r="N5" s="7">
+        <v>9607</v>
+      </c>
+      <c r="O5" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="L5" s="7" t="s">
+      <c r="P5" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="M5" s="7">
-        <v>121</v>
-      </c>
-      <c r="N5" s="7">
-        <v>79731</v>
-      </c>
-      <c r="O5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3028,10 +3028,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>321</v>
+        <v>27</v>
       </c>
       <c r="D6" s="7">
-        <v>221873</v>
+        <v>24473</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -3043,10 +3043,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>318</v>
+        <v>26</v>
       </c>
       <c r="I6" s="7">
-        <v>205721</v>
+        <v>22373</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -3058,10 +3058,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>639</v>
+        <v>53</v>
       </c>
       <c r="N6" s="7">
-        <v>427594</v>
+        <v>46846</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -3087,13 +3087,13 @@
         <v>107530</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>144</v>
       </c>
       <c r="H7" s="7">
         <v>134</v>
@@ -3102,13 +3102,13 @@
         <v>96730</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>147</v>
       </c>
       <c r="M7" s="7">
         <v>286</v>
@@ -3117,13 +3117,13 @@
         <v>204259</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3138,13 +3138,13 @@
         <v>20181</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>153</v>
       </c>
       <c r="H8" s="7">
         <v>27</v>
@@ -3153,13 +3153,13 @@
         <v>18583</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>156</v>
       </c>
       <c r="M8" s="7">
         <v>56</v>
@@ -3168,13 +3168,13 @@
         <v>38765</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3236,49 +3236,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>233</v>
+        <v>271</v>
       </c>
       <c r="D10" s="7">
-        <v>172769</v>
+        <v>186720</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="H10" s="7">
+        <v>247</v>
+      </c>
+      <c r="I10" s="7">
+        <v>161143</v>
+      </c>
+      <c r="J10" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="K10" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="H10" s="7">
-        <v>218</v>
-      </c>
-      <c r="I10" s="7">
-        <v>167889</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>518</v>
+      </c>
+      <c r="N10" s="7">
+        <v>347863</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="L10" s="7" t="s">
+      <c r="P10" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="M10" s="7">
-        <v>451</v>
-      </c>
-      <c r="N10" s="7">
-        <v>340659</v>
-      </c>
-      <c r="O10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3287,49 +3287,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="D11" s="7">
-        <v>30165</v>
+        <v>35153</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>169</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="H11" s="7">
+        <v>71</v>
+      </c>
+      <c r="I11" s="7">
+        <v>44578</v>
+      </c>
+      <c r="J11" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="K11" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="H11" s="7">
-        <v>54</v>
-      </c>
-      <c r="I11" s="7">
-        <v>40090</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="M11" s="7">
+        <v>121</v>
+      </c>
+      <c r="N11" s="7">
+        <v>79731</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="L11" s="7" t="s">
+      <c r="P11" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="M11" s="7">
-        <v>97</v>
-      </c>
-      <c r="N11" s="7">
-        <v>70255</v>
-      </c>
-      <c r="O11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3338,10 +3338,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>276</v>
+        <v>321</v>
       </c>
       <c r="D12" s="7">
-        <v>202934</v>
+        <v>221873</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -3353,10 +3353,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>272</v>
+        <v>318</v>
       </c>
       <c r="I12" s="7">
-        <v>207979</v>
+        <v>205721</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -3368,10 +3368,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>548</v>
+        <v>639</v>
       </c>
       <c r="N12" s="7">
-        <v>410914</v>
+        <v>427594</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -3391,49 +3391,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>23</v>
+        <v>213</v>
       </c>
       <c r="D13" s="7">
-        <v>21264</v>
+        <v>136227</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="H13" s="7">
+        <v>188</v>
+      </c>
+      <c r="I13" s="7">
+        <v>120550</v>
+      </c>
+      <c r="J13" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="K13" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="H13" s="7">
-        <v>19</v>
-      </c>
-      <c r="I13" s="7">
-        <v>15975</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="M13" s="7">
+        <v>401</v>
+      </c>
+      <c r="N13" s="7">
+        <v>256777</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="L13" s="7" t="s">
+      <c r="P13" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="M13" s="7">
-        <v>42</v>
-      </c>
-      <c r="N13" s="7">
-        <v>37239</v>
-      </c>
-      <c r="O13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3442,49 +3442,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>4</v>
+        <v>42</v>
       </c>
       <c r="D14" s="7">
-        <v>3209</v>
+        <v>29737</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="H14" s="7">
+        <v>52</v>
+      </c>
+      <c r="I14" s="7">
+        <v>33802</v>
+      </c>
+      <c r="J14" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="K14" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="H14" s="7">
-        <v>7</v>
-      </c>
-      <c r="I14" s="7">
-        <v>6398</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="K14" s="7" t="s">
+      <c r="M14" s="7">
+        <v>94</v>
+      </c>
+      <c r="N14" s="7">
+        <v>63539</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="L14" s="7" t="s">
+      <c r="P14" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="M14" s="7">
-        <v>11</v>
-      </c>
-      <c r="N14" s="7">
-        <v>9607</v>
-      </c>
-      <c r="O14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3493,10 +3493,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>27</v>
+        <v>255</v>
       </c>
       <c r="D15" s="7">
-        <v>24473</v>
+        <v>165964</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -3508,10 +3508,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>26</v>
+        <v>240</v>
       </c>
       <c r="I15" s="7">
-        <v>22373</v>
+        <v>154352</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -3523,10 +3523,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>53</v>
+        <v>495</v>
       </c>
       <c r="N15" s="7">
-        <v>46846</v>
+        <v>320316</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -3546,49 +3546,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>213</v>
+        <v>233</v>
       </c>
       <c r="D16" s="7">
-        <v>136227</v>
+        <v>172769</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="H16" s="7">
+        <v>218</v>
+      </c>
+      <c r="I16" s="7">
+        <v>167889</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="H16" s="7">
-        <v>188</v>
-      </c>
-      <c r="I16" s="7">
-        <v>120550</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>451</v>
+      </c>
+      <c r="N16" s="7">
+        <v>340659</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="L16" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="M16" s="7">
-        <v>401</v>
-      </c>
-      <c r="N16" s="7">
-        <v>256777</v>
-      </c>
-      <c r="O16" s="7" t="s">
+      <c r="P16" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3597,40 +3597,40 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D17" s="7">
-        <v>29737</v>
+        <v>30165</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="H17" s="7">
+        <v>54</v>
+      </c>
+      <c r="I17" s="7">
+        <v>40090</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="H17" s="7">
-        <v>52</v>
-      </c>
-      <c r="I17" s="7">
-        <v>33802</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>205</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>42</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>206</v>
       </c>
       <c r="M17" s="7">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="N17" s="7">
-        <v>63539</v>
+        <v>70255</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>207</v>
@@ -3648,10 +3648,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>255</v>
+        <v>276</v>
       </c>
       <c r="D18" s="7">
-        <v>165964</v>
+        <v>202934</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -3663,10 +3663,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>240</v>
+        <v>272</v>
       </c>
       <c r="I18" s="7">
-        <v>154352</v>
+        <v>207979</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -3678,10 +3678,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>495</v>
+        <v>548</v>
       </c>
       <c r="N18" s="7">
-        <v>320316</v>
+        <v>410914</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -3866,7 +3866,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA3F0E1F-15D5-40B8-A3B2-B5E2BB3C2662}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFF1C9EB-85FC-400D-90D2-69CA30B331AF}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3984,10 +3984,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>265</v>
+        <v>24</v>
       </c>
       <c r="D4" s="7">
-        <v>180416</v>
+        <v>20149</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>227</v>
@@ -3999,10 +3999,10 @@
         <v>229</v>
       </c>
       <c r="H4" s="7">
-        <v>262</v>
+        <v>18</v>
       </c>
       <c r="I4" s="7">
-        <v>163421</v>
+        <v>17052</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>230</v>
@@ -4014,10 +4014,10 @@
         <v>232</v>
       </c>
       <c r="M4" s="7">
-        <v>527</v>
+        <v>42</v>
       </c>
       <c r="N4" s="7">
-        <v>343838</v>
+        <v>37201</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>233</v>
@@ -4035,10 +4035,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>66</v>
+        <v>5</v>
       </c>
       <c r="D5" s="7">
-        <v>43336</v>
+        <v>4378</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>236</v>
@@ -4050,10 +4050,10 @@
         <v>238</v>
       </c>
       <c r="H5" s="7">
-        <v>72</v>
+        <v>6</v>
       </c>
       <c r="I5" s="7">
-        <v>43826</v>
+        <v>5475</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>239</v>
@@ -4065,10 +4065,10 @@
         <v>241</v>
       </c>
       <c r="M5" s="7">
-        <v>138</v>
+        <v>11</v>
       </c>
       <c r="N5" s="7">
-        <v>87161</v>
+        <v>9853</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>242</v>
@@ -4086,10 +4086,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>331</v>
+        <v>29</v>
       </c>
       <c r="D6" s="7">
-        <v>223752</v>
+        <v>24527</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -4101,10 +4101,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>334</v>
+        <v>24</v>
       </c>
       <c r="I6" s="7">
-        <v>207247</v>
+        <v>22527</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -4116,10 +4116,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>665</v>
+        <v>53</v>
       </c>
       <c r="N6" s="7">
-        <v>430999</v>
+        <v>47054</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -4294,10 +4294,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>236</v>
+        <v>265</v>
       </c>
       <c r="D10" s="7">
-        <v>168579</v>
+        <v>180416</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>263</v>
@@ -4309,10 +4309,10 @@
         <v>265</v>
       </c>
       <c r="H10" s="7">
-        <v>217</v>
+        <v>262</v>
       </c>
       <c r="I10" s="7">
-        <v>160958</v>
+        <v>163421</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>266</v>
@@ -4324,10 +4324,10 @@
         <v>268</v>
       </c>
       <c r="M10" s="7">
-        <v>453</v>
+        <v>527</v>
       </c>
       <c r="N10" s="7">
-        <v>329537</v>
+        <v>343838</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>269</v>
@@ -4345,10 +4345,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="D11" s="7">
-        <v>35220</v>
+        <v>43336</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>272</v>
@@ -4360,10 +4360,10 @@
         <v>274</v>
       </c>
       <c r="H11" s="7">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="I11" s="7">
-        <v>45792</v>
+        <v>43826</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>275</v>
@@ -4375,10 +4375,10 @@
         <v>277</v>
       </c>
       <c r="M11" s="7">
-        <v>114</v>
+        <v>138</v>
       </c>
       <c r="N11" s="7">
-        <v>81012</v>
+        <v>87161</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>278</v>
@@ -4396,10 +4396,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>287</v>
+        <v>331</v>
       </c>
       <c r="D12" s="7">
-        <v>203799</v>
+        <v>223752</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -4411,10 +4411,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>280</v>
+        <v>334</v>
       </c>
       <c r="I12" s="7">
-        <v>206750</v>
+        <v>207247</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -4426,10 +4426,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>567</v>
+        <v>665</v>
       </c>
       <c r="N12" s="7">
-        <v>410549</v>
+        <v>430999</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -4449,10 +4449,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>24</v>
+        <v>208</v>
       </c>
       <c r="D13" s="7">
-        <v>20149</v>
+        <v>140701</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>281</v>
@@ -4464,10 +4464,10 @@
         <v>283</v>
       </c>
       <c r="H13" s="7">
-        <v>18</v>
+        <v>201</v>
       </c>
       <c r="I13" s="7">
-        <v>17052</v>
+        <v>122214</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>284</v>
@@ -4479,10 +4479,10 @@
         <v>286</v>
       </c>
       <c r="M13" s="7">
-        <v>42</v>
+        <v>409</v>
       </c>
       <c r="N13" s="7">
-        <v>37201</v>
+        <v>262914</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>287</v>
@@ -4500,10 +4500,10 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="D14" s="7">
-        <v>4378</v>
+        <v>25272</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>290</v>
@@ -4515,10 +4515,10 @@
         <v>292</v>
       </c>
       <c r="H14" s="7">
-        <v>6</v>
+        <v>58</v>
       </c>
       <c r="I14" s="7">
-        <v>5475</v>
+        <v>33783</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>293</v>
@@ -4530,10 +4530,10 @@
         <v>295</v>
       </c>
       <c r="M14" s="7">
-        <v>11</v>
+        <v>97</v>
       </c>
       <c r="N14" s="7">
-        <v>9853</v>
+        <v>59056</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>296</v>
@@ -4551,10 +4551,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>29</v>
+        <v>247</v>
       </c>
       <c r="D15" s="7">
-        <v>24527</v>
+        <v>165973</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4566,10 +4566,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>24</v>
+        <v>259</v>
       </c>
       <c r="I15" s="7">
-        <v>22527</v>
+        <v>155997</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4581,10 +4581,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>53</v>
+        <v>506</v>
       </c>
       <c r="N15" s="7">
-        <v>47054</v>
+        <v>321970</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -4604,10 +4604,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>208</v>
+        <v>236</v>
       </c>
       <c r="D16" s="7">
-        <v>140701</v>
+        <v>168579</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>299</v>
@@ -4619,10 +4619,10 @@
         <v>301</v>
       </c>
       <c r="H16" s="7">
-        <v>201</v>
+        <v>217</v>
       </c>
       <c r="I16" s="7">
-        <v>122214</v>
+        <v>160958</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>302</v>
@@ -4634,10 +4634,10 @@
         <v>304</v>
       </c>
       <c r="M16" s="7">
-        <v>409</v>
+        <v>453</v>
       </c>
       <c r="N16" s="7">
-        <v>262914</v>
+        <v>329537</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>305</v>
@@ -4655,10 +4655,10 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="D17" s="7">
-        <v>25272</v>
+        <v>35220</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>308</v>
@@ -4670,10 +4670,10 @@
         <v>310</v>
       </c>
       <c r="H17" s="7">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="I17" s="7">
-        <v>33783</v>
+        <v>45792</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>311</v>
@@ -4685,10 +4685,10 @@
         <v>313</v>
       </c>
       <c r="M17" s="7">
-        <v>97</v>
+        <v>114</v>
       </c>
       <c r="N17" s="7">
-        <v>59056</v>
+        <v>81012</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>314</v>
@@ -4706,10 +4706,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>247</v>
+        <v>287</v>
       </c>
       <c r="D18" s="7">
-        <v>165973</v>
+        <v>203799</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -4721,10 +4721,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>259</v>
+        <v>280</v>
       </c>
       <c r="I18" s="7">
-        <v>155997</v>
+        <v>206750</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -4736,10 +4736,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>506</v>
+        <v>567</v>
       </c>
       <c r="N18" s="7">
-        <v>321970</v>
+        <v>410549</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -4924,7 +4924,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AC4D7CD-63C4-490D-B412-0DF91D32E397}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA440B0E-87AE-4B2C-BF74-EB7347371189}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5042,10 +5042,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>273</v>
+        <v>14</v>
       </c>
       <c r="D4" s="7">
-        <v>210887</v>
+        <v>9537</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>336</v>
@@ -5057,10 +5057,10 @@
         <v>338</v>
       </c>
       <c r="H4" s="7">
-        <v>227</v>
+        <v>20</v>
       </c>
       <c r="I4" s="7">
-        <v>157023</v>
+        <v>12937</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>339</v>
@@ -5072,10 +5072,10 @@
         <v>341</v>
       </c>
       <c r="M4" s="7">
-        <v>500</v>
+        <v>34</v>
       </c>
       <c r="N4" s="7">
-        <v>367910</v>
+        <v>22474</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>342</v>
@@ -5093,10 +5093,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>68</v>
+        <v>4</v>
       </c>
       <c r="D5" s="7">
-        <v>38031</v>
+        <v>2658</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>345</v>
@@ -5108,10 +5108,10 @@
         <v>347</v>
       </c>
       <c r="H5" s="7">
-        <v>53</v>
+        <v>8</v>
       </c>
       <c r="I5" s="7">
-        <v>35329</v>
+        <v>3850</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>348</v>
@@ -5123,10 +5123,10 @@
         <v>350</v>
       </c>
       <c r="M5" s="7">
-        <v>121</v>
+        <v>12</v>
       </c>
       <c r="N5" s="7">
-        <v>73360</v>
+        <v>6509</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>351</v>
@@ -5144,10 +5144,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>341</v>
+        <v>18</v>
       </c>
       <c r="D6" s="7">
-        <v>248918</v>
+        <v>12195</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -5159,10 +5159,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>280</v>
+        <v>28</v>
       </c>
       <c r="I6" s="7">
-        <v>192352</v>
+        <v>16787</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -5174,10 +5174,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>621</v>
+        <v>46</v>
       </c>
       <c r="N6" s="7">
-        <v>441270</v>
+        <v>28983</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -5352,10 +5352,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>201</v>
+        <v>273</v>
       </c>
       <c r="D10" s="7">
-        <v>152684</v>
+        <v>210887</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>372</v>
@@ -5367,34 +5367,34 @@
         <v>374</v>
       </c>
       <c r="H10" s="7">
-        <v>194</v>
+        <v>227</v>
       </c>
       <c r="I10" s="7">
-        <v>139782</v>
+        <v>157023</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>375</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>270</v>
+        <v>376</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="M10" s="7">
-        <v>395</v>
+        <v>500</v>
       </c>
       <c r="N10" s="7">
-        <v>292465</v>
+        <v>367910</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5403,49 +5403,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>37</v>
+        <v>68</v>
       </c>
       <c r="D11" s="7">
-        <v>22332</v>
+        <v>38031</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="H11" s="7">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="I11" s="7">
-        <v>31025</v>
+        <v>35329</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>280</v>
+        <v>386</v>
       </c>
       <c r="M11" s="7">
-        <v>81</v>
+        <v>121</v>
       </c>
       <c r="N11" s="7">
-        <v>53357</v>
+        <v>73360</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5454,10 +5454,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>238</v>
+        <v>341</v>
       </c>
       <c r="D12" s="7">
-        <v>175016</v>
+        <v>248918</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -5469,10 +5469,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>238</v>
+        <v>280</v>
       </c>
       <c r="I12" s="7">
-        <v>170807</v>
+        <v>192352</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -5484,10 +5484,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>476</v>
+        <v>621</v>
       </c>
       <c r="N12" s="7">
-        <v>345822</v>
+        <v>441270</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -5507,49 +5507,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>14</v>
+        <v>168</v>
       </c>
       <c r="D13" s="7">
-        <v>9537</v>
+        <v>134840</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>390</v>
+        <v>166</v>
       </c>
       <c r="H13" s="7">
-        <v>20</v>
+        <v>172</v>
       </c>
       <c r="I13" s="7">
-        <v>12937</v>
+        <v>123776</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="M13" s="7">
-        <v>34</v>
+        <v>340</v>
       </c>
       <c r="N13" s="7">
-        <v>22474</v>
+        <v>258616</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5558,25 +5558,25 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>4</v>
+        <v>52</v>
       </c>
       <c r="D14" s="7">
-        <v>2658</v>
+        <v>36018</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>398</v>
+        <v>174</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>399</v>
       </c>
       <c r="H14" s="7">
-        <v>8</v>
+        <v>54</v>
       </c>
       <c r="I14" s="7">
-        <v>3850</v>
+        <v>44126</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>400</v>
@@ -5588,10 +5588,10 @@
         <v>402</v>
       </c>
       <c r="M14" s="7">
-        <v>12</v>
+        <v>106</v>
       </c>
       <c r="N14" s="7">
-        <v>6509</v>
+        <v>80144</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>403</v>
@@ -5609,10 +5609,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>18</v>
+        <v>220</v>
       </c>
       <c r="D15" s="7">
-        <v>12195</v>
+        <v>170858</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -5624,10 +5624,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>28</v>
+        <v>226</v>
       </c>
       <c r="I15" s="7">
-        <v>16787</v>
+        <v>167902</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -5639,10 +5639,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>46</v>
+        <v>446</v>
       </c>
       <c r="N15" s="7">
-        <v>28983</v>
+        <v>338760</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -5662,10 +5662,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>168</v>
+        <v>201</v>
       </c>
       <c r="D16" s="7">
-        <v>134840</v>
+        <v>152684</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>406</v>
@@ -5674,28 +5674,28 @@
         <v>407</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>132</v>
+        <v>408</v>
       </c>
       <c r="H16" s="7">
-        <v>172</v>
+        <v>194</v>
       </c>
       <c r="I16" s="7">
-        <v>123776</v>
+        <v>139782</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>409</v>
+        <v>306</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>410</v>
       </c>
       <c r="M16" s="7">
-        <v>340</v>
+        <v>395</v>
       </c>
       <c r="N16" s="7">
-        <v>258616</v>
+        <v>292465</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>411</v>
@@ -5713,40 +5713,40 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="D17" s="7">
-        <v>36018</v>
+        <v>22332</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>414</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>140</v>
+        <v>415</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="H17" s="7">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="I17" s="7">
-        <v>44126</v>
+        <v>31025</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>418</v>
+        <v>316</v>
       </c>
       <c r="M17" s="7">
-        <v>106</v>
+        <v>81</v>
       </c>
       <c r="N17" s="7">
-        <v>80144</v>
+        <v>53357</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>419</v>
@@ -5764,10 +5764,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>220</v>
+        <v>238</v>
       </c>
       <c r="D18" s="7">
-        <v>170858</v>
+        <v>175016</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -5779,10 +5779,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>226</v>
+        <v>238</v>
       </c>
       <c r="I18" s="7">
-        <v>167902</v>
+        <v>170807</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -5794,10 +5794,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>446</v>
+        <v>476</v>
       </c>
       <c r="N18" s="7">
-        <v>338760</v>
+        <v>345822</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>

--- a/data/trans_orig/IP24_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP24_R-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{75331A1A-9B86-4276-9431-852AE17F9A19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F2748A97-43E3-4B77-9633-EFA4A3C47425}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{07A37E5D-EE5C-4D14-BCF1-CD07EB497B7A}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{851991EB-A3D8-4650-963B-C61843926C3D}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="820" uniqueCount="440">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="441">
   <si>
     <t>Menores según si no hacen ejercicio en 2007 (Tasa respuesta: 99,76%)</t>
   </si>
@@ -71,22 +71,52 @@
     <t>Menos de 2</t>
   </si>
   <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>25,38%</t>
+  </si>
+  <si>
+    <t>12,81%</t>
+  </si>
+  <si>
+    <t>44,51%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>17,11%</t>
+  </si>
+  <si>
+    <t>14,89%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>27,61%</t>
+  </si>
+  <si>
     <t>No</t>
   </si>
   <si>
     <t>74,62%</t>
   </si>
   <si>
-    <t>55,9%</t>
-  </si>
-  <si>
-    <t>87,4%</t>
+    <t>55,49%</t>
+  </si>
+  <si>
+    <t>87,19%</t>
   </si>
   <si>
     <t>96,86%</t>
   </si>
   <si>
-    <t>82,57%</t>
+    <t>82,89%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -95,40 +125,10 @@
     <t>85,11%</t>
   </si>
   <si>
-    <t>74,63%</t>
-  </si>
-  <si>
-    <t>93,29%</t>
-  </si>
-  <si>
-    <t>Sí</t>
-  </si>
-  <si>
-    <t>25,38%</t>
-  </si>
-  <si>
-    <t>12,6%</t>
-  </si>
-  <si>
-    <t>44,1%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>17,43%</t>
-  </si>
-  <si>
-    <t>14,89%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>25,37%</t>
+    <t>72,39%</t>
+  </si>
+  <si>
+    <t>91,92%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,918 +137,942 @@
     <t>2/10</t>
   </si>
   <si>
+    <t>22,61%</t>
+  </si>
+  <si>
+    <t>16,94%</t>
+  </si>
+  <si>
+    <t>29,25%</t>
+  </si>
+  <si>
+    <t>29,54%</t>
+  </si>
+  <si>
+    <t>22,8%</t>
+  </si>
+  <si>
+    <t>36,36%</t>
+  </si>
+  <si>
+    <t>25,89%</t>
+  </si>
+  <si>
+    <t>21,55%</t>
+  </si>
+  <si>
+    <t>30,25%</t>
+  </si>
+  <si>
     <t>77,39%</t>
   </si>
   <si>
-    <t>71,35%</t>
-  </si>
-  <si>
-    <t>82,99%</t>
+    <t>70,75%</t>
+  </si>
+  <si>
+    <t>83,06%</t>
   </si>
   <si>
     <t>70,46%</t>
   </si>
   <si>
-    <t>62,75%</t>
-  </si>
-  <si>
-    <t>76,74%</t>
+    <t>63,64%</t>
+  </si>
+  <si>
+    <t>77,2%</t>
   </si>
   <si>
     <t>74,11%</t>
   </si>
   <si>
-    <t>69,31%</t>
-  </si>
-  <si>
-    <t>78,53%</t>
-  </si>
-  <si>
-    <t>22,61%</t>
-  </si>
-  <si>
-    <t>17,01%</t>
-  </si>
-  <si>
-    <t>28,65%</t>
-  </si>
-  <si>
-    <t>29,54%</t>
-  </si>
-  <si>
-    <t>23,26%</t>
-  </si>
-  <si>
-    <t>37,25%</t>
-  </si>
-  <si>
-    <t>25,89%</t>
-  </si>
-  <si>
-    <t>21,47%</t>
-  </si>
-  <si>
-    <t>30,69%</t>
+    <t>69,75%</t>
+  </si>
+  <si>
+    <t>78,45%</t>
   </si>
   <si>
     <t>10/50</t>
   </si>
   <si>
+    <t>23,42%</t>
+  </si>
+  <si>
+    <t>18,83%</t>
+  </si>
+  <si>
+    <t>28,61%</t>
+  </si>
+  <si>
+    <t>27,77%</t>
+  </si>
+  <si>
+    <t>23,29%</t>
+  </si>
+  <si>
+    <t>33,33%</t>
+  </si>
+  <si>
+    <t>25,5%</t>
+  </si>
+  <si>
+    <t>22,35%</t>
+  </si>
+  <si>
+    <t>29,09%</t>
+  </si>
+  <si>
     <t>76,58%</t>
   </si>
   <si>
-    <t>71,97%</t>
-  </si>
-  <si>
-    <t>81,25%</t>
+    <t>71,39%</t>
+  </si>
+  <si>
+    <t>81,17%</t>
   </si>
   <si>
     <t>72,23%</t>
   </si>
   <si>
-    <t>66,75%</t>
-  </si>
-  <si>
-    <t>77,03%</t>
+    <t>66,67%</t>
+  </si>
+  <si>
+    <t>76,71%</t>
   </si>
   <si>
     <t>74,5%</t>
   </si>
   <si>
-    <t>71,27%</t>
-  </si>
-  <si>
-    <t>77,69%</t>
-  </si>
-  <si>
-    <t>23,42%</t>
-  </si>
-  <si>
-    <t>18,75%</t>
-  </si>
-  <si>
-    <t>28,03%</t>
-  </si>
-  <si>
-    <t>27,77%</t>
-  </si>
-  <si>
-    <t>22,97%</t>
-  </si>
-  <si>
-    <t>33,25%</t>
-  </si>
-  <si>
-    <t>25,5%</t>
-  </si>
-  <si>
-    <t>22,31%</t>
-  </si>
-  <si>
-    <t>28,73%</t>
+    <t>70,91%</t>
+  </si>
+  <si>
+    <t>77,65%</t>
   </si>
   <si>
     <t>mas de 50</t>
   </si>
   <si>
+    <t>19,76%</t>
+  </si>
+  <si>
+    <t>14,7%</t>
+  </si>
+  <si>
+    <t>25,79%</t>
+  </si>
+  <si>
+    <t>22,69%</t>
+  </si>
+  <si>
+    <t>18,06%</t>
+  </si>
+  <si>
+    <t>28,49%</t>
+  </si>
+  <si>
+    <t>21,16%</t>
+  </si>
+  <si>
+    <t>17,42%</t>
+  </si>
+  <si>
+    <t>24,7%</t>
+  </si>
+  <si>
     <t>80,24%</t>
   </si>
   <si>
-    <t>74,48%</t>
-  </si>
-  <si>
-    <t>85,0%</t>
+    <t>74,21%</t>
+  </si>
+  <si>
+    <t>85,3%</t>
   </si>
   <si>
     <t>77,31%</t>
   </si>
   <si>
+    <t>71,51%</t>
+  </si>
+  <si>
+    <t>81,94%</t>
+  </si>
+  <si>
+    <t>78,84%</t>
+  </si>
+  <si>
+    <t>75,3%</t>
+  </si>
+  <si>
+    <t>82,58%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>26,29%</t>
+  </si>
+  <si>
+    <t>21,35%</t>
+  </si>
+  <si>
+    <t>30,93%</t>
+  </si>
+  <si>
+    <t>24,77%</t>
+  </si>
+  <si>
+    <t>20,11%</t>
+  </si>
+  <si>
+    <t>30,79%</t>
+  </si>
+  <si>
+    <t>25,53%</t>
+  </si>
+  <si>
+    <t>22,01%</t>
+  </si>
+  <si>
+    <t>29,19%</t>
+  </si>
+  <si>
+    <t>73,71%</t>
+  </si>
+  <si>
+    <t>69,07%</t>
+  </si>
+  <si>
+    <t>78,65%</t>
+  </si>
+  <si>
+    <t>75,23%</t>
+  </si>
+  <si>
+    <t>69,21%</t>
+  </si>
+  <si>
+    <t>79,89%</t>
+  </si>
+  <si>
+    <t>74,47%</t>
+  </si>
+  <si>
+    <t>70,81%</t>
+  </si>
+  <si>
+    <t>77,99%</t>
+  </si>
+  <si>
+    <t>23,41%</t>
+  </si>
+  <si>
+    <t>21,21%</t>
+  </si>
+  <si>
+    <t>25,96%</t>
+  </si>
+  <si>
+    <t>25,29%</t>
+  </si>
+  <si>
+    <t>22,78%</t>
+  </si>
+  <si>
+    <t>28,19%</t>
+  </si>
+  <si>
+    <t>24,32%</t>
+  </si>
+  <si>
+    <t>22,5%</t>
+  </si>
+  <si>
+    <t>26,15%</t>
+  </si>
+  <si>
+    <t>76,59%</t>
+  </si>
+  <si>
+    <t>74,04%</t>
+  </si>
+  <si>
+    <t>78,79%</t>
+  </si>
+  <si>
+    <t>74,71%</t>
+  </si>
+  <si>
+    <t>71,81%</t>
+  </si>
+  <si>
+    <t>77,22%</t>
+  </si>
+  <si>
+    <t>75,68%</t>
+  </si>
+  <si>
+    <t>73,85%</t>
+  </si>
+  <si>
+    <t>77,5%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según si no hacen ejercicio en 2012 (Tasa respuesta: 98,95%)</t>
+  </si>
+  <si>
+    <t>13,11%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>31,36%</t>
+  </si>
+  <si>
+    <t>28,6%</t>
+  </si>
+  <si>
+    <t>14,04%</t>
+  </si>
+  <si>
+    <t>52,07%</t>
+  </si>
+  <si>
+    <t>20,51%</t>
+  </si>
+  <si>
+    <t>10,93%</t>
+  </si>
+  <si>
+    <t>32,76%</t>
+  </si>
+  <si>
+    <t>86,89%</t>
+  </si>
+  <si>
+    <t>68,64%</t>
+  </si>
+  <si>
+    <t>96,68%</t>
+  </si>
+  <si>
     <t>71,4%</t>
   </si>
   <si>
-    <t>82,07%</t>
-  </si>
-  <si>
-    <t>78,84%</t>
-  </si>
-  <si>
-    <t>74,89%</t>
-  </si>
-  <si>
-    <t>82,49%</t>
-  </si>
-  <si>
-    <t>19,76%</t>
-  </si>
-  <si>
-    <t>15,0%</t>
-  </si>
-  <si>
-    <t>25,52%</t>
-  </si>
-  <si>
-    <t>22,69%</t>
-  </si>
-  <si>
-    <t>17,93%</t>
-  </si>
-  <si>
-    <t>28,6%</t>
-  </si>
-  <si>
-    <t>21,16%</t>
-  </si>
-  <si>
-    <t>17,51%</t>
-  </si>
-  <si>
-    <t>25,11%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>73,71%</t>
-  </si>
-  <si>
-    <t>67,85%</t>
-  </si>
-  <si>
-    <t>78,22%</t>
-  </si>
-  <si>
-    <t>75,23%</t>
-  </si>
-  <si>
-    <t>69,89%</t>
-  </si>
-  <si>
-    <t>74,47%</t>
-  </si>
-  <si>
-    <t>70,79%</t>
-  </si>
-  <si>
-    <t>78,06%</t>
-  </si>
-  <si>
-    <t>26,29%</t>
-  </si>
-  <si>
-    <t>21,78%</t>
-  </si>
-  <si>
-    <t>32,15%</t>
-  </si>
-  <si>
-    <t>24,77%</t>
-  </si>
-  <si>
-    <t>30,11%</t>
-  </si>
-  <si>
-    <t>25,53%</t>
-  </si>
-  <si>
-    <t>21,94%</t>
-  </si>
-  <si>
-    <t>29,21%</t>
-  </si>
-  <si>
-    <t>76,59%</t>
-  </si>
-  <si>
-    <t>74,0%</t>
-  </si>
-  <si>
-    <t>79,03%</t>
-  </si>
-  <si>
-    <t>74,71%</t>
-  </si>
-  <si>
-    <t>71,98%</t>
-  </si>
-  <si>
-    <t>77,2%</t>
-  </si>
-  <si>
-    <t>75,68%</t>
-  </si>
-  <si>
-    <t>73,87%</t>
-  </si>
-  <si>
-    <t>77,58%</t>
-  </si>
-  <si>
-    <t>23,41%</t>
-  </si>
-  <si>
-    <t>20,97%</t>
-  </si>
-  <si>
-    <t>26,0%</t>
-  </si>
-  <si>
-    <t>25,29%</t>
-  </si>
-  <si>
-    <t>22,8%</t>
-  </si>
-  <si>
-    <t>28,02%</t>
-  </si>
-  <si>
-    <t>24,32%</t>
-  </si>
-  <si>
-    <t>22,42%</t>
-  </si>
-  <si>
-    <t>26,13%</t>
-  </si>
-  <si>
-    <t>Menores según si no hacen ejercicio en 2012 (Tasa respuesta: 98,95%)</t>
-  </si>
-  <si>
-    <t>86,89%</t>
-  </si>
-  <si>
-    <t>70,69%</t>
-  </si>
-  <si>
-    <t>96,82%</t>
-  </si>
-  <si>
-    <t>49,34%</t>
-  </si>
-  <si>
-    <t>86,53%</t>
+    <t>47,93%</t>
+  </si>
+  <si>
+    <t>85,96%</t>
   </si>
   <si>
     <t>79,49%</t>
   </si>
   <si>
-    <t>66,41%</t>
-  </si>
-  <si>
-    <t>87,86%</t>
-  </si>
-  <si>
-    <t>13,11%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>29,31%</t>
-  </si>
-  <si>
-    <t>13,47%</t>
-  </si>
-  <si>
-    <t>50,66%</t>
-  </si>
-  <si>
-    <t>20,51%</t>
-  </si>
-  <si>
-    <t>12,14%</t>
-  </si>
-  <si>
-    <t>33,59%</t>
+    <t>67,24%</t>
+  </si>
+  <si>
+    <t>89,07%</t>
+  </si>
+  <si>
+    <t>15,8%</t>
+  </si>
+  <si>
+    <t>11,04%</t>
+  </si>
+  <si>
+    <t>21,67%</t>
+  </si>
+  <si>
+    <t>16,12%</t>
+  </si>
+  <si>
+    <t>11,12%</t>
+  </si>
+  <si>
+    <t>22,81%</t>
+  </si>
+  <si>
+    <t>15,95%</t>
+  </si>
+  <si>
+    <t>12,47%</t>
+  </si>
+  <si>
+    <t>20,24%</t>
   </si>
   <si>
     <t>84,2%</t>
   </si>
   <si>
-    <t>78,27%</t>
-  </si>
-  <si>
-    <t>88,77%</t>
+    <t>78,33%</t>
+  </si>
+  <si>
+    <t>88,96%</t>
   </si>
   <si>
     <t>83,88%</t>
   </si>
   <si>
-    <t>77,94%</t>
-  </si>
-  <si>
-    <t>89,08%</t>
+    <t>77,19%</t>
+  </si>
+  <si>
+    <t>88,88%</t>
   </si>
   <si>
     <t>84,05%</t>
   </si>
   <si>
-    <t>79,6%</t>
-  </si>
-  <si>
-    <t>87,78%</t>
-  </si>
-  <si>
-    <t>15,8%</t>
-  </si>
-  <si>
-    <t>11,23%</t>
-  </si>
-  <si>
-    <t>21,73%</t>
-  </si>
-  <si>
-    <t>16,12%</t>
-  </si>
-  <si>
-    <t>10,92%</t>
-  </si>
-  <si>
-    <t>22,06%</t>
-  </si>
-  <si>
-    <t>15,95%</t>
-  </si>
-  <si>
-    <t>12,22%</t>
-  </si>
-  <si>
-    <t>20,4%</t>
+    <t>79,76%</t>
+  </si>
+  <si>
+    <t>87,53%</t>
+  </si>
+  <si>
+    <t>15,84%</t>
+  </si>
+  <si>
+    <t>11,89%</t>
+  </si>
+  <si>
+    <t>19,85%</t>
+  </si>
+  <si>
+    <t>17,5%</t>
+  </si>
+  <si>
+    <t>26,6%</t>
+  </si>
+  <si>
+    <t>18,65%</t>
+  </si>
+  <si>
+    <t>15,63%</t>
+  </si>
+  <si>
+    <t>21,71%</t>
   </si>
   <si>
     <t>84,16%</t>
   </si>
   <si>
-    <t>80,02%</t>
-  </si>
-  <si>
-    <t>87,92%</t>
-  </si>
-  <si>
-    <t>78,33%</t>
-  </si>
-  <si>
-    <t>73,39%</t>
+    <t>80,15%</t>
+  </si>
+  <si>
+    <t>88,11%</t>
+  </si>
+  <si>
+    <t>73,4%</t>
+  </si>
+  <si>
+    <t>82,5%</t>
+  </si>
+  <si>
+    <t>81,35%</t>
+  </si>
+  <si>
+    <t>78,29%</t>
+  </si>
+  <si>
+    <t>84,37%</t>
+  </si>
+  <si>
+    <t>17,92%</t>
+  </si>
+  <si>
+    <t>23,18%</t>
+  </si>
+  <si>
+    <t>21,9%</t>
+  </si>
+  <si>
+    <t>16,86%</t>
+  </si>
+  <si>
+    <t>27,45%</t>
+  </si>
+  <si>
+    <t>19,84%</t>
+  </si>
+  <si>
+    <t>16,34%</t>
+  </si>
+  <si>
+    <t>23,63%</t>
+  </si>
+  <si>
+    <t>82,08%</t>
+  </si>
+  <si>
+    <t>76,82%</t>
+  </si>
+  <si>
+    <t>78,1%</t>
+  </si>
+  <si>
+    <t>72,55%</t>
+  </si>
+  <si>
+    <t>83,14%</t>
+  </si>
+  <si>
+    <t>80,16%</t>
+  </si>
+  <si>
+    <t>76,37%</t>
+  </si>
+  <si>
+    <t>83,66%</t>
+  </si>
+  <si>
+    <t>14,86%</t>
+  </si>
+  <si>
+    <t>19,41%</t>
+  </si>
+  <si>
+    <t>19,28%</t>
+  </si>
+  <si>
+    <t>14,51%</t>
+  </si>
+  <si>
+    <t>24,47%</t>
+  </si>
+  <si>
+    <t>17,1%</t>
+  </si>
+  <si>
+    <t>14,42%</t>
+  </si>
+  <si>
+    <t>20,53%</t>
+  </si>
+  <si>
+    <t>85,14%</t>
+  </si>
+  <si>
+    <t>80,59%</t>
+  </si>
+  <si>
+    <t>80,72%</t>
+  </si>
+  <si>
+    <t>75,53%</t>
+  </si>
+  <si>
+    <t>85,49%</t>
+  </si>
+  <si>
+    <t>82,9%</t>
+  </si>
+  <si>
+    <t>79,47%</t>
+  </si>
+  <si>
+    <t>85,58%</t>
+  </si>
+  <si>
+    <t>15,94%</t>
+  </si>
+  <si>
+    <t>13,82%</t>
+  </si>
+  <si>
+    <t>18,31%</t>
+  </si>
+  <si>
+    <t>20,33%</t>
+  </si>
+  <si>
+    <t>18,15%</t>
+  </si>
+  <si>
+    <t>23,0%</t>
+  </si>
+  <si>
+    <t>18,08%</t>
+  </si>
+  <si>
+    <t>16,53%</t>
+  </si>
+  <si>
+    <t>19,8%</t>
+  </si>
+  <si>
+    <t>84,06%</t>
+  </si>
+  <si>
+    <t>81,69%</t>
+  </si>
+  <si>
+    <t>86,18%</t>
+  </si>
+  <si>
+    <t>79,67%</t>
+  </si>
+  <si>
+    <t>77,0%</t>
+  </si>
+  <si>
+    <t>81,85%</t>
+  </si>
+  <si>
+    <t>81,92%</t>
+  </si>
+  <si>
+    <t>80,2%</t>
+  </si>
+  <si>
+    <t>83,47%</t>
+  </si>
+  <si>
+    <t>Menores según si no hacen ejercicio en 2015 (Tasa respuesta: 99,62%)</t>
+  </si>
+  <si>
+    <t>17,85%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>37,55%</t>
+  </si>
+  <si>
+    <t>24,3%</t>
+  </si>
+  <si>
+    <t>10,4%</t>
+  </si>
+  <si>
+    <t>45,71%</t>
+  </si>
+  <si>
+    <t>20,94%</t>
+  </si>
+  <si>
+    <t>11,14%</t>
+  </si>
+  <si>
+    <t>34,18%</t>
+  </si>
+  <si>
+    <t>82,15%</t>
+  </si>
+  <si>
+    <t>62,45%</t>
+  </si>
+  <si>
+    <t>93,34%</t>
+  </si>
+  <si>
+    <t>75,7%</t>
+  </si>
+  <si>
+    <t>54,29%</t>
+  </si>
+  <si>
+    <t>89,6%</t>
+  </si>
+  <si>
+    <t>79,06%</t>
+  </si>
+  <si>
+    <t>65,82%</t>
+  </si>
+  <si>
+    <t>88,86%</t>
+  </si>
+  <si>
+    <t>13,22%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>19,02%</t>
+  </si>
+  <si>
+    <t>23,07%</t>
+  </si>
+  <si>
+    <t>17,63%</t>
+  </si>
+  <si>
+    <t>30,22%</t>
+  </si>
+  <si>
+    <t>17,89%</t>
+  </si>
+  <si>
+    <t>13,85%</t>
+  </si>
+  <si>
+    <t>22,2%</t>
+  </si>
+  <si>
+    <t>86,78%</t>
+  </si>
+  <si>
+    <t>80,98%</t>
+  </si>
+  <si>
+    <t>91,23%</t>
+  </si>
+  <si>
+    <t>76,93%</t>
+  </si>
+  <si>
+    <t>69,78%</t>
+  </si>
+  <si>
+    <t>82,37%</t>
+  </si>
+  <si>
+    <t>82,11%</t>
+  </si>
+  <si>
+    <t>77,8%</t>
+  </si>
+  <si>
+    <t>86,15%</t>
+  </si>
+  <si>
+    <t>19,37%</t>
+  </si>
+  <si>
+    <t>15,4%</t>
+  </si>
+  <si>
+    <t>23,53%</t>
+  </si>
+  <si>
+    <t>21,15%</t>
+  </si>
+  <si>
+    <t>16,73%</t>
+  </si>
+  <si>
+    <t>25,68%</t>
+  </si>
+  <si>
+    <t>20,22%</t>
+  </si>
+  <si>
+    <t>17,33%</t>
+  </si>
+  <si>
+    <t>23,33%</t>
+  </si>
+  <si>
+    <t>80,63%</t>
+  </si>
+  <si>
+    <t>76,47%</t>
+  </si>
+  <si>
+    <t>84,6%</t>
+  </si>
+  <si>
+    <t>78,85%</t>
+  </si>
+  <si>
+    <t>74,32%</t>
+  </si>
+  <si>
+    <t>83,27%</t>
+  </si>
+  <si>
+    <t>79,78%</t>
+  </si>
+  <si>
+    <t>76,67%</t>
   </si>
   <si>
     <t>82,67%</t>
   </si>
   <si>
-    <t>81,35%</t>
-  </si>
-  <si>
-    <t>78,07%</t>
-  </si>
-  <si>
-    <t>84,17%</t>
-  </si>
-  <si>
-    <t>15,84%</t>
-  </si>
-  <si>
-    <t>12,08%</t>
-  </si>
-  <si>
-    <t>19,98%</t>
-  </si>
-  <si>
-    <t>21,67%</t>
-  </si>
-  <si>
-    <t>17,33%</t>
-  </si>
-  <si>
-    <t>26,61%</t>
-  </si>
-  <si>
-    <t>18,65%</t>
-  </si>
-  <si>
-    <t>15,83%</t>
-  </si>
-  <si>
-    <t>21,93%</t>
-  </si>
-  <si>
-    <t>82,08%</t>
-  </si>
-  <si>
-    <t>77,26%</t>
-  </si>
-  <si>
-    <t>87,11%</t>
-  </si>
-  <si>
-    <t>78,1%</t>
-  </si>
-  <si>
-    <t>72,19%</t>
-  </si>
-  <si>
-    <t>80,16%</t>
-  </si>
-  <si>
-    <t>76,86%</t>
-  </si>
-  <si>
-    <t>83,64%</t>
-  </si>
-  <si>
-    <t>17,92%</t>
-  </si>
-  <si>
-    <t>12,89%</t>
-  </si>
-  <si>
-    <t>22,74%</t>
-  </si>
-  <si>
-    <t>21,9%</t>
-  </si>
-  <si>
-    <t>27,81%</t>
-  </si>
-  <si>
-    <t>19,84%</t>
-  </si>
-  <si>
-    <t>16,36%</t>
-  </si>
-  <si>
-    <t>23,14%</t>
-  </si>
-  <si>
-    <t>85,14%</t>
-  </si>
-  <si>
-    <t>80,82%</t>
-  </si>
-  <si>
-    <t>88,99%</t>
-  </si>
-  <si>
-    <t>80,72%</t>
-  </si>
-  <si>
-    <t>75,71%</t>
-  </si>
-  <si>
-    <t>85,33%</t>
-  </si>
-  <si>
-    <t>82,9%</t>
-  </si>
-  <si>
-    <t>79,66%</t>
-  </si>
-  <si>
-    <t>85,79%</t>
-  </si>
-  <si>
-    <t>14,86%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>19,18%</t>
-  </si>
-  <si>
-    <t>19,28%</t>
-  </si>
-  <si>
-    <t>14,67%</t>
-  </si>
-  <si>
-    <t>24,29%</t>
-  </si>
-  <si>
-    <t>17,1%</t>
-  </si>
-  <si>
-    <t>14,21%</t>
-  </si>
-  <si>
-    <t>20,34%</t>
-  </si>
-  <si>
-    <t>84,06%</t>
-  </si>
-  <si>
-    <t>81,69%</t>
-  </si>
-  <si>
-    <t>86,17%</t>
-  </si>
-  <si>
-    <t>79,67%</t>
-  </si>
-  <si>
-    <t>77,11%</t>
-  </si>
-  <si>
-    <t>81,92%</t>
-  </si>
-  <si>
-    <t>80,31%</t>
-  </si>
-  <si>
-    <t>83,78%</t>
-  </si>
-  <si>
-    <t>15,94%</t>
-  </si>
-  <si>
-    <t>13,83%</t>
-  </si>
-  <si>
-    <t>18,31%</t>
-  </si>
-  <si>
-    <t>20,33%</t>
-  </si>
-  <si>
-    <t>18,08%</t>
-  </si>
-  <si>
-    <t>22,89%</t>
-  </si>
-  <si>
-    <t>16,22%</t>
-  </si>
-  <si>
-    <t>19,69%</t>
-  </si>
-  <si>
-    <t>Menores según si no hacen ejercicio en 2015 (Tasa respuesta: 99,62%)</t>
-  </si>
-  <si>
-    <t>82,15%</t>
-  </si>
-  <si>
-    <t>62,36%</t>
-  </si>
-  <si>
-    <t>93,37%</t>
-  </si>
-  <si>
-    <t>75,7%</t>
-  </si>
-  <si>
-    <t>53,28%</t>
-  </si>
-  <si>
-    <t>90,38%</t>
-  </si>
-  <si>
-    <t>79,06%</t>
-  </si>
-  <si>
-    <t>64,43%</t>
-  </si>
-  <si>
-    <t>88,61%</t>
-  </si>
-  <si>
-    <t>17,85%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>37,64%</t>
-  </si>
-  <si>
-    <t>24,3%</t>
-  </si>
-  <si>
-    <t>9,62%</t>
-  </si>
-  <si>
-    <t>46,72%</t>
-  </si>
-  <si>
-    <t>20,94%</t>
-  </si>
-  <si>
-    <t>11,39%</t>
-  </si>
-  <si>
-    <t>35,57%</t>
-  </si>
-  <si>
-    <t>86,78%</t>
-  </si>
-  <si>
-    <t>81,37%</t>
-  </si>
-  <si>
-    <t>91,22%</t>
-  </si>
-  <si>
-    <t>76,93%</t>
-  </si>
-  <si>
-    <t>69,81%</t>
-  </si>
-  <si>
-    <t>83,03%</t>
-  </si>
-  <si>
-    <t>82,11%</t>
-  </si>
-  <si>
-    <t>77,63%</t>
-  </si>
-  <si>
-    <t>86,05%</t>
-  </si>
-  <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>18,63%</t>
-  </si>
-  <si>
-    <t>23,07%</t>
-  </si>
-  <si>
-    <t>16,97%</t>
-  </si>
-  <si>
-    <t>30,19%</t>
-  </si>
-  <si>
-    <t>17,89%</t>
-  </si>
-  <si>
-    <t>13,95%</t>
-  </si>
-  <si>
-    <t>22,37%</t>
-  </si>
-  <si>
-    <t>80,63%</t>
-  </si>
-  <si>
-    <t>75,92%</t>
-  </si>
-  <si>
-    <t>84,22%</t>
-  </si>
-  <si>
-    <t>78,85%</t>
-  </si>
-  <si>
-    <t>74,13%</t>
-  </si>
-  <si>
-    <t>83,01%</t>
-  </si>
-  <si>
-    <t>79,78%</t>
-  </si>
-  <si>
-    <t>76,89%</t>
-  </si>
-  <si>
-    <t>82,79%</t>
-  </si>
-  <si>
-    <t>19,37%</t>
-  </si>
-  <si>
-    <t>15,78%</t>
-  </si>
-  <si>
-    <t>24,08%</t>
-  </si>
-  <si>
-    <t>21,15%</t>
-  </si>
-  <si>
-    <t>16,99%</t>
-  </si>
-  <si>
-    <t>25,87%</t>
-  </si>
-  <si>
-    <t>20,22%</t>
-  </si>
-  <si>
-    <t>17,21%</t>
-  </si>
-  <si>
-    <t>23,11%</t>
+    <t>15,23%</t>
+  </si>
+  <si>
+    <t>10,69%</t>
+  </si>
+  <si>
+    <t>19,89%</t>
+  </si>
+  <si>
+    <t>21,66%</t>
+  </si>
+  <si>
+    <t>27,2%</t>
+  </si>
+  <si>
+    <t>18,34%</t>
+  </si>
+  <si>
+    <t>15,18%</t>
+  </si>
+  <si>
+    <t>21,95%</t>
   </si>
   <si>
     <t>84,77%</t>
   </si>
   <si>
-    <t>79,85%</t>
-  </si>
-  <si>
-    <t>89,04%</t>
+    <t>80,11%</t>
+  </si>
+  <si>
+    <t>89,31%</t>
   </si>
   <si>
     <t>78,34%</t>
   </si>
   <si>
-    <t>73,22%</t>
-  </si>
-  <si>
-    <t>82,87%</t>
+    <t>72,8%</t>
   </si>
   <si>
     <t>81,66%</t>
   </si>
   <si>
-    <t>78,19%</t>
-  </si>
-  <si>
-    <t>84,86%</t>
-  </si>
-  <si>
-    <t>15,23%</t>
-  </si>
-  <si>
-    <t>10,96%</t>
-  </si>
-  <si>
-    <t>20,15%</t>
-  </si>
-  <si>
-    <t>21,66%</t>
-  </si>
-  <si>
-    <t>17,13%</t>
-  </si>
-  <si>
-    <t>26,78%</t>
-  </si>
-  <si>
-    <t>18,34%</t>
-  </si>
-  <si>
-    <t>15,14%</t>
-  </si>
-  <si>
-    <t>21,81%</t>
+    <t>78,05%</t>
+  </si>
+  <si>
+    <t>84,82%</t>
+  </si>
+  <si>
+    <t>17,28%</t>
+  </si>
+  <si>
+    <t>21,99%</t>
+  </si>
+  <si>
+    <t>22,15%</t>
+  </si>
+  <si>
+    <t>17,67%</t>
+  </si>
+  <si>
+    <t>27,7%</t>
+  </si>
+  <si>
+    <t>19,73%</t>
+  </si>
+  <si>
+    <t>16,54%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
   </si>
   <si>
     <t>82,72%</t>
   </si>
   <si>
-    <t>77,61%</t>
-  </si>
-  <si>
-    <t>86,67%</t>
+    <t>78,01%</t>
   </si>
   <si>
     <t>77,85%</t>
   </si>
   <si>
-    <t>73,09%</t>
+    <t>72,3%</t>
+  </si>
+  <si>
+    <t>82,33%</t>
+  </si>
+  <si>
+    <t>80,27%</t>
+  </si>
+  <si>
+    <t>77,15%</t>
+  </si>
+  <si>
+    <t>83,46%</t>
+  </si>
+  <si>
+    <t>16,8%</t>
+  </si>
+  <si>
+    <t>14,41%</t>
+  </si>
+  <si>
+    <t>19,15%</t>
+  </si>
+  <si>
+    <t>21,96%</t>
+  </si>
+  <si>
+    <t>19,52%</t>
+  </si>
+  <si>
+    <t>24,58%</t>
+  </si>
+  <si>
+    <t>19,31%</t>
+  </si>
+  <si>
+    <t>17,56%</t>
+  </si>
+  <si>
+    <t>20,92%</t>
+  </si>
+  <si>
+    <t>83,2%</t>
+  </si>
+  <si>
+    <t>80,85%</t>
+  </si>
+  <si>
+    <t>85,59%</t>
+  </si>
+  <si>
+    <t>78,04%</t>
+  </si>
+  <si>
+    <t>75,42%</t>
+  </si>
+  <si>
+    <t>80,48%</t>
+  </si>
+  <si>
+    <t>80,69%</t>
+  </si>
+  <si>
+    <t>79,08%</t>
   </si>
   <si>
     <t>82,44%</t>
   </si>
   <si>
-    <t>80,27%</t>
-  </si>
-  <si>
-    <t>76,63%</t>
-  </si>
-  <si>
-    <t>83,34%</t>
-  </si>
-  <si>
-    <t>17,28%</t>
-  </si>
-  <si>
-    <t>13,33%</t>
-  </si>
-  <si>
-    <t>22,39%</t>
-  </si>
-  <si>
-    <t>22,15%</t>
-  </si>
-  <si>
-    <t>17,56%</t>
-  </si>
-  <si>
-    <t>26,91%</t>
-  </si>
-  <si>
-    <t>19,73%</t>
-  </si>
-  <si>
-    <t>16,66%</t>
-  </si>
-  <si>
-    <t>23,37%</t>
-  </si>
-  <si>
-    <t>83,2%</t>
-  </si>
-  <si>
-    <t>81,0%</t>
-  </si>
-  <si>
-    <t>85,42%</t>
-  </si>
-  <si>
-    <t>78,04%</t>
-  </si>
-  <si>
-    <t>75,64%</t>
-  </si>
-  <si>
-    <t>80,49%</t>
-  </si>
-  <si>
-    <t>80,69%</t>
-  </si>
-  <si>
-    <t>79,0%</t>
-  </si>
-  <si>
-    <t>82,36%</t>
-  </si>
-  <si>
-    <t>16,8%</t>
-  </si>
-  <si>
-    <t>14,58%</t>
-  </si>
-  <si>
-    <t>19,0%</t>
-  </si>
-  <si>
-    <t>21,96%</t>
-  </si>
-  <si>
-    <t>19,51%</t>
-  </si>
-  <si>
-    <t>24,36%</t>
-  </si>
-  <si>
-    <t>19,31%</t>
-  </si>
-  <si>
-    <t>17,64%</t>
-  </si>
-  <si>
-    <t>21,0%</t>
-  </si>
-  <si>
     <t>Menores según si no hacen ejercicio en 2023 (Tasa respuesta: 99,38%)</t>
   </si>
   <si>
+    <t>21,8%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>47,68%</t>
+  </si>
+  <si>
+    <t>22,94%</t>
+  </si>
+  <si>
+    <t>10,98%</t>
+  </si>
+  <si>
+    <t>42,47%</t>
+  </si>
+  <si>
+    <t>22,46%</t>
+  </si>
+  <si>
+    <t>12,71%</t>
+  </si>
+  <si>
+    <t>35,98%</t>
+  </si>
+  <si>
     <t>78,2%</t>
   </si>
   <si>
@@ -1076,289 +1100,268 @@
     <t>87,29%</t>
   </si>
   <si>
-    <t>21,8%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>47,68%</t>
-  </si>
-  <si>
-    <t>22,94%</t>
-  </si>
-  <si>
-    <t>10,98%</t>
-  </si>
-  <si>
-    <t>42,47%</t>
-  </si>
-  <si>
-    <t>22,46%</t>
-  </si>
-  <si>
-    <t>12,71%</t>
-  </si>
-  <si>
-    <t>35,98%</t>
+    <t>17,52%</t>
+  </si>
+  <si>
+    <t>10,3%</t>
+  </si>
+  <si>
+    <t>34,58%</t>
+  </si>
+  <si>
+    <t>12,53%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>17,45%</t>
+  </si>
+  <si>
+    <t>15,15%</t>
+  </si>
+  <si>
+    <t>10,74%</t>
+  </si>
+  <si>
+    <t>24,13%</t>
   </si>
   <si>
     <t>82,48%</t>
   </si>
   <si>
-    <t>65,14%</t>
-  </si>
-  <si>
-    <t>89,51%</t>
+    <t>65,42%</t>
+  </si>
+  <si>
+    <t>89,7%</t>
   </si>
   <si>
     <t>87,47%</t>
   </si>
   <si>
-    <t>82,35%</t>
-  </si>
-  <si>
-    <t>91,9%</t>
+    <t>82,55%</t>
+  </si>
+  <si>
+    <t>91,95%</t>
   </si>
   <si>
     <t>84,85%</t>
   </si>
   <si>
-    <t>76,38%</t>
-  </si>
-  <si>
-    <t>89,05%</t>
-  </si>
-  <si>
-    <t>17,52%</t>
-  </si>
-  <si>
-    <t>10,49%</t>
-  </si>
-  <si>
-    <t>34,86%</t>
-  </si>
-  <si>
-    <t>12,53%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>17,65%</t>
-  </si>
-  <si>
-    <t>15,15%</t>
-  </si>
-  <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>23,62%</t>
+    <t>75,87%</t>
+  </si>
+  <si>
+    <t>89,26%</t>
+  </si>
+  <si>
+    <t>15,28%</t>
+  </si>
+  <si>
+    <t>11,82%</t>
+  </si>
+  <si>
+    <t>19,55%</t>
+  </si>
+  <si>
+    <t>18,37%</t>
+  </si>
+  <si>
+    <t>13,76%</t>
+  </si>
+  <si>
+    <t>23,61%</t>
+  </si>
+  <si>
+    <t>16,62%</t>
+  </si>
+  <si>
+    <t>13,69%</t>
+  </si>
+  <si>
+    <t>19,71%</t>
   </si>
   <si>
     <t>84,72%</t>
   </si>
   <si>
-    <t>80,67%</t>
-  </si>
-  <si>
-    <t>88,6%</t>
+    <t>80,45%</t>
+  </si>
+  <si>
+    <t>88,18%</t>
   </si>
   <si>
     <t>81,63%</t>
   </si>
   <si>
+    <t>76,39%</t>
+  </si>
+  <si>
+    <t>86,24%</t>
+  </si>
+  <si>
+    <t>83,38%</t>
+  </si>
+  <si>
+    <t>80,29%</t>
+  </si>
+  <si>
+    <t>86,31%</t>
+  </si>
+  <si>
+    <t>21,08%</t>
+  </si>
+  <si>
+    <t>16,08%</t>
+  </si>
+  <si>
+    <t>27,25%</t>
+  </si>
+  <si>
+    <t>26,28%</t>
+  </si>
+  <si>
+    <t>19,64%</t>
+  </si>
+  <si>
+    <t>39,33%</t>
+  </si>
+  <si>
+    <t>23,66%</t>
+  </si>
+  <si>
+    <t>19,34%</t>
+  </si>
+  <si>
+    <t>29,73%</t>
+  </si>
+  <si>
+    <t>78,92%</t>
+  </si>
+  <si>
+    <t>72,75%</t>
+  </si>
+  <si>
+    <t>83,92%</t>
+  </si>
+  <si>
+    <t>73,72%</t>
+  </si>
+  <si>
+    <t>60,67%</t>
+  </si>
+  <si>
+    <t>80,36%</t>
+  </si>
+  <si>
+    <t>76,34%</t>
+  </si>
+  <si>
+    <t>70,27%</t>
+  </si>
+  <si>
+    <t>80,66%</t>
+  </si>
+  <si>
+    <t>12,76%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>17,09%</t>
+  </si>
+  <si>
+    <t>18,16%</t>
+  </si>
+  <si>
+    <t>13,63%</t>
+  </si>
+  <si>
+    <t>23,9%</t>
+  </si>
+  <si>
+    <t>15,43%</t>
+  </si>
+  <si>
+    <t>12,34%</t>
+  </si>
+  <si>
+    <t>18,79%</t>
+  </si>
+  <si>
+    <t>87,24%</t>
+  </si>
+  <si>
+    <t>82,91%</t>
+  </si>
+  <si>
+    <t>90,83%</t>
+  </si>
+  <si>
+    <t>81,84%</t>
+  </si>
+  <si>
     <t>76,1%</t>
   </si>
   <si>
-    <t>86,15%</t>
-  </si>
-  <si>
-    <t>83,38%</t>
-  </si>
-  <si>
-    <t>80,18%</t>
-  </si>
-  <si>
-    <t>86,14%</t>
-  </si>
-  <si>
-    <t>15,28%</t>
-  </si>
-  <si>
-    <t>11,4%</t>
-  </si>
-  <si>
-    <t>19,33%</t>
-  </si>
-  <si>
-    <t>18,37%</t>
-  </si>
-  <si>
-    <t>13,85%</t>
-  </si>
-  <si>
-    <t>23,9%</t>
-  </si>
-  <si>
-    <t>16,62%</t>
-  </si>
-  <si>
-    <t>13,86%</t>
-  </si>
-  <si>
-    <t>19,82%</t>
-  </si>
-  <si>
-    <t>78,92%</t>
-  </si>
-  <si>
-    <t>72,8%</t>
-  </si>
-  <si>
-    <t>73,72%</t>
-  </si>
-  <si>
-    <t>60,71%</t>
-  </si>
-  <si>
-    <t>80,71%</t>
-  </si>
-  <si>
-    <t>76,34%</t>
-  </si>
-  <si>
-    <t>68,55%</t>
-  </si>
-  <si>
-    <t>80,41%</t>
-  </si>
-  <si>
-    <t>21,08%</t>
-  </si>
-  <si>
-    <t>27,2%</t>
-  </si>
-  <si>
-    <t>26,28%</t>
-  </si>
-  <si>
-    <t>19,29%</t>
-  </si>
-  <si>
-    <t>39,29%</t>
-  </si>
-  <si>
-    <t>23,66%</t>
-  </si>
-  <si>
-    <t>19,59%</t>
-  </si>
-  <si>
-    <t>31,45%</t>
-  </si>
-  <si>
-    <t>87,24%</t>
-  </si>
-  <si>
-    <t>82,66%</t>
-  </si>
-  <si>
-    <t>90,84%</t>
-  </si>
-  <si>
-    <t>81,84%</t>
-  </si>
-  <si>
-    <t>86,71%</t>
+    <t>86,37%</t>
   </si>
   <si>
     <t>84,57%</t>
   </si>
   <si>
-    <t>81,04%</t>
-  </si>
-  <si>
-    <t>87,53%</t>
-  </si>
-  <si>
-    <t>12,76%</t>
-  </si>
-  <si>
-    <t>9,16%</t>
-  </si>
-  <si>
-    <t>17,34%</t>
-  </si>
-  <si>
-    <t>18,16%</t>
-  </si>
-  <si>
-    <t>13,29%</t>
-  </si>
-  <si>
-    <t>15,43%</t>
-  </si>
-  <si>
-    <t>12,47%</t>
-  </si>
-  <si>
-    <t>18,96%</t>
+    <t>81,21%</t>
+  </si>
+  <si>
+    <t>87,66%</t>
+  </si>
+  <si>
+    <t>16,51%</t>
+  </si>
+  <si>
+    <t>14,08%</t>
+  </si>
+  <si>
+    <t>19,57%</t>
+  </si>
+  <si>
+    <t>19,54%</t>
+  </si>
+  <si>
+    <t>24,19%</t>
+  </si>
+  <si>
+    <t>17,95%</t>
+  </si>
+  <si>
+    <t>16,17%</t>
+  </si>
+  <si>
+    <t>20,52%</t>
   </si>
   <si>
     <t>83,49%</t>
   </si>
   <si>
-    <t>80,09%</t>
-  </si>
-  <si>
-    <t>85,67%</t>
+    <t>80,43%</t>
+  </si>
+  <si>
+    <t>85,92%</t>
   </si>
   <si>
     <t>80,46%</t>
   </si>
   <si>
-    <t>75,93%</t>
-  </si>
-  <si>
-    <t>83,16%</t>
+    <t>75,81%</t>
   </si>
   <si>
     <t>82,05%</t>
   </si>
   <si>
-    <t>79,8%</t>
-  </si>
-  <si>
-    <t>83,81%</t>
-  </si>
-  <si>
-    <t>16,51%</t>
-  </si>
-  <si>
-    <t>14,33%</t>
-  </si>
-  <si>
-    <t>19,91%</t>
-  </si>
-  <si>
-    <t>19,54%</t>
-  </si>
-  <si>
-    <t>16,84%</t>
-  </si>
-  <si>
-    <t>24,07%</t>
-  </si>
-  <si>
-    <t>17,95%</t>
-  </si>
-  <si>
-    <t>16,19%</t>
-  </si>
-  <si>
-    <t>20,2%</t>
+    <t>79,48%</t>
+  </si>
+  <si>
+    <t>83,83%</t>
   </si>
 </sst>
 </file>
@@ -1369,7 +1372,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1465,39 +1468,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1549,7 +1552,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1660,13 +1663,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -1675,6 +1671,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1739,19 +1742,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44D859F4-0179-4625-BC29-BB10666C32B7}">
-  <dimension ref="A1:Q21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC048BEA-71D0-4924-8034-D6B0D4729499}">
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1868,10 +1891,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="D4" s="7">
-        <v>18986</v>
+        <v>6458</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1883,10 +1906,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="I4" s="7">
-        <v>22010</v>
+        <v>714</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1898,10 +1921,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>53</v>
+        <v>9</v>
       </c>
       <c r="N4" s="7">
-        <v>40996</v>
+        <v>7172</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1919,10 +1942,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="D5" s="7">
-        <v>6458</v>
+        <v>18986</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1934,10 +1957,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="I5" s="7">
-        <v>714</v>
+        <v>22010</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1949,10 +1972,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>9</v>
+        <v>53</v>
       </c>
       <c r="N5" s="7">
-        <v>7172</v>
+        <v>40996</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -2023,10 +2046,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>150</v>
+        <v>43</v>
       </c>
       <c r="D7" s="7">
-        <v>98778</v>
+        <v>28855</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -2038,10 +2061,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>121</v>
+        <v>51</v>
       </c>
       <c r="I7" s="7">
-        <v>80706</v>
+        <v>33842</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -2053,10 +2076,10 @@
         <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>271</v>
+        <v>94</v>
       </c>
       <c r="N7" s="7">
-        <v>179484</v>
+        <v>62697</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -2074,10 +2097,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>43</v>
+        <v>150</v>
       </c>
       <c r="D8" s="7">
-        <v>28855</v>
+        <v>98778</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -2089,10 +2112,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>51</v>
+        <v>121</v>
       </c>
       <c r="I8" s="7">
-        <v>33842</v>
+        <v>80706</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -2104,10 +2127,10 @@
         <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>94</v>
+        <v>271</v>
       </c>
       <c r="N8" s="7">
-        <v>62697</v>
+        <v>179484</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -2178,10 +2201,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>247</v>
+        <v>75</v>
       </c>
       <c r="D10" s="7">
-        <v>162450</v>
+        <v>49692</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -2193,10 +2216,10 @@
         <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>226</v>
+        <v>86</v>
       </c>
       <c r="I10" s="7">
-        <v>140975</v>
+        <v>54188</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -2208,10 +2231,10 @@
         <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>473</v>
+        <v>161</v>
       </c>
       <c r="N10" s="7">
-        <v>303425</v>
+        <v>103880</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -2229,10 +2252,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>75</v>
+        <v>247</v>
       </c>
       <c r="D11" s="7">
-        <v>49692</v>
+        <v>162450</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -2244,10 +2267,10 @@
         <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>86</v>
+        <v>226</v>
       </c>
       <c r="I11" s="7">
-        <v>54188</v>
+        <v>140975</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -2259,10 +2282,10 @@
         <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>161</v>
+        <v>473</v>
       </c>
       <c r="N11" s="7">
-        <v>103880</v>
+        <v>303425</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -2333,10 +2356,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>187</v>
+        <v>45</v>
       </c>
       <c r="D13" s="7">
-        <v>120080</v>
+        <v>29577</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>70</v>
@@ -2348,10 +2371,10 @@
         <v>72</v>
       </c>
       <c r="H13" s="7">
-        <v>175</v>
+        <v>53</v>
       </c>
       <c r="I13" s="7">
-        <v>106056</v>
+        <v>31129</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>73</v>
@@ -2363,10 +2386,10 @@
         <v>75</v>
       </c>
       <c r="M13" s="7">
-        <v>362</v>
+        <v>98</v>
       </c>
       <c r="N13" s="7">
-        <v>226136</v>
+        <v>60706</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>76</v>
@@ -2384,10 +2407,10 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>45</v>
+        <v>187</v>
       </c>
       <c r="D14" s="7">
-        <v>29577</v>
+        <v>120080</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>79</v>
@@ -2399,10 +2422,10 @@
         <v>81</v>
       </c>
       <c r="H14" s="7">
-        <v>53</v>
+        <v>175</v>
       </c>
       <c r="I14" s="7">
-        <v>31129</v>
+        <v>106056</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>82</v>
@@ -2414,10 +2437,10 @@
         <v>84</v>
       </c>
       <c r="M14" s="7">
-        <v>98</v>
+        <v>362</v>
       </c>
       <c r="N14" s="7">
-        <v>60706</v>
+        <v>226136</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>85</v>
@@ -2488,10 +2511,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>222</v>
+        <v>82</v>
       </c>
       <c r="D16" s="7">
-        <v>152180</v>
+        <v>54292</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>89</v>
@@ -2503,10 +2526,10 @@
         <v>91</v>
       </c>
       <c r="H16" s="7">
-        <v>205</v>
+        <v>69</v>
       </c>
       <c r="I16" s="7">
-        <v>157458</v>
+        <v>51857</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>92</v>
@@ -2515,22 +2538,22 @@
         <v>93</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>70</v>
+        <v>94</v>
       </c>
       <c r="M16" s="7">
-        <v>427</v>
+        <v>151</v>
       </c>
       <c r="N16" s="7">
-        <v>309638</v>
+        <v>106149</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2539,49 +2562,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>82</v>
+        <v>222</v>
       </c>
       <c r="D17" s="7">
-        <v>54292</v>
+        <v>152180</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H17" s="7">
-        <v>69</v>
+        <v>205</v>
       </c>
       <c r="I17" s="7">
-        <v>51857</v>
+        <v>157458</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>79</v>
+        <v>102</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="M17" s="7">
-        <v>151</v>
+        <v>427</v>
       </c>
       <c r="N17" s="7">
-        <v>106149</v>
+        <v>309638</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2643,49 +2666,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>831</v>
+        <v>253</v>
       </c>
       <c r="D19" s="7">
-        <v>552475</v>
+        <v>168873</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="H19" s="7">
-        <v>755</v>
+        <v>260</v>
       </c>
       <c r="I19" s="7">
-        <v>507205</v>
+        <v>171730</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="M19" s="7">
-        <v>1586</v>
+        <v>513</v>
       </c>
       <c r="N19" s="7">
-        <v>1059680</v>
+        <v>340603</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2694,49 +2717,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>253</v>
+        <v>831</v>
       </c>
       <c r="D20" s="7">
-        <v>168873</v>
+        <v>552475</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="H20" s="7">
-        <v>260</v>
+        <v>755</v>
       </c>
       <c r="I20" s="7">
-        <v>171730</v>
+        <v>507205</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="M20" s="7">
-        <v>513</v>
+        <v>1586</v>
       </c>
       <c r="N20" s="7">
-        <v>340603</v>
+        <v>1059680</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2788,6 +2811,11 @@
       </c>
       <c r="Q21" s="7" t="s">
         <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -2808,8 +2836,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AC462F9-C824-43ED-8DCE-6083975F7535}">
-  <dimension ref="A1:Q21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C50D57A-4799-446A-89F4-0717BB0EDBC2}">
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2825,7 +2853,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2926,49 +2954,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="D4" s="7">
-        <v>21264</v>
+        <v>3209</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="H4" s="7">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="I4" s="7">
-        <v>15975</v>
+        <v>6398</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>74</v>
+        <v>130</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="M4" s="7">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="N4" s="7">
-        <v>37239</v>
+        <v>9607</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2977,49 +3005,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="D5" s="7">
-        <v>3209</v>
+        <v>21264</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="H5" s="7">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="I5" s="7">
-        <v>6398</v>
+        <v>15975</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>84</v>
+        <v>139</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="M5" s="7">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="N5" s="7">
-        <v>9607</v>
+        <v>37239</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3081,49 +3109,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
+        <v>29</v>
+      </c>
+      <c r="D7" s="7">
+        <v>20181</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="H7" s="7">
+        <v>27</v>
+      </c>
+      <c r="I7" s="7">
+        <v>18583</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="M7" s="7">
+        <v>56</v>
+      </c>
+      <c r="N7" s="7">
+        <v>38765</v>
+      </c>
+      <c r="O7" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="D7" s="7">
-        <v>107530</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="H7" s="7">
-        <v>134</v>
-      </c>
-      <c r="I7" s="7">
-        <v>96730</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="M7" s="7">
-        <v>286</v>
-      </c>
-      <c r="N7" s="7">
-        <v>204259</v>
-      </c>
-      <c r="O7" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>147</v>
-      </c>
       <c r="Q7" s="7" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3132,49 +3160,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>29</v>
+        <v>152</v>
       </c>
       <c r="D8" s="7">
-        <v>20181</v>
+        <v>107530</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="H8" s="7">
-        <v>27</v>
+        <v>134</v>
       </c>
       <c r="I8" s="7">
-        <v>18583</v>
+        <v>96730</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="M8" s="7">
-        <v>56</v>
+        <v>286</v>
       </c>
       <c r="N8" s="7">
-        <v>38765</v>
+        <v>204259</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3236,49 +3264,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>271</v>
+        <v>50</v>
       </c>
       <c r="D10" s="7">
-        <v>186720</v>
+        <v>35153</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="H10" s="7">
-        <v>247</v>
+        <v>71</v>
       </c>
       <c r="I10" s="7">
-        <v>161143</v>
+        <v>44578</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="M10" s="7">
-        <v>518</v>
+        <v>121</v>
       </c>
       <c r="N10" s="7">
-        <v>347863</v>
+        <v>79731</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3287,49 +3315,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>50</v>
+        <v>271</v>
       </c>
       <c r="D11" s="7">
-        <v>35153</v>
+        <v>186720</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="H11" s="7">
-        <v>71</v>
+        <v>247</v>
       </c>
       <c r="I11" s="7">
-        <v>44578</v>
+        <v>161143</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>170</v>
+        <v>155</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="M11" s="7">
-        <v>121</v>
+        <v>518</v>
       </c>
       <c r="N11" s="7">
-        <v>79731</v>
+        <v>347863</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3391,49 +3419,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>213</v>
+        <v>42</v>
       </c>
       <c r="D13" s="7">
-        <v>136227</v>
+        <v>29737</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>177</v>
+        <v>127</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="H13" s="7">
-        <v>188</v>
+        <v>52</v>
       </c>
       <c r="I13" s="7">
-        <v>120550</v>
+        <v>33802</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>34</v>
+        <v>183</v>
       </c>
       <c r="M13" s="7">
-        <v>401</v>
+        <v>94</v>
       </c>
       <c r="N13" s="7">
-        <v>256777</v>
+        <v>63539</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3442,49 +3470,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>42</v>
+        <v>213</v>
       </c>
       <c r="D14" s="7">
-        <v>29737</v>
+        <v>136227</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>186</v>
+        <v>136</v>
       </c>
       <c r="H14" s="7">
-        <v>52</v>
+        <v>188</v>
       </c>
       <c r="I14" s="7">
-        <v>33802</v>
+        <v>120550</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>42</v>
+        <v>190</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="M14" s="7">
-        <v>94</v>
+        <v>401</v>
       </c>
       <c r="N14" s="7">
-        <v>63539</v>
+        <v>256777</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3546,49 +3574,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>233</v>
+        <v>43</v>
       </c>
       <c r="D16" s="7">
-        <v>172769</v>
+        <v>30165</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>193</v>
+        <v>149</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="H16" s="7">
-        <v>218</v>
+        <v>54</v>
       </c>
       <c r="I16" s="7">
-        <v>167889</v>
+        <v>40090</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="M16" s="7">
-        <v>451</v>
+        <v>97</v>
       </c>
       <c r="N16" s="7">
-        <v>340659</v>
+        <v>70255</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3597,49 +3625,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>43</v>
+        <v>233</v>
       </c>
       <c r="D17" s="7">
-        <v>30165</v>
+        <v>172769</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>203</v>
+        <v>159</v>
       </c>
       <c r="H17" s="7">
-        <v>54</v>
+        <v>218</v>
       </c>
       <c r="I17" s="7">
-        <v>40090</v>
+        <v>167889</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="M17" s="7">
-        <v>97</v>
+        <v>451</v>
       </c>
       <c r="N17" s="7">
-        <v>70255</v>
+        <v>340659</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3701,49 +3729,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>892</v>
+        <v>168</v>
       </c>
       <c r="D19" s="7">
-        <v>624510</v>
+        <v>118446</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F19" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="H19" s="7">
         <v>211</v>
       </c>
-      <c r="G19" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="H19" s="7">
-        <v>806</v>
-      </c>
       <c r="I19" s="7">
-        <v>562287</v>
+        <v>143451</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="M19" s="7">
-        <v>1698</v>
+        <v>379</v>
       </c>
       <c r="N19" s="7">
-        <v>1186798</v>
+        <v>261896</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3752,49 +3780,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>168</v>
+        <v>892</v>
       </c>
       <c r="D20" s="7">
-        <v>118446</v>
+        <v>624510</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="H20" s="7">
-        <v>211</v>
+        <v>806</v>
       </c>
       <c r="I20" s="7">
-        <v>143451</v>
+        <v>562287</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="M20" s="7">
-        <v>379</v>
+        <v>1698</v>
       </c>
       <c r="N20" s="7">
-        <v>261896</v>
+        <v>1186798</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3846,6 +3874,11 @@
       </c>
       <c r="Q21" s="7" t="s">
         <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -3866,8 +3899,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFF1C9EB-85FC-400D-90D2-69CA30B331AF}">
-  <dimension ref="A1:Q21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2727999-85A5-48EE-AF53-389AC649070F}">
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3883,7 +3916,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3984,49 +4017,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="D4" s="7">
-        <v>20149</v>
+        <v>4378</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="H4" s="7">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="I4" s="7">
-        <v>17052</v>
+        <v>5475</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="M4" s="7">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="N4" s="7">
-        <v>37201</v>
+        <v>9853</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4035,49 +4068,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="D5" s="7">
-        <v>4378</v>
+        <v>20149</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="H5" s="7">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="I5" s="7">
-        <v>5475</v>
+        <v>17052</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="M5" s="7">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="N5" s="7">
-        <v>9853</v>
+        <v>37201</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4139,49 +4172,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>142</v>
+        <v>23</v>
       </c>
       <c r="D7" s="7">
-        <v>106304</v>
+        <v>16198</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="H7" s="7">
-        <v>124</v>
+        <v>38</v>
       </c>
       <c r="I7" s="7">
-        <v>85003</v>
+        <v>25490</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="M7" s="7">
-        <v>266</v>
+        <v>61</v>
       </c>
       <c r="N7" s="7">
-        <v>191307</v>
+        <v>41688</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4190,49 +4223,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>23</v>
+        <v>142</v>
       </c>
       <c r="D8" s="7">
-        <v>16198</v>
+        <v>106304</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="H8" s="7">
-        <v>38</v>
+        <v>124</v>
       </c>
       <c r="I8" s="7">
-        <v>25490</v>
+        <v>85003</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="M8" s="7">
-        <v>61</v>
+        <v>266</v>
       </c>
       <c r="N8" s="7">
-        <v>41688</v>
+        <v>191307</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4294,49 +4327,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>265</v>
+        <v>66</v>
       </c>
       <c r="D10" s="7">
-        <v>180416</v>
+        <v>43336</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="H10" s="7">
-        <v>262</v>
+        <v>72</v>
       </c>
       <c r="I10" s="7">
-        <v>163421</v>
+        <v>43826</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="M10" s="7">
-        <v>527</v>
+        <v>138</v>
       </c>
       <c r="N10" s="7">
-        <v>343838</v>
+        <v>87161</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4345,49 +4378,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>66</v>
+        <v>265</v>
       </c>
       <c r="D11" s="7">
-        <v>43336</v>
+        <v>180416</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="H11" s="7">
-        <v>72</v>
+        <v>262</v>
       </c>
       <c r="I11" s="7">
-        <v>43826</v>
+        <v>163421</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="M11" s="7">
-        <v>138</v>
+        <v>527</v>
       </c>
       <c r="N11" s="7">
-        <v>87161</v>
+        <v>343838</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4449,49 +4482,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>208</v>
+        <v>39</v>
       </c>
       <c r="D13" s="7">
-        <v>140701</v>
+        <v>25272</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="H13" s="7">
-        <v>201</v>
+        <v>58</v>
       </c>
       <c r="I13" s="7">
-        <v>122214</v>
+        <v>33783</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>285</v>
+        <v>200</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="M13" s="7">
-        <v>409</v>
+        <v>97</v>
       </c>
       <c r="N13" s="7">
-        <v>262914</v>
+        <v>59056</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4500,49 +4533,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>39</v>
+        <v>208</v>
       </c>
       <c r="D14" s="7">
-        <v>25272</v>
+        <v>140701</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="H14" s="7">
-        <v>58</v>
+        <v>201</v>
       </c>
       <c r="I14" s="7">
-        <v>33783</v>
+        <v>122214</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>295</v>
+        <v>208</v>
       </c>
       <c r="M14" s="7">
-        <v>97</v>
+        <v>409</v>
       </c>
       <c r="N14" s="7">
-        <v>59056</v>
+        <v>262914</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4604,25 +4637,25 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>236</v>
+        <v>51</v>
       </c>
       <c r="D16" s="7">
-        <v>168579</v>
+        <v>35220</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>300</v>
+        <v>127</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>301</v>
       </c>
       <c r="H16" s="7">
-        <v>217</v>
+        <v>63</v>
       </c>
       <c r="I16" s="7">
-        <v>160958</v>
+        <v>45792</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>302</v>
@@ -4634,10 +4667,10 @@
         <v>304</v>
       </c>
       <c r="M16" s="7">
-        <v>453</v>
+        <v>114</v>
       </c>
       <c r="N16" s="7">
-        <v>329537</v>
+        <v>81012</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>305</v>
@@ -4655,10 +4688,10 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>51</v>
+        <v>236</v>
       </c>
       <c r="D17" s="7">
-        <v>35220</v>
+        <v>168579</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>308</v>
@@ -4667,37 +4700,37 @@
         <v>309</v>
       </c>
       <c r="G17" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="H17" s="7">
+        <v>217</v>
+      </c>
+      <c r="I17" s="7">
+        <v>160958</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>310</v>
       </c>
-      <c r="H17" s="7">
-        <v>63</v>
-      </c>
-      <c r="I17" s="7">
-        <v>45792</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>311</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>312</v>
       </c>
-      <c r="L17" s="7" t="s">
+      <c r="M17" s="7">
+        <v>453</v>
+      </c>
+      <c r="N17" s="7">
+        <v>329537</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>313</v>
       </c>
-      <c r="M17" s="7">
-        <v>114</v>
-      </c>
-      <c r="N17" s="7">
-        <v>81012</v>
-      </c>
-      <c r="O17" s="7" t="s">
+      <c r="P17" s="7" t="s">
         <v>314</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>315</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4759,49 +4792,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>875</v>
+        <v>184</v>
       </c>
       <c r="D19" s="7">
-        <v>616149</v>
+        <v>124404</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>317</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>318</v>
       </c>
-      <c r="G19" s="7" t="s">
+      <c r="H19" s="7">
+        <v>237</v>
+      </c>
+      <c r="I19" s="7">
+        <v>154366</v>
+      </c>
+      <c r="J19" s="7" t="s">
         <v>319</v>
       </c>
-      <c r="H19" s="7">
-        <v>822</v>
-      </c>
-      <c r="I19" s="7">
-        <v>548648</v>
-      </c>
-      <c r="J19" s="7" t="s">
+      <c r="K19" s="7" t="s">
         <v>320</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>321</v>
       </c>
-      <c r="L19" s="7" t="s">
+      <c r="M19" s="7">
+        <v>421</v>
+      </c>
+      <c r="N19" s="7">
+        <v>278770</v>
+      </c>
+      <c r="O19" s="7" t="s">
         <v>322</v>
       </c>
-      <c r="M19" s="7">
-        <v>1697</v>
-      </c>
-      <c r="N19" s="7">
-        <v>1164797</v>
-      </c>
-      <c r="O19" s="7" t="s">
+      <c r="P19" s="7" t="s">
         <v>323</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>324</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>325</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4810,49 +4843,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>184</v>
+        <v>875</v>
       </c>
       <c r="D20" s="7">
-        <v>124404</v>
+        <v>616149</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>326</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>327</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="H20" s="7">
+        <v>822</v>
+      </c>
+      <c r="I20" s="7">
+        <v>548648</v>
+      </c>
+      <c r="J20" s="7" t="s">
         <v>328</v>
       </c>
-      <c r="H20" s="7">
-        <v>237</v>
-      </c>
-      <c r="I20" s="7">
-        <v>154366</v>
-      </c>
-      <c r="J20" s="7" t="s">
+      <c r="K20" s="7" t="s">
         <v>329</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>330</v>
       </c>
-      <c r="L20" s="7" t="s">
+      <c r="M20" s="7">
+        <v>1697</v>
+      </c>
+      <c r="N20" s="7">
+        <v>1164797</v>
+      </c>
+      <c r="O20" s="7" t="s">
         <v>331</v>
       </c>
-      <c r="M20" s="7">
-        <v>421</v>
-      </c>
-      <c r="N20" s="7">
-        <v>278770</v>
-      </c>
-      <c r="O20" s="7" t="s">
+      <c r="P20" s="7" t="s">
         <v>332</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>333</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4904,6 +4937,11 @@
       </c>
       <c r="Q21" s="7" t="s">
         <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -4924,8 +4962,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA440B0E-87AE-4B2C-BF74-EB7347371189}">
-  <dimension ref="A1:Q21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D7697DA-4349-4B45-A23F-3EF4C580A1C3}">
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4941,7 +4979,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5042,49 +5080,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="D4" s="7">
-        <v>9537</v>
+        <v>2658</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>336</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="G4" s="7" t="s">
         <v>337</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="H4" s="7">
+        <v>8</v>
+      </c>
+      <c r="I4" s="7">
+        <v>3850</v>
+      </c>
+      <c r="J4" s="7" t="s">
         <v>338</v>
       </c>
-      <c r="H4" s="7">
-        <v>20</v>
-      </c>
-      <c r="I4" s="7">
-        <v>12937</v>
-      </c>
-      <c r="J4" s="7" t="s">
+      <c r="K4" s="7" t="s">
         <v>339</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>340</v>
       </c>
-      <c r="L4" s="7" t="s">
+      <c r="M4" s="7">
+        <v>12</v>
+      </c>
+      <c r="N4" s="7">
+        <v>6509</v>
+      </c>
+      <c r="O4" s="7" t="s">
         <v>341</v>
       </c>
-      <c r="M4" s="7">
-        <v>34</v>
-      </c>
-      <c r="N4" s="7">
-        <v>22474</v>
-      </c>
-      <c r="O4" s="7" t="s">
+      <c r="P4" s="7" t="s">
         <v>342</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>343</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>344</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5093,49 +5131,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="D5" s="7">
-        <v>2658</v>
+        <v>9537</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>345</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>346</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="H5" s="7">
+        <v>20</v>
+      </c>
+      <c r="I5" s="7">
+        <v>12937</v>
+      </c>
+      <c r="J5" s="7" t="s">
         <v>347</v>
       </c>
-      <c r="H5" s="7">
-        <v>8</v>
-      </c>
-      <c r="I5" s="7">
-        <v>3850</v>
-      </c>
-      <c r="J5" s="7" t="s">
+      <c r="K5" s="7" t="s">
         <v>348</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>349</v>
       </c>
-      <c r="L5" s="7" t="s">
+      <c r="M5" s="7">
+        <v>34</v>
+      </c>
+      <c r="N5" s="7">
+        <v>22474</v>
+      </c>
+      <c r="O5" s="7" t="s">
         <v>350</v>
       </c>
-      <c r="M5" s="7">
-        <v>12</v>
-      </c>
-      <c r="N5" s="7">
-        <v>6509</v>
-      </c>
-      <c r="O5" s="7" t="s">
+      <c r="P5" s="7" t="s">
         <v>351</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>352</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>353</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5197,49 +5235,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>127</v>
+        <v>25</v>
       </c>
       <c r="D7" s="7">
-        <v>94514</v>
+        <v>20082</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>354</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="7" t="s">
         <v>355</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="H7" s="7">
+        <v>26</v>
+      </c>
+      <c r="I7" s="7">
+        <v>12968</v>
+      </c>
+      <c r="J7" s="7" t="s">
         <v>356</v>
       </c>
-      <c r="H7" s="7">
-        <v>141</v>
-      </c>
-      <c r="I7" s="7">
-        <v>90547</v>
-      </c>
-      <c r="J7" s="7" t="s">
+      <c r="K7" s="7" t="s">
         <v>357</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>358</v>
       </c>
-      <c r="L7" s="7" t="s">
+      <c r="M7" s="7">
+        <v>51</v>
+      </c>
+      <c r="N7" s="7">
+        <v>33049</v>
+      </c>
+      <c r="O7" s="7" t="s">
         <v>359</v>
       </c>
-      <c r="M7" s="7">
-        <v>268</v>
-      </c>
-      <c r="N7" s="7">
-        <v>185061</v>
-      </c>
-      <c r="O7" s="7" t="s">
+      <c r="P7" s="7" t="s">
         <v>360</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>361</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>362</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5248,49 +5286,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>25</v>
+        <v>127</v>
       </c>
       <c r="D8" s="7">
-        <v>20082</v>
+        <v>94514</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>363</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>364</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="H8" s="7">
+        <v>141</v>
+      </c>
+      <c r="I8" s="7">
+        <v>90547</v>
+      </c>
+      <c r="J8" s="7" t="s">
         <v>365</v>
       </c>
-      <c r="H8" s="7">
-        <v>26</v>
-      </c>
-      <c r="I8" s="7">
-        <v>12968</v>
-      </c>
-      <c r="J8" s="7" t="s">
+      <c r="K8" s="7" t="s">
         <v>366</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>367</v>
       </c>
-      <c r="L8" s="7" t="s">
+      <c r="M8" s="7">
+        <v>268</v>
+      </c>
+      <c r="N8" s="7">
+        <v>185061</v>
+      </c>
+      <c r="O8" s="7" t="s">
         <v>368</v>
       </c>
-      <c r="M8" s="7">
-        <v>51</v>
-      </c>
-      <c r="N8" s="7">
-        <v>33049</v>
-      </c>
-      <c r="O8" s="7" t="s">
+      <c r="P8" s="7" t="s">
         <v>369</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>370</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>371</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5352,49 +5390,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>273</v>
+        <v>68</v>
       </c>
       <c r="D10" s="7">
-        <v>210887</v>
+        <v>38031</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>372</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>373</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="H10" s="7">
+        <v>53</v>
+      </c>
+      <c r="I10" s="7">
+        <v>35329</v>
+      </c>
+      <c r="J10" s="7" t="s">
         <v>374</v>
       </c>
-      <c r="H10" s="7">
-        <v>227</v>
-      </c>
-      <c r="I10" s="7">
-        <v>157023</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="K10" s="7" t="s">
         <v>375</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>376</v>
       </c>
-      <c r="L10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>121</v>
+      </c>
+      <c r="N10" s="7">
+        <v>73360</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>377</v>
       </c>
-      <c r="M10" s="7">
-        <v>500</v>
-      </c>
-      <c r="N10" s="7">
-        <v>367910</v>
-      </c>
-      <c r="O10" s="7" t="s">
+      <c r="P10" s="7" t="s">
         <v>378</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>379</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>380</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5403,49 +5441,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>68</v>
+        <v>273</v>
       </c>
       <c r="D11" s="7">
-        <v>38031</v>
+        <v>210887</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>381</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>382</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="H11" s="7">
+        <v>227</v>
+      </c>
+      <c r="I11" s="7">
+        <v>157023</v>
+      </c>
+      <c r="J11" s="7" t="s">
         <v>383</v>
       </c>
-      <c r="H11" s="7">
-        <v>53</v>
-      </c>
-      <c r="I11" s="7">
-        <v>35329</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="K11" s="7" t="s">
         <v>384</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>385</v>
       </c>
-      <c r="L11" s="7" t="s">
+      <c r="M11" s="7">
+        <v>500</v>
+      </c>
+      <c r="N11" s="7">
+        <v>367910</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>386</v>
       </c>
-      <c r="M11" s="7">
-        <v>121</v>
-      </c>
-      <c r="N11" s="7">
-        <v>73360</v>
-      </c>
-      <c r="O11" s="7" t="s">
+      <c r="P11" s="7" t="s">
         <v>387</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>388</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>389</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5507,25 +5545,25 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>168</v>
+        <v>52</v>
       </c>
       <c r="D13" s="7">
-        <v>134840</v>
+        <v>36018</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>390</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>391</v>
       </c>
-      <c r="G13" s="7" t="s">
-        <v>166</v>
-      </c>
       <c r="H13" s="7">
-        <v>172</v>
+        <v>54</v>
       </c>
       <c r="I13" s="7">
-        <v>123776</v>
+        <v>44126</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>392</v>
@@ -5537,10 +5575,10 @@
         <v>394</v>
       </c>
       <c r="M13" s="7">
-        <v>340</v>
+        <v>106</v>
       </c>
       <c r="N13" s="7">
-        <v>258616</v>
+        <v>80144</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>395</v>
@@ -5558,49 +5596,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>52</v>
+        <v>168</v>
       </c>
       <c r="D14" s="7">
-        <v>36018</v>
+        <v>134840</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>398</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>174</v>
+        <v>399</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="H14" s="7">
-        <v>54</v>
+        <v>172</v>
       </c>
       <c r="I14" s="7">
-        <v>44126</v>
+        <v>123776</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="M14" s="7">
-        <v>106</v>
+        <v>340</v>
       </c>
       <c r="N14" s="7">
-        <v>80144</v>
+        <v>258616</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5662,49 +5700,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>201</v>
+        <v>37</v>
       </c>
       <c r="D16" s="7">
-        <v>152684</v>
+        <v>22332</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="H16" s="7">
-        <v>194</v>
+        <v>44</v>
       </c>
       <c r="I16" s="7">
-        <v>139782</v>
+        <v>31025</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>306</v>
+        <v>411</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="M16" s="7">
-        <v>395</v>
+        <v>81</v>
       </c>
       <c r="N16" s="7">
-        <v>292465</v>
+        <v>53357</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5713,49 +5751,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>37</v>
+        <v>201</v>
       </c>
       <c r="D17" s="7">
-        <v>22332</v>
+        <v>152684</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="H17" s="7">
-        <v>44</v>
+        <v>194</v>
       </c>
       <c r="I17" s="7">
-        <v>31025</v>
+        <v>139782</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>316</v>
+        <v>421</v>
       </c>
       <c r="M17" s="7">
-        <v>81</v>
+        <v>395</v>
       </c>
       <c r="N17" s="7">
-        <v>53357</v>
+        <v>292465</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5817,49 +5855,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>783</v>
+        <v>186</v>
       </c>
       <c r="D19" s="7">
-        <v>602461</v>
+        <v>119121</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="H19" s="7">
-        <v>754</v>
+        <v>185</v>
       </c>
       <c r="I19" s="7">
-        <v>524065</v>
+        <v>127298</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>426</v>
+        <v>33</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="M19" s="7">
-        <v>1537</v>
+        <v>371</v>
       </c>
       <c r="N19" s="7">
-        <v>1126527</v>
+        <v>246419</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5868,49 +5906,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>186</v>
+        <v>783</v>
       </c>
       <c r="D20" s="7">
-        <v>119121</v>
+        <v>602461</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="H20" s="7">
-        <v>185</v>
+        <v>754</v>
       </c>
       <c r="I20" s="7">
-        <v>127298</v>
+        <v>524065</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>436</v>
+        <v>43</v>
       </c>
       <c r="M20" s="7">
-        <v>371</v>
+        <v>1537</v>
       </c>
       <c r="N20" s="7">
-        <v>246419</v>
+        <v>1126527</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5962,6 +6000,11 @@
       </c>
       <c r="Q21" s="7" t="s">
         <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>125</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP24_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP24_R-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F2748A97-43E3-4B77-9633-EFA4A3C47425}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A5D3609A-E411-4D7D-9D64-96CAEC36E87B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{851991EB-A3D8-4650-963B-C61843926C3D}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{43411D72-14E2-4415-825E-661A46D8E0B0}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="441">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="431">
   <si>
     <t>Menores según si no hacen ejercicio en 2007 (Tasa respuesta: 99,76%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Sí</t>
@@ -77,10 +77,10 @@
     <t>25,38%</t>
   </si>
   <si>
-    <t>12,81%</t>
-  </si>
-  <si>
-    <t>44,51%</t>
+    <t>12,55%</t>
+  </si>
+  <si>
+    <t>43,32%</t>
   </si>
   <si>
     <t>3,14%</t>
@@ -89,16 +89,16 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>17,11%</t>
+    <t>17,49%</t>
   </si>
   <si>
     <t>14,89%</t>
   </si>
   <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>27,61%</t>
+    <t>8,17%</t>
+  </si>
+  <si>
+    <t>26,13%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,16 +107,16 @@
     <t>74,62%</t>
   </si>
   <si>
-    <t>55,49%</t>
-  </si>
-  <si>
-    <t>87,19%</t>
+    <t>56,68%</t>
+  </si>
+  <si>
+    <t>87,45%</t>
   </si>
   <si>
     <t>96,86%</t>
   </si>
   <si>
-    <t>82,89%</t>
+    <t>82,51%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -125,184 +125,184 @@
     <t>85,11%</t>
   </si>
   <si>
-    <t>72,39%</t>
-  </si>
-  <si>
-    <t>91,92%</t>
+    <t>73,87%</t>
+  </si>
+  <si>
+    <t>91,83%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>22,61%</t>
   </si>
   <si>
-    <t>16,94%</t>
-  </si>
-  <si>
-    <t>29,25%</t>
+    <t>17,23%</t>
+  </si>
+  <si>
+    <t>29,09%</t>
   </si>
   <si>
     <t>29,54%</t>
   </si>
   <si>
-    <t>22,8%</t>
-  </si>
-  <si>
-    <t>36,36%</t>
+    <t>23,01%</t>
+  </si>
+  <si>
+    <t>36,95%</t>
   </si>
   <si>
     <t>25,89%</t>
   </si>
   <si>
-    <t>21,55%</t>
-  </si>
-  <si>
-    <t>30,25%</t>
+    <t>21,71%</t>
+  </si>
+  <si>
+    <t>30,39%</t>
   </si>
   <si>
     <t>77,39%</t>
   </si>
   <si>
-    <t>70,75%</t>
-  </si>
-  <si>
-    <t>83,06%</t>
+    <t>70,91%</t>
+  </si>
+  <si>
+    <t>82,77%</t>
   </si>
   <si>
     <t>70,46%</t>
   </si>
   <si>
-    <t>63,64%</t>
-  </si>
-  <si>
-    <t>77,2%</t>
+    <t>63,05%</t>
+  </si>
+  <si>
+    <t>76,99%</t>
   </si>
   <si>
     <t>74,11%</t>
   </si>
   <si>
-    <t>69,75%</t>
-  </si>
-  <si>
-    <t>78,45%</t>
-  </si>
-  <si>
-    <t>10/50</t>
+    <t>69,61%</t>
+  </si>
+  <si>
+    <t>78,29%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>23,42%</t>
   </si>
   <si>
-    <t>18,83%</t>
-  </si>
-  <si>
-    <t>28,61%</t>
+    <t>18,87%</t>
+  </si>
+  <si>
+    <t>28,4%</t>
   </si>
   <si>
     <t>27,77%</t>
   </si>
   <si>
-    <t>23,29%</t>
-  </si>
-  <si>
-    <t>33,33%</t>
+    <t>22,52%</t>
+  </si>
+  <si>
+    <t>32,58%</t>
   </si>
   <si>
     <t>25,5%</t>
   </si>
   <si>
-    <t>22,35%</t>
-  </si>
-  <si>
-    <t>29,09%</t>
+    <t>21,93%</t>
+  </si>
+  <si>
+    <t>29,02%</t>
   </si>
   <si>
     <t>76,58%</t>
   </si>
   <si>
-    <t>71,39%</t>
-  </si>
-  <si>
-    <t>81,17%</t>
+    <t>71,6%</t>
+  </si>
+  <si>
+    <t>81,13%</t>
   </si>
   <si>
     <t>72,23%</t>
   </si>
   <si>
-    <t>66,67%</t>
-  </si>
-  <si>
-    <t>76,71%</t>
+    <t>67,42%</t>
+  </si>
+  <si>
+    <t>77,48%</t>
   </si>
   <si>
     <t>74,5%</t>
   </si>
   <si>
-    <t>70,91%</t>
-  </si>
-  <si>
-    <t>77,65%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
+    <t>70,98%</t>
+  </si>
+  <si>
+    <t>78,07%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>19,76%</t>
   </si>
   <si>
-    <t>14,7%</t>
-  </si>
-  <si>
-    <t>25,79%</t>
+    <t>14,76%</t>
+  </si>
+  <si>
+    <t>25,02%</t>
   </si>
   <si>
     <t>22,69%</t>
   </si>
   <si>
-    <t>18,06%</t>
-  </si>
-  <si>
-    <t>28,49%</t>
+    <t>17,47%</t>
+  </si>
+  <si>
+    <t>28,01%</t>
   </si>
   <si>
     <t>21,16%</t>
   </si>
   <si>
-    <t>17,42%</t>
-  </si>
-  <si>
-    <t>24,7%</t>
+    <t>17,4%</t>
+  </si>
+  <si>
+    <t>24,77%</t>
   </si>
   <si>
     <t>80,24%</t>
   </si>
   <si>
-    <t>74,21%</t>
-  </si>
-  <si>
-    <t>85,3%</t>
+    <t>74,98%</t>
+  </si>
+  <si>
+    <t>85,24%</t>
   </si>
   <si>
     <t>77,31%</t>
   </si>
   <si>
-    <t>71,51%</t>
-  </si>
-  <si>
-    <t>81,94%</t>
+    <t>71,99%</t>
+  </si>
+  <si>
+    <t>82,53%</t>
   </si>
   <si>
     <t>78,84%</t>
   </si>
   <si>
-    <t>75,3%</t>
-  </si>
-  <si>
-    <t>82,58%</t>
+    <t>75,23%</t>
+  </si>
+  <si>
+    <t>82,6%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -311,109 +311,103 @@
     <t>26,29%</t>
   </si>
   <si>
-    <t>21,35%</t>
-  </si>
-  <si>
-    <t>30,93%</t>
-  </si>
-  <si>
-    <t>24,77%</t>
-  </si>
-  <si>
-    <t>20,11%</t>
-  </si>
-  <si>
-    <t>30,79%</t>
+    <t>21,25%</t>
+  </si>
+  <si>
+    <t>31,15%</t>
+  </si>
+  <si>
+    <t>19,96%</t>
+  </si>
+  <si>
+    <t>30,5%</t>
   </si>
   <si>
     <t>25,53%</t>
   </si>
   <si>
-    <t>22,01%</t>
-  </si>
-  <si>
-    <t>29,19%</t>
+    <t>22,11%</t>
+  </si>
+  <si>
+    <t>29,14%</t>
   </si>
   <si>
     <t>73,71%</t>
   </si>
   <si>
-    <t>69,07%</t>
-  </si>
-  <si>
-    <t>78,65%</t>
-  </si>
-  <si>
-    <t>75,23%</t>
-  </si>
-  <si>
-    <t>69,21%</t>
-  </si>
-  <si>
-    <t>79,89%</t>
+    <t>68,85%</t>
+  </si>
+  <si>
+    <t>78,75%</t>
+  </si>
+  <si>
+    <t>69,5%</t>
+  </si>
+  <si>
+    <t>80,04%</t>
   </si>
   <si>
     <t>74,47%</t>
   </si>
   <si>
-    <t>70,81%</t>
-  </si>
-  <si>
-    <t>77,99%</t>
+    <t>70,86%</t>
+  </si>
+  <si>
+    <t>77,89%</t>
   </si>
   <si>
     <t>23,41%</t>
   </si>
   <si>
-    <t>21,21%</t>
-  </si>
-  <si>
-    <t>25,96%</t>
+    <t>21,03%</t>
+  </si>
+  <si>
+    <t>25,98%</t>
   </si>
   <si>
     <t>25,29%</t>
   </si>
   <si>
-    <t>22,78%</t>
-  </si>
-  <si>
-    <t>28,19%</t>
+    <t>22,63%</t>
+  </si>
+  <si>
+    <t>28,03%</t>
   </si>
   <si>
     <t>24,32%</t>
   </si>
   <si>
-    <t>22,5%</t>
-  </si>
-  <si>
-    <t>26,15%</t>
+    <t>22,46%</t>
+  </si>
+  <si>
+    <t>26,2%</t>
   </si>
   <si>
     <t>76,59%</t>
   </si>
   <si>
-    <t>74,04%</t>
-  </si>
-  <si>
-    <t>78,79%</t>
+    <t>74,02%</t>
+  </si>
+  <si>
+    <t>78,97%</t>
   </si>
   <si>
     <t>74,71%</t>
   </si>
   <si>
-    <t>71,81%</t>
-  </si>
-  <si>
-    <t>77,22%</t>
+    <t>71,97%</t>
+  </si>
+  <si>
+    <t>77,37%</t>
   </si>
   <si>
     <t>75,68%</t>
   </si>
   <si>
-    <t>73,85%</t>
-  </si>
-  <si>
-    <t>77,5%</t>
+    <t>73,8%</t>
+  </si>
+  <si>
+    <t>77,54%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -425,943 +419,919 @@
     <t>13,11%</t>
   </si>
   <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>31,36%</t>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>31,37%</t>
   </si>
   <si>
     <t>28,6%</t>
   </si>
   <si>
-    <t>14,04%</t>
-  </si>
-  <si>
-    <t>52,07%</t>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>49,04%</t>
   </si>
   <si>
     <t>20,51%</t>
   </si>
   <si>
-    <t>10,93%</t>
-  </si>
-  <si>
-    <t>32,76%</t>
+    <t>10,9%</t>
+  </si>
+  <si>
+    <t>34,04%</t>
   </si>
   <si>
     <t>86,89%</t>
   </si>
   <si>
-    <t>68,64%</t>
-  </si>
-  <si>
-    <t>96,68%</t>
+    <t>68,63%</t>
+  </si>
+  <si>
+    <t>96,73%</t>
   </si>
   <si>
     <t>71,4%</t>
   </si>
   <si>
-    <t>47,93%</t>
-  </si>
-  <si>
-    <t>85,96%</t>
+    <t>50,96%</t>
+  </si>
+  <si>
+    <t>87,39%</t>
   </si>
   <si>
     <t>79,49%</t>
   </si>
   <si>
-    <t>67,24%</t>
-  </si>
-  <si>
-    <t>89,07%</t>
+    <t>65,96%</t>
+  </si>
+  <si>
+    <t>89,1%</t>
   </si>
   <si>
     <t>15,8%</t>
   </si>
   <si>
-    <t>11,04%</t>
+    <t>11,07%</t>
+  </si>
+  <si>
+    <t>21,96%</t>
+  </si>
+  <si>
+    <t>16,12%</t>
+  </si>
+  <si>
+    <t>11,44%</t>
+  </si>
+  <si>
+    <t>23,08%</t>
+  </si>
+  <si>
+    <t>15,95%</t>
+  </si>
+  <si>
+    <t>12,52%</t>
+  </si>
+  <si>
+    <t>20,33%</t>
+  </si>
+  <si>
+    <t>84,2%</t>
+  </si>
+  <si>
+    <t>78,04%</t>
+  </si>
+  <si>
+    <t>88,93%</t>
+  </si>
+  <si>
+    <t>83,88%</t>
+  </si>
+  <si>
+    <t>76,92%</t>
+  </si>
+  <si>
+    <t>88,56%</t>
+  </si>
+  <si>
+    <t>84,05%</t>
+  </si>
+  <si>
+    <t>79,67%</t>
+  </si>
+  <si>
+    <t>87,48%</t>
+  </si>
+  <si>
+    <t>15,84%</t>
+  </si>
+  <si>
+    <t>12,07%</t>
+  </si>
+  <si>
+    <t>19,98%</t>
   </si>
   <si>
     <t>21,67%</t>
   </si>
   <si>
-    <t>16,12%</t>
-  </si>
-  <si>
-    <t>11,12%</t>
+    <t>17,01%</t>
+  </si>
+  <si>
+    <t>26,01%</t>
+  </si>
+  <si>
+    <t>18,65%</t>
+  </si>
+  <si>
+    <t>15,86%</t>
+  </si>
+  <si>
+    <t>21,78%</t>
+  </si>
+  <si>
+    <t>84,16%</t>
+  </si>
+  <si>
+    <t>80,02%</t>
+  </si>
+  <si>
+    <t>87,93%</t>
+  </si>
+  <si>
+    <t>78,33%</t>
+  </si>
+  <si>
+    <t>73,99%</t>
+  </si>
+  <si>
+    <t>82,99%</t>
+  </si>
+  <si>
+    <t>81,35%</t>
+  </si>
+  <si>
+    <t>78,22%</t>
+  </si>
+  <si>
+    <t>84,14%</t>
+  </si>
+  <si>
+    <t>17,92%</t>
+  </si>
+  <si>
+    <t>13,25%</t>
+  </si>
+  <si>
+    <t>23,28%</t>
+  </si>
+  <si>
+    <t>21,9%</t>
+  </si>
+  <si>
+    <t>16,48%</t>
+  </si>
+  <si>
+    <t>27,41%</t>
+  </si>
+  <si>
+    <t>19,84%</t>
+  </si>
+  <si>
+    <t>16,65%</t>
+  </si>
+  <si>
+    <t>23,56%</t>
+  </si>
+  <si>
+    <t>82,08%</t>
+  </si>
+  <si>
+    <t>76,72%</t>
+  </si>
+  <si>
+    <t>86,75%</t>
+  </si>
+  <si>
+    <t>78,1%</t>
+  </si>
+  <si>
+    <t>72,59%</t>
+  </si>
+  <si>
+    <t>83,52%</t>
+  </si>
+  <si>
+    <t>80,16%</t>
+  </si>
+  <si>
+    <t>76,44%</t>
+  </si>
+  <si>
+    <t>83,35%</t>
+  </si>
+  <si>
+    <t>14,86%</t>
+  </si>
+  <si>
+    <t>11,26%</t>
+  </si>
+  <si>
+    <t>19,32%</t>
+  </si>
+  <si>
+    <t>19,28%</t>
+  </si>
+  <si>
+    <t>14,95%</t>
+  </si>
+  <si>
+    <t>24,57%</t>
+  </si>
+  <si>
+    <t>17,1%</t>
+  </si>
+  <si>
+    <t>14,46%</t>
+  </si>
+  <si>
+    <t>20,81%</t>
+  </si>
+  <si>
+    <t>85,14%</t>
+  </si>
+  <si>
+    <t>80,68%</t>
+  </si>
+  <si>
+    <t>88,74%</t>
+  </si>
+  <si>
+    <t>80,72%</t>
+  </si>
+  <si>
+    <t>75,43%</t>
+  </si>
+  <si>
+    <t>85,05%</t>
+  </si>
+  <si>
+    <t>82,9%</t>
+  </si>
+  <si>
+    <t>79,19%</t>
+  </si>
+  <si>
+    <t>85,54%</t>
+  </si>
+  <si>
+    <t>15,94%</t>
+  </si>
+  <si>
+    <t>13,68%</t>
+  </si>
+  <si>
+    <t>18,24%</t>
+  </si>
+  <si>
+    <t>18,05%</t>
   </si>
   <si>
     <t>22,81%</t>
   </si>
   <si>
-    <t>15,95%</t>
-  </si>
-  <si>
-    <t>12,47%</t>
-  </si>
-  <si>
-    <t>20,24%</t>
-  </si>
-  <si>
-    <t>84,2%</t>
-  </si>
-  <si>
-    <t>78,33%</t>
-  </si>
-  <si>
-    <t>88,96%</t>
-  </si>
-  <si>
-    <t>83,88%</t>
+    <t>18,08%</t>
+  </si>
+  <si>
+    <t>16,26%</t>
+  </si>
+  <si>
+    <t>19,74%</t>
+  </si>
+  <si>
+    <t>84,06%</t>
+  </si>
+  <si>
+    <t>81,76%</t>
+  </si>
+  <si>
+    <t>86,32%</t>
   </si>
   <si>
     <t>77,19%</t>
   </si>
   <si>
-    <t>88,88%</t>
-  </si>
-  <si>
-    <t>84,05%</t>
-  </si>
-  <si>
-    <t>79,76%</t>
-  </si>
-  <si>
-    <t>87,53%</t>
-  </si>
-  <si>
-    <t>15,84%</t>
-  </si>
-  <si>
-    <t>11,89%</t>
+    <t>81,95%</t>
+  </si>
+  <si>
+    <t>81,92%</t>
+  </si>
+  <si>
+    <t>80,26%</t>
+  </si>
+  <si>
+    <t>83,74%</t>
+  </si>
+  <si>
+    <t>Menores según si no hacen ejercicio en 2016 (Tasa respuesta: 99,62%)</t>
+  </si>
+  <si>
+    <t>17,85%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>35,95%</t>
+  </si>
+  <si>
+    <t>24,3%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>46,27%</t>
+  </si>
+  <si>
+    <t>20,94%</t>
+  </si>
+  <si>
+    <t>11,29%</t>
+  </si>
+  <si>
+    <t>34,26%</t>
+  </si>
+  <si>
+    <t>82,15%</t>
+  </si>
+  <si>
+    <t>64,05%</t>
+  </si>
+  <si>
+    <t>93,26%</t>
+  </si>
+  <si>
+    <t>75,7%</t>
+  </si>
+  <si>
+    <t>53,73%</t>
+  </si>
+  <si>
+    <t>90,66%</t>
+  </si>
+  <si>
+    <t>79,06%</t>
+  </si>
+  <si>
+    <t>65,74%</t>
+  </si>
+  <si>
+    <t>88,71%</t>
+  </si>
+  <si>
+    <t>13,22%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>19,19%</t>
+  </si>
+  <si>
+    <t>23,07%</t>
+  </si>
+  <si>
+    <t>17,38%</t>
+  </si>
+  <si>
+    <t>29,44%</t>
+  </si>
+  <si>
+    <t>17,89%</t>
+  </si>
+  <si>
+    <t>13,95%</t>
+  </si>
+  <si>
+    <t>22,02%</t>
+  </si>
+  <si>
+    <t>86,78%</t>
+  </si>
+  <si>
+    <t>80,81%</t>
+  </si>
+  <si>
+    <t>91,34%</t>
+  </si>
+  <si>
+    <t>76,93%</t>
+  </si>
+  <si>
+    <t>70,56%</t>
+  </si>
+  <si>
+    <t>82,62%</t>
+  </si>
+  <si>
+    <t>82,11%</t>
+  </si>
+  <si>
+    <t>77,98%</t>
+  </si>
+  <si>
+    <t>86,05%</t>
+  </si>
+  <si>
+    <t>19,37%</t>
+  </si>
+  <si>
+    <t>15,47%</t>
+  </si>
+  <si>
+    <t>23,94%</t>
+  </si>
+  <si>
+    <t>21,15%</t>
+  </si>
+  <si>
+    <t>17,28%</t>
+  </si>
+  <si>
+    <t>20,22%</t>
+  </si>
+  <si>
+    <t>17,46%</t>
+  </si>
+  <si>
+    <t>23,35%</t>
+  </si>
+  <si>
+    <t>80,63%</t>
+  </si>
+  <si>
+    <t>76,06%</t>
+  </si>
+  <si>
+    <t>84,53%</t>
+  </si>
+  <si>
+    <t>78,85%</t>
+  </si>
+  <si>
+    <t>82,72%</t>
+  </si>
+  <si>
+    <t>79,78%</t>
+  </si>
+  <si>
+    <t>76,65%</t>
+  </si>
+  <si>
+    <t>82,54%</t>
+  </si>
+  <si>
+    <t>15,23%</t>
+  </si>
+  <si>
+    <t>11,31%</t>
+  </si>
+  <si>
+    <t>21,66%</t>
+  </si>
+  <si>
+    <t>17,33%</t>
+  </si>
+  <si>
+    <t>26,44%</t>
+  </si>
+  <si>
+    <t>18,34%</t>
+  </si>
+  <si>
+    <t>15,21%</t>
+  </si>
+  <si>
+    <t>21,89%</t>
+  </si>
+  <si>
+    <t>84,77%</t>
+  </si>
+  <si>
+    <t>88,69%</t>
+  </si>
+  <si>
+    <t>78,34%</t>
+  </si>
+  <si>
+    <t>73,56%</t>
+  </si>
+  <si>
+    <t>82,67%</t>
+  </si>
+  <si>
+    <t>81,66%</t>
+  </si>
+  <si>
+    <t>78,11%</t>
+  </si>
+  <si>
+    <t>84,79%</t>
+  </si>
+  <si>
+    <t>13,35%</t>
+  </si>
+  <si>
+    <t>21,62%</t>
+  </si>
+  <si>
+    <t>22,15%</t>
+  </si>
+  <si>
+    <t>17,12%</t>
+  </si>
+  <si>
+    <t>27,44%</t>
+  </si>
+  <si>
+    <t>19,73%</t>
+  </si>
+  <si>
+    <t>16,78%</t>
+  </si>
+  <si>
+    <t>78,38%</t>
+  </si>
+  <si>
+    <t>86,65%</t>
+  </si>
+  <si>
+    <t>77,85%</t>
+  </si>
+  <si>
+    <t>72,56%</t>
+  </si>
+  <si>
+    <t>82,88%</t>
+  </si>
+  <si>
+    <t>80,27%</t>
+  </si>
+  <si>
+    <t>83,22%</t>
+  </si>
+  <si>
+    <t>16,8%</t>
+  </si>
+  <si>
+    <t>14,9%</t>
+  </si>
+  <si>
+    <t>19,38%</t>
+  </si>
+  <si>
+    <t>19,48%</t>
+  </si>
+  <si>
+    <t>24,52%</t>
+  </si>
+  <si>
+    <t>19,31%</t>
+  </si>
+  <si>
+    <t>17,67%</t>
+  </si>
+  <si>
+    <t>83,2%</t>
+  </si>
+  <si>
+    <t>80,62%</t>
+  </si>
+  <si>
+    <t>85,1%</t>
+  </si>
+  <si>
+    <t>75,48%</t>
+  </si>
+  <si>
+    <t>80,52%</t>
+  </si>
+  <si>
+    <t>80,69%</t>
+  </si>
+  <si>
+    <t>82,33%</t>
+  </si>
+  <si>
+    <t>Menores según si no hacen ejercicio en 2023 (Tasa respuesta: 99,38%)</t>
+  </si>
+  <si>
+    <t>21,8%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>49,51%</t>
+  </si>
+  <si>
+    <t>22,94%</t>
+  </si>
+  <si>
+    <t>10,34%</t>
+  </si>
+  <si>
+    <t>40,09%</t>
+  </si>
+  <si>
+    <t>13,09%</t>
+  </si>
+  <si>
+    <t>36,62%</t>
+  </si>
+  <si>
+    <t>78,2%</t>
+  </si>
+  <si>
+    <t>50,49%</t>
+  </si>
+  <si>
+    <t>94,48%</t>
+  </si>
+  <si>
+    <t>77,06%</t>
+  </si>
+  <si>
+    <t>59,91%</t>
+  </si>
+  <si>
+    <t>89,66%</t>
+  </si>
+  <si>
+    <t>63,38%</t>
+  </si>
+  <si>
+    <t>86,91%</t>
+  </si>
+  <si>
+    <t>17,52%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>33,98%</t>
+  </si>
+  <si>
+    <t>12,53%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>17,66%</t>
+  </si>
+  <si>
+    <t>15,15%</t>
+  </si>
+  <si>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>25,35%</t>
+  </si>
+  <si>
+    <t>82,48%</t>
+  </si>
+  <si>
+    <t>66,02%</t>
+  </si>
+  <si>
+    <t>89,29%</t>
+  </si>
+  <si>
+    <t>87,47%</t>
+  </si>
+  <si>
+    <t>82,34%</t>
+  </si>
+  <si>
+    <t>91,85%</t>
+  </si>
+  <si>
+    <t>84,85%</t>
+  </si>
+  <si>
+    <t>74,65%</t>
+  </si>
+  <si>
+    <t>89,22%</t>
+  </si>
+  <si>
+    <t>15,28%</t>
+  </si>
+  <si>
+    <t>11,77%</t>
+  </si>
+  <si>
+    <t>19,58%</t>
+  </si>
+  <si>
+    <t>18,37%</t>
+  </si>
+  <si>
+    <t>13,96%</t>
+  </si>
+  <si>
+    <t>24,53%</t>
+  </si>
+  <si>
+    <t>16,62%</t>
+  </si>
+  <si>
+    <t>13,84%</t>
   </si>
   <si>
     <t>19,85%</t>
   </si>
   <si>
-    <t>17,5%</t>
-  </si>
-  <si>
-    <t>26,6%</t>
-  </si>
-  <si>
-    <t>18,65%</t>
-  </si>
-  <si>
-    <t>15,63%</t>
-  </si>
-  <si>
-    <t>21,71%</t>
-  </si>
-  <si>
-    <t>84,16%</t>
+    <t>84,72%</t>
+  </si>
+  <si>
+    <t>80,42%</t>
+  </si>
+  <si>
+    <t>88,23%</t>
+  </si>
+  <si>
+    <t>81,63%</t>
+  </si>
+  <si>
+    <t>75,47%</t>
+  </si>
+  <si>
+    <t>86,04%</t>
+  </si>
+  <si>
+    <t>83,38%</t>
   </si>
   <si>
     <t>80,15%</t>
   </si>
   <si>
-    <t>88,11%</t>
-  </si>
-  <si>
-    <t>73,4%</t>
-  </si>
-  <si>
-    <t>82,5%</t>
-  </si>
-  <si>
-    <t>81,35%</t>
-  </si>
-  <si>
-    <t>78,29%</t>
-  </si>
-  <si>
-    <t>84,37%</t>
-  </si>
-  <si>
-    <t>17,92%</t>
-  </si>
-  <si>
-    <t>23,18%</t>
-  </si>
-  <si>
-    <t>21,9%</t>
-  </si>
-  <si>
-    <t>16,86%</t>
-  </si>
-  <si>
-    <t>27,45%</t>
-  </si>
-  <si>
-    <t>19,84%</t>
-  </si>
-  <si>
-    <t>16,34%</t>
-  </si>
-  <si>
-    <t>23,63%</t>
-  </si>
-  <si>
-    <t>82,08%</t>
-  </si>
-  <si>
-    <t>76,82%</t>
-  </si>
-  <si>
-    <t>78,1%</t>
-  </si>
-  <si>
-    <t>72,55%</t>
-  </si>
-  <si>
-    <t>83,14%</t>
-  </si>
-  <si>
-    <t>80,16%</t>
-  </si>
-  <si>
-    <t>76,37%</t>
-  </si>
-  <si>
-    <t>83,66%</t>
-  </si>
-  <si>
-    <t>14,86%</t>
-  </si>
-  <si>
-    <t>19,41%</t>
-  </si>
-  <si>
-    <t>19,28%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>24,47%</t>
-  </si>
-  <si>
-    <t>17,1%</t>
-  </si>
-  <si>
-    <t>14,42%</t>
-  </si>
-  <si>
-    <t>20,53%</t>
-  </si>
-  <si>
-    <t>85,14%</t>
-  </si>
-  <si>
-    <t>80,59%</t>
-  </si>
-  <si>
-    <t>80,72%</t>
-  </si>
-  <si>
-    <t>75,53%</t>
-  </si>
-  <si>
-    <t>85,49%</t>
-  </si>
-  <si>
-    <t>82,9%</t>
-  </si>
-  <si>
-    <t>79,47%</t>
-  </si>
-  <si>
-    <t>85,58%</t>
-  </si>
-  <si>
-    <t>15,94%</t>
-  </si>
-  <si>
-    <t>13,82%</t>
-  </si>
-  <si>
-    <t>18,31%</t>
-  </si>
-  <si>
-    <t>20,33%</t>
-  </si>
-  <si>
-    <t>18,15%</t>
-  </si>
-  <si>
-    <t>23,0%</t>
-  </si>
-  <si>
-    <t>18,08%</t>
-  </si>
-  <si>
-    <t>16,53%</t>
-  </si>
-  <si>
-    <t>19,8%</t>
-  </si>
-  <si>
-    <t>84,06%</t>
-  </si>
-  <si>
-    <t>81,69%</t>
-  </si>
-  <si>
-    <t>86,18%</t>
-  </si>
-  <si>
-    <t>79,67%</t>
-  </si>
-  <si>
-    <t>77,0%</t>
-  </si>
-  <si>
-    <t>81,85%</t>
-  </si>
-  <si>
-    <t>81,92%</t>
-  </si>
-  <si>
-    <t>80,2%</t>
-  </si>
-  <si>
-    <t>83,47%</t>
-  </si>
-  <si>
-    <t>Menores según si no hacen ejercicio en 2015 (Tasa respuesta: 99,62%)</t>
-  </si>
-  <si>
-    <t>17,85%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>37,55%</t>
-  </si>
-  <si>
-    <t>24,3%</t>
-  </si>
-  <si>
-    <t>10,4%</t>
-  </si>
-  <si>
-    <t>45,71%</t>
-  </si>
-  <si>
-    <t>20,94%</t>
-  </si>
-  <si>
-    <t>11,14%</t>
-  </si>
-  <si>
-    <t>34,18%</t>
-  </si>
-  <si>
-    <t>82,15%</t>
-  </si>
-  <si>
-    <t>62,45%</t>
-  </si>
-  <si>
-    <t>93,34%</t>
-  </si>
-  <si>
-    <t>75,7%</t>
-  </si>
-  <si>
-    <t>54,29%</t>
-  </si>
-  <si>
-    <t>89,6%</t>
-  </si>
-  <si>
-    <t>79,06%</t>
-  </si>
-  <si>
-    <t>65,82%</t>
-  </si>
-  <si>
-    <t>88,86%</t>
-  </si>
-  <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>19,02%</t>
-  </si>
-  <si>
-    <t>23,07%</t>
-  </si>
-  <si>
-    <t>17,63%</t>
-  </si>
-  <si>
-    <t>30,22%</t>
-  </si>
-  <si>
-    <t>17,89%</t>
-  </si>
-  <si>
-    <t>13,85%</t>
-  </si>
-  <si>
-    <t>22,2%</t>
-  </si>
-  <si>
-    <t>86,78%</t>
-  </si>
-  <si>
-    <t>80,98%</t>
-  </si>
-  <si>
-    <t>91,23%</t>
-  </si>
-  <si>
-    <t>76,93%</t>
-  </si>
-  <si>
-    <t>69,78%</t>
-  </si>
-  <si>
-    <t>82,37%</t>
-  </si>
-  <si>
-    <t>82,11%</t>
-  </si>
-  <si>
-    <t>77,8%</t>
-  </si>
-  <si>
-    <t>86,15%</t>
-  </si>
-  <si>
-    <t>19,37%</t>
-  </si>
-  <si>
-    <t>15,4%</t>
-  </si>
-  <si>
-    <t>23,53%</t>
-  </si>
-  <si>
-    <t>21,15%</t>
-  </si>
-  <si>
-    <t>16,73%</t>
-  </si>
-  <si>
-    <t>25,68%</t>
-  </si>
-  <si>
-    <t>20,22%</t>
-  </si>
-  <si>
-    <t>17,33%</t>
-  </si>
-  <si>
-    <t>23,33%</t>
-  </si>
-  <si>
-    <t>80,63%</t>
-  </si>
-  <si>
-    <t>76,47%</t>
-  </si>
-  <si>
-    <t>84,6%</t>
-  </si>
-  <si>
-    <t>78,85%</t>
-  </si>
-  <si>
-    <t>74,32%</t>
-  </si>
-  <si>
-    <t>83,27%</t>
-  </si>
-  <si>
-    <t>79,78%</t>
-  </si>
-  <si>
-    <t>76,67%</t>
-  </si>
-  <si>
-    <t>82,67%</t>
-  </si>
-  <si>
-    <t>15,23%</t>
-  </si>
-  <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>19,89%</t>
-  </si>
-  <si>
-    <t>21,66%</t>
-  </si>
-  <si>
-    <t>27,2%</t>
-  </si>
-  <si>
-    <t>18,34%</t>
-  </si>
-  <si>
-    <t>15,18%</t>
-  </si>
-  <si>
-    <t>21,95%</t>
-  </si>
-  <si>
-    <t>84,77%</t>
-  </si>
-  <si>
-    <t>80,11%</t>
-  </si>
-  <si>
-    <t>89,31%</t>
-  </si>
-  <si>
-    <t>78,34%</t>
-  </si>
-  <si>
-    <t>72,8%</t>
-  </si>
-  <si>
-    <t>81,66%</t>
-  </si>
-  <si>
-    <t>78,05%</t>
-  </si>
-  <si>
-    <t>84,82%</t>
-  </si>
-  <si>
-    <t>17,28%</t>
-  </si>
-  <si>
-    <t>21,99%</t>
-  </si>
-  <si>
-    <t>22,15%</t>
-  </si>
-  <si>
-    <t>17,67%</t>
-  </si>
-  <si>
-    <t>27,7%</t>
-  </si>
-  <si>
-    <t>19,73%</t>
-  </si>
-  <si>
-    <t>16,54%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>82,72%</t>
-  </si>
-  <si>
-    <t>78,01%</t>
-  </si>
-  <si>
-    <t>77,85%</t>
-  </si>
-  <si>
-    <t>72,3%</t>
-  </si>
-  <si>
-    <t>82,33%</t>
-  </si>
-  <si>
-    <t>80,27%</t>
-  </si>
-  <si>
-    <t>77,15%</t>
-  </si>
-  <si>
-    <t>83,46%</t>
-  </si>
-  <si>
-    <t>16,8%</t>
-  </si>
-  <si>
-    <t>14,41%</t>
-  </si>
-  <si>
-    <t>19,15%</t>
-  </si>
-  <si>
-    <t>21,96%</t>
-  </si>
-  <si>
-    <t>19,52%</t>
-  </si>
-  <si>
-    <t>24,58%</t>
-  </si>
-  <si>
-    <t>19,31%</t>
-  </si>
-  <si>
-    <t>17,56%</t>
-  </si>
-  <si>
-    <t>20,92%</t>
-  </si>
-  <si>
-    <t>83,2%</t>
-  </si>
-  <si>
-    <t>80,85%</t>
-  </si>
-  <si>
-    <t>85,59%</t>
-  </si>
-  <si>
-    <t>78,04%</t>
-  </si>
-  <si>
-    <t>75,42%</t>
-  </si>
-  <si>
-    <t>80,48%</t>
-  </si>
-  <si>
-    <t>80,69%</t>
-  </si>
-  <si>
-    <t>79,08%</t>
-  </si>
-  <si>
-    <t>82,44%</t>
-  </si>
-  <si>
-    <t>Menores según si no hacen ejercicio en 2023 (Tasa respuesta: 99,38%)</t>
-  </si>
-  <si>
-    <t>21,8%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>47,68%</t>
-  </si>
-  <si>
-    <t>22,94%</t>
-  </si>
-  <si>
-    <t>10,98%</t>
-  </si>
-  <si>
-    <t>42,47%</t>
-  </si>
-  <si>
-    <t>22,46%</t>
-  </si>
-  <si>
-    <t>12,71%</t>
-  </si>
-  <si>
-    <t>35,98%</t>
-  </si>
-  <si>
-    <t>78,2%</t>
-  </si>
-  <si>
-    <t>52,32%</t>
-  </si>
-  <si>
-    <t>94,39%</t>
-  </si>
-  <si>
-    <t>77,06%</t>
-  </si>
-  <si>
-    <t>57,53%</t>
-  </si>
-  <si>
-    <t>89,02%</t>
-  </si>
-  <si>
-    <t>77,54%</t>
-  </si>
-  <si>
-    <t>64,02%</t>
-  </si>
-  <si>
-    <t>87,29%</t>
-  </si>
-  <si>
-    <t>17,52%</t>
-  </si>
-  <si>
-    <t>10,3%</t>
-  </si>
-  <si>
-    <t>34,58%</t>
-  </si>
-  <si>
-    <t>12,53%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>17,45%</t>
-  </si>
-  <si>
-    <t>15,15%</t>
-  </si>
-  <si>
-    <t>10,74%</t>
-  </si>
-  <si>
-    <t>24,13%</t>
-  </si>
-  <si>
-    <t>82,48%</t>
-  </si>
-  <si>
-    <t>65,42%</t>
-  </si>
-  <si>
-    <t>89,7%</t>
-  </si>
-  <si>
-    <t>87,47%</t>
-  </si>
-  <si>
-    <t>82,55%</t>
-  </si>
-  <si>
-    <t>91,95%</t>
-  </si>
-  <si>
-    <t>84,85%</t>
-  </si>
-  <si>
-    <t>75,87%</t>
-  </si>
-  <si>
-    <t>89,26%</t>
-  </si>
-  <si>
-    <t>15,28%</t>
-  </si>
-  <si>
-    <t>11,82%</t>
-  </si>
-  <si>
-    <t>19,55%</t>
-  </si>
-  <si>
-    <t>18,37%</t>
-  </si>
-  <si>
-    <t>13,76%</t>
-  </si>
-  <si>
-    <t>23,61%</t>
-  </si>
-  <si>
-    <t>16,62%</t>
-  </si>
-  <si>
-    <t>13,69%</t>
-  </si>
-  <si>
-    <t>19,71%</t>
-  </si>
-  <si>
-    <t>84,72%</t>
-  </si>
-  <si>
-    <t>80,45%</t>
-  </si>
-  <si>
-    <t>88,18%</t>
-  </si>
-  <si>
-    <t>81,63%</t>
-  </si>
-  <si>
-    <t>76,39%</t>
-  </si>
-  <si>
-    <t>86,24%</t>
-  </si>
-  <si>
-    <t>83,38%</t>
-  </si>
-  <si>
-    <t>80,29%</t>
-  </si>
-  <si>
-    <t>86,31%</t>
+    <t>86,16%</t>
   </si>
   <si>
     <t>21,08%</t>
   </si>
   <si>
-    <t>16,08%</t>
-  </si>
-  <si>
-    <t>27,25%</t>
+    <t>15,9%</t>
+  </si>
+  <si>
+    <t>27,3%</t>
   </si>
   <si>
     <t>26,28%</t>
   </si>
   <si>
-    <t>19,64%</t>
-  </si>
-  <si>
-    <t>39,33%</t>
+    <t>39,5%</t>
   </si>
   <si>
     <t>23,66%</t>
   </si>
   <si>
-    <t>19,34%</t>
-  </si>
-  <si>
-    <t>29,73%</t>
+    <t>19,16%</t>
+  </si>
+  <si>
+    <t>30,64%</t>
   </si>
   <si>
     <t>78,92%</t>
   </si>
   <si>
-    <t>72,75%</t>
-  </si>
-  <si>
-    <t>83,92%</t>
+    <t>72,7%</t>
+  </si>
+  <si>
+    <t>84,1%</t>
   </si>
   <si>
     <t>73,72%</t>
   </si>
   <si>
-    <t>60,67%</t>
-  </si>
-  <si>
-    <t>80,36%</t>
+    <t>60,5%</t>
   </si>
   <si>
     <t>76,34%</t>
   </si>
   <si>
-    <t>70,27%</t>
-  </si>
-  <si>
-    <t>80,66%</t>
+    <t>69,36%</t>
+  </si>
+  <si>
+    <t>80,84%</t>
   </si>
   <si>
     <t>12,76%</t>
   </si>
   <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>17,09%</t>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>17,37%</t>
   </si>
   <si>
     <t>18,16%</t>
   </si>
   <si>
-    <t>13,63%</t>
-  </si>
-  <si>
-    <t>23,9%</t>
+    <t>13,78%</t>
+  </si>
+  <si>
+    <t>23,81%</t>
   </si>
   <si>
     <t>15,43%</t>
   </si>
   <si>
-    <t>12,34%</t>
-  </si>
-  <si>
-    <t>18,79%</t>
+    <t>12,41%</t>
+  </si>
+  <si>
+    <t>18,82%</t>
   </si>
   <si>
     <t>87,24%</t>
   </si>
   <si>
-    <t>82,91%</t>
-  </si>
-  <si>
-    <t>90,83%</t>
+    <t>82,63%</t>
+  </si>
+  <si>
+    <t>90,93%</t>
   </si>
   <si>
     <t>81,84%</t>
   </si>
   <si>
-    <t>76,1%</t>
-  </si>
-  <si>
-    <t>86,37%</t>
+    <t>76,19%</t>
+  </si>
+  <si>
+    <t>86,22%</t>
   </si>
   <si>
     <t>84,57%</t>
   </si>
   <si>
-    <t>81,21%</t>
-  </si>
-  <si>
-    <t>87,66%</t>
+    <t>81,18%</t>
+  </si>
+  <si>
+    <t>87,59%</t>
   </si>
   <si>
     <t>16,51%</t>
   </si>
   <si>
-    <t>14,08%</t>
-  </si>
-  <si>
-    <t>19,57%</t>
+    <t>14,01%</t>
   </si>
   <si>
     <t>19,54%</t>
   </si>
   <si>
-    <t>24,19%</t>
+    <t>16,89%</t>
+  </si>
+  <si>
+    <t>23,68%</t>
   </si>
   <si>
     <t>17,95%</t>
   </si>
   <si>
-    <t>16,17%</t>
-  </si>
-  <si>
-    <t>20,52%</t>
+    <t>16,0%</t>
+  </si>
+  <si>
+    <t>20,56%</t>
   </si>
   <si>
     <t>83,49%</t>
   </si>
   <si>
-    <t>80,43%</t>
-  </si>
-  <si>
-    <t>85,92%</t>
+    <t>85,99%</t>
   </si>
   <si>
     <t>80,46%</t>
   </si>
   <si>
-    <t>75,81%</t>
+    <t>76,32%</t>
+  </si>
+  <si>
+    <t>83,11%</t>
   </si>
   <si>
     <t>82,05%</t>
   </si>
   <si>
-    <t>79,48%</t>
-  </si>
-  <si>
-    <t>83,83%</t>
+    <t>79,44%</t>
+  </si>
+  <si>
+    <t>84,0%</t>
   </si>
 </sst>
 </file>
@@ -1773,7 +1743,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC048BEA-71D0-4924-8034-D6B0D4729499}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF97ADBD-74B8-406A-83AA-1993873D0E21}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2532,13 +2502,13 @@
         <v>51857</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>151</v>
@@ -2547,13 +2517,13 @@
         <v>106149</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2568,13 +2538,13 @@
         <v>152180</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>205</v>
@@ -2583,13 +2553,13 @@
         <v>157458</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>427</v>
@@ -2598,13 +2568,13 @@
         <v>309638</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2672,13 +2642,13 @@
         <v>168873</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="H19" s="7">
         <v>260</v>
@@ -2687,13 +2657,13 @@
         <v>171730</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="M19" s="7">
         <v>513</v>
@@ -2702,13 +2672,13 @@
         <v>340603</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2723,13 +2693,13 @@
         <v>552475</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="H20" s="7">
         <v>755</v>
@@ -2738,13 +2708,13 @@
         <v>507205</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="M20" s="7">
         <v>1586</v>
@@ -2753,13 +2723,13 @@
         <v>1059680</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2815,7 +2785,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -2836,7 +2806,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C50D57A-4799-446A-89F4-0717BB0EDBC2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38177E22-7795-4B01-9EB3-88125A2DB730}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2853,7 +2823,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2960,13 +2930,13 @@
         <v>3209</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="H4" s="7">
         <v>7</v>
@@ -2975,13 +2945,13 @@
         <v>6398</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>132</v>
       </c>
       <c r="M4" s="7">
         <v>11</v>
@@ -2990,13 +2960,13 @@
         <v>9607</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3011,13 +2981,13 @@
         <v>21264</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>138</v>
       </c>
       <c r="H5" s="7">
         <v>19</v>
@@ -3026,13 +2996,13 @@
         <v>15975</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>141</v>
       </c>
       <c r="M5" s="7">
         <v>42</v>
@@ -3041,13 +3011,13 @@
         <v>37239</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3115,13 +3085,13 @@
         <v>20181</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>147</v>
       </c>
       <c r="H7" s="7">
         <v>27</v>
@@ -3130,13 +3100,13 @@
         <v>18583</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>150</v>
       </c>
       <c r="M7" s="7">
         <v>56</v>
@@ -3145,13 +3115,13 @@
         <v>38765</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3166,13 +3136,13 @@
         <v>107530</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>156</v>
       </c>
       <c r="H8" s="7">
         <v>134</v>
@@ -3181,13 +3151,13 @@
         <v>96730</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>159</v>
       </c>
       <c r="M8" s="7">
         <v>286</v>
@@ -3196,13 +3166,13 @@
         <v>204259</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3270,13 +3240,13 @@
         <v>35153</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>165</v>
       </c>
       <c r="H10" s="7">
         <v>71</v>
@@ -3285,13 +3255,13 @@
         <v>44578</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>147</v>
+        <v>164</v>
       </c>
       <c r="K10" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>167</v>
       </c>
       <c r="M10" s="7">
         <v>121</v>
@@ -3300,13 +3270,13 @@
         <v>79731</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>169</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3321,13 +3291,13 @@
         <v>186720</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>173</v>
       </c>
       <c r="H11" s="7">
         <v>247</v>
@@ -3336,7 +3306,7 @@
         <v>161143</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>155</v>
+        <v>173</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>174</v>
@@ -3428,10 +3398,10 @@
         <v>179</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>127</v>
+        <v>180</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H13" s="7">
         <v>52</v>
@@ -3440,13 +3410,13 @@
         <v>33802</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="M13" s="7">
         <v>94</v>
@@ -3455,13 +3425,13 @@
         <v>63539</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3476,13 +3446,13 @@
         <v>136227</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>136</v>
+        <v>190</v>
       </c>
       <c r="H14" s="7">
         <v>188</v>
@@ -3491,13 +3461,13 @@
         <v>120550</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="M14" s="7">
         <v>401</v>
@@ -3506,13 +3476,13 @@
         <v>256777</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3580,13 +3550,13 @@
         <v>30165</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>149</v>
+        <v>198</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="H16" s="7">
         <v>54</v>
@@ -3595,13 +3565,13 @@
         <v>40090</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="M16" s="7">
         <v>97</v>
@@ -3610,13 +3580,13 @@
         <v>70255</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3631,13 +3601,13 @@
         <v>172769</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>159</v>
+        <v>208</v>
       </c>
       <c r="H17" s="7">
         <v>218</v>
@@ -3646,13 +3616,13 @@
         <v>167889</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="M17" s="7">
         <v>451</v>
@@ -3661,13 +3631,13 @@
         <v>340659</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3735,13 +3705,13 @@
         <v>118446</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="H19" s="7">
         <v>211</v>
@@ -3750,13 +3720,13 @@
         <v>143451</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>214</v>
+        <v>151</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="M19" s="7">
         <v>379</v>
@@ -3765,13 +3735,13 @@
         <v>261896</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3786,13 +3756,13 @@
         <v>624510</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="H20" s="7">
         <v>806</v>
@@ -3801,13 +3771,13 @@
         <v>562287</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>223</v>
+        <v>159</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="M20" s="7">
         <v>1698</v>
@@ -3816,13 +3786,13 @@
         <v>1186798</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3878,7 +3848,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -3899,7 +3869,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2727999-85A5-48EE-AF53-389AC649070F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58B8B6D2-3D74-4995-9E32-30F530A8157F}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3916,7 +3886,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4023,13 +3993,13 @@
         <v>4378</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="H4" s="7">
         <v>6</v>
@@ -4038,13 +4008,13 @@
         <v>5475</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="M4" s="7">
         <v>11</v>
@@ -4053,13 +4023,13 @@
         <v>9853</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4074,13 +4044,13 @@
         <v>20149</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="H5" s="7">
         <v>18</v>
@@ -4089,13 +4059,13 @@
         <v>17052</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="M5" s="7">
         <v>42</v>
@@ -4104,13 +4074,13 @@
         <v>37201</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4178,13 +4148,13 @@
         <v>16198</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="H7" s="7">
         <v>38</v>
@@ -4193,13 +4163,13 @@
         <v>25490</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="M7" s="7">
         <v>61</v>
@@ -4208,13 +4178,13 @@
         <v>41688</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4229,13 +4199,13 @@
         <v>106304</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="H8" s="7">
         <v>124</v>
@@ -4244,13 +4214,13 @@
         <v>85003</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="M8" s="7">
         <v>266</v>
@@ -4259,13 +4229,13 @@
         <v>191307</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4333,13 +4303,13 @@
         <v>43336</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="H10" s="7">
         <v>72</v>
@@ -4348,13 +4318,13 @@
         <v>43826</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>271</v>
+        <v>166</v>
       </c>
       <c r="M10" s="7">
         <v>138</v>
@@ -4363,13 +4333,13 @@
         <v>87161</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4384,13 +4354,13 @@
         <v>180416</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="H11" s="7">
         <v>262</v>
@@ -4399,10 +4369,10 @@
         <v>163421</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>279</v>
+        <v>174</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>280</v>
@@ -4494,7 +4464,7 @@
         <v>285</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>286</v>
+        <v>131</v>
       </c>
       <c r="H13" s="7">
         <v>58</v>
@@ -4503,10 +4473,10 @@
         <v>33783</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>287</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>200</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>288</v>
@@ -4542,10 +4512,10 @@
         <v>292</v>
       </c>
       <c r="F14" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>293</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>294</v>
       </c>
       <c r="H14" s="7">
         <v>201</v>
@@ -4554,13 +4524,13 @@
         <v>122214</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>295</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>296</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>208</v>
       </c>
       <c r="M14" s="7">
         <v>409</v>
@@ -4643,10 +4613,10 @@
         <v>35220</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>300</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>301</v>
@@ -4679,7 +4649,7 @@
         <v>306</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>307</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4694,13 +4664,13 @@
         <v>168579</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>308</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="H17" s="7">
         <v>217</v>
@@ -4709,13 +4679,13 @@
         <v>160958</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>310</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>311</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>312</v>
       </c>
       <c r="M17" s="7">
         <v>453</v>
@@ -4724,13 +4694,13 @@
         <v>329537</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>313</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>315</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4798,13 +4768,13 @@
         <v>124404</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>316</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>318</v>
       </c>
       <c r="H19" s="7">
         <v>237</v>
@@ -4813,13 +4783,13 @@
         <v>154366</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>319</v>
+        <v>145</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="M19" s="7">
         <v>421</v>
@@ -4828,13 +4798,13 @@
         <v>278770</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>324</v>
+        <v>106</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4849,13 +4819,13 @@
         <v>616149</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="H20" s="7">
         <v>822</v>
@@ -4864,13 +4834,13 @@
         <v>548648</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>328</v>
+        <v>153</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="M20" s="7">
         <v>1697</v>
@@ -4879,13 +4849,13 @@
         <v>1164797</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>332</v>
+        <v>116</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4941,7 +4911,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -4962,7 +4932,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D7697DA-4349-4B45-A23F-3EF4C580A1C3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01B352DE-0509-48A5-8812-865BE72CB76D}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4979,7 +4949,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5086,13 +5056,13 @@
         <v>2658</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="H4" s="7">
         <v>8</v>
@@ -5101,13 +5071,13 @@
         <v>3850</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="M4" s="7">
         <v>12</v>
@@ -5116,13 +5086,13 @@
         <v>6509</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>341</v>
+        <v>112</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5137,13 +5107,13 @@
         <v>9537</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="H5" s="7">
         <v>20</v>
@@ -5152,13 +5122,13 @@
         <v>12937</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="M5" s="7">
         <v>34</v>
@@ -5167,13 +5137,13 @@
         <v>22474</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>350</v>
+        <v>122</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5241,13 +5211,13 @@
         <v>20082</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="H7" s="7">
         <v>26</v>
@@ -5256,13 +5226,13 @@
         <v>12968</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="M7" s="7">
         <v>51</v>
@@ -5271,13 +5241,13 @@
         <v>33049</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5292,13 +5262,13 @@
         <v>94514</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="H8" s="7">
         <v>141</v>
@@ -5307,13 +5277,13 @@
         <v>90547</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="M8" s="7">
         <v>268</v>
@@ -5322,13 +5292,13 @@
         <v>185061</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5396,13 +5366,13 @@
         <v>38031</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="H10" s="7">
         <v>53</v>
@@ -5411,13 +5381,13 @@
         <v>35329</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="M10" s="7">
         <v>121</v>
@@ -5426,13 +5396,13 @@
         <v>73360</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5447,13 +5417,13 @@
         <v>210887</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="H11" s="7">
         <v>227</v>
@@ -5462,13 +5432,13 @@
         <v>157023</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="M11" s="7">
         <v>500</v>
@@ -5477,13 +5447,13 @@
         <v>367910</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5551,13 +5521,13 @@
         <v>36018</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="H13" s="7">
         <v>54</v>
@@ -5566,13 +5536,13 @@
         <v>44126</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>393</v>
+        <v>371</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>394</v>
+        <v>385</v>
       </c>
       <c r="M13" s="7">
         <v>106</v>
@@ -5581,13 +5551,13 @@
         <v>80144</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>395</v>
+        <v>386</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>396</v>
+        <v>387</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>397</v>
+        <v>388</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5602,13 +5572,13 @@
         <v>134840</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>398</v>
+        <v>389</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>399</v>
+        <v>390</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>400</v>
+        <v>391</v>
       </c>
       <c r="H14" s="7">
         <v>172</v>
@@ -5617,13 +5587,13 @@
         <v>123776</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>401</v>
+        <v>392</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>402</v>
+        <v>393</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>403</v>
+        <v>379</v>
       </c>
       <c r="M14" s="7">
         <v>340</v>
@@ -5632,13 +5602,13 @@
         <v>258616</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>404</v>
+        <v>394</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>405</v>
+        <v>395</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5706,13 +5676,13 @@
         <v>22332</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>407</v>
+        <v>397</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>408</v>
+        <v>398</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>409</v>
+        <v>399</v>
       </c>
       <c r="H16" s="7">
         <v>44</v>
@@ -5721,13 +5691,13 @@
         <v>31025</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>410</v>
+        <v>400</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>412</v>
+        <v>402</v>
       </c>
       <c r="M16" s="7">
         <v>81</v>
@@ -5736,13 +5706,13 @@
         <v>53357</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>413</v>
+        <v>403</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>414</v>
+        <v>404</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>415</v>
+        <v>405</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5757,13 +5727,13 @@
         <v>152684</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>416</v>
+        <v>406</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>417</v>
+        <v>407</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>418</v>
+        <v>408</v>
       </c>
       <c r="H17" s="7">
         <v>194</v>
@@ -5772,13 +5742,13 @@
         <v>139782</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>421</v>
+        <v>411</v>
       </c>
       <c r="M17" s="7">
         <v>395</v>
@@ -5787,13 +5757,13 @@
         <v>292465</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>422</v>
+        <v>412</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>423</v>
+        <v>413</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>424</v>
+        <v>414</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5861,13 +5831,13 @@
         <v>119121</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>425</v>
+        <v>415</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>426</v>
+        <v>416</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>427</v>
+        <v>365</v>
       </c>
       <c r="H19" s="7">
         <v>185</v>
@@ -5876,13 +5846,13 @@
         <v>127298</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>428</v>
+        <v>417</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>33</v>
+        <v>418</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>429</v>
+        <v>419</v>
       </c>
       <c r="M19" s="7">
         <v>371</v>
@@ -5891,13 +5861,13 @@
         <v>246419</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>430</v>
+        <v>420</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>431</v>
+        <v>421</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>432</v>
+        <v>422</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5912,13 +5882,13 @@
         <v>602461</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>433</v>
+        <v>423</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>434</v>
+        <v>373</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>435</v>
+        <v>424</v>
       </c>
       <c r="H20" s="7">
         <v>754</v>
@@ -5927,13 +5897,13 @@
         <v>524065</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>436</v>
+        <v>425</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>437</v>
+        <v>426</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>43</v>
+        <v>427</v>
       </c>
       <c r="M20" s="7">
         <v>1537</v>
@@ -5942,13 +5912,13 @@
         <v>1126527</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>440</v>
+        <v>430</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6004,7 +5974,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP24_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP24_R-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A5D3609A-E411-4D7D-9D64-96CAEC36E87B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{34B78421-4AF0-4AB5-A759-FCA00A487438}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{43411D72-14E2-4415-825E-661A46D8E0B0}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{A31C2660-C42B-48B4-A23C-F61174D4CFE2}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,15 +39,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="431">
-  <si>
-    <t>Menores según si no hacen ejercicio en 2007 (Tasa respuesta: 99,76%)</t>
-  </si>
-  <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="370">
+  <si>
+    <t>Menores según si no hacen ejercicio en su tiempo libre en 2007 (Tasa respuesta: 99,76%)</t>
+  </si>
+  <si>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -68,1270 +68,1087 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
-    <t>25,38%</t>
-  </si>
-  <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>43,32%</t>
-  </si>
-  <si>
-    <t>3,14%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>17,49%</t>
-  </si>
-  <si>
-    <t>14,89%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
+    <t>25,17%</t>
+  </si>
+  <si>
+    <t>19,94%</t>
+  </si>
+  <si>
+    <t>31,65%</t>
+  </si>
+  <si>
+    <t>23,07%</t>
+  </si>
+  <si>
+    <t>18,19%</t>
+  </si>
+  <si>
+    <t>29,45%</t>
+  </si>
+  <si>
+    <t>24,06%</t>
+  </si>
+  <si>
+    <t>20,37%</t>
+  </si>
+  <si>
+    <t>28,45%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>74,83%</t>
+  </si>
+  <si>
+    <t>68,35%</t>
+  </si>
+  <si>
+    <t>80,06%</t>
+  </si>
+  <si>
+    <t>76,93%</t>
+  </si>
+  <si>
+    <t>70,55%</t>
+  </si>
+  <si>
+    <t>81,81%</t>
+  </si>
+  <si>
+    <t>75,94%</t>
+  </si>
+  <si>
+    <t>71,55%</t>
+  </si>
+  <si>
+    <t>79,63%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>27,77%</t>
+  </si>
+  <si>
+    <t>22,97%</t>
+  </si>
+  <si>
+    <t>33,25%</t>
+  </si>
+  <si>
+    <t>23,42%</t>
+  </si>
+  <si>
+    <t>18,75%</t>
+  </si>
+  <si>
+    <t>28,03%</t>
+  </si>
+  <si>
+    <t>25,5%</t>
+  </si>
+  <si>
+    <t>22,31%</t>
+  </si>
+  <si>
+    <t>28,73%</t>
+  </si>
+  <si>
+    <t>72,23%</t>
+  </si>
+  <si>
+    <t>66,75%</t>
+  </si>
+  <si>
+    <t>77,03%</t>
+  </si>
+  <si>
+    <t>76,58%</t>
+  </si>
+  <si>
+    <t>71,97%</t>
+  </si>
+  <si>
+    <t>81,25%</t>
+  </si>
+  <si>
+    <t>74,5%</t>
+  </si>
+  <si>
+    <t>71,27%</t>
+  </si>
+  <si>
+    <t>77,69%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>22,69%</t>
+  </si>
+  <si>
+    <t>17,93%</t>
+  </si>
+  <si>
+    <t>28,6%</t>
+  </si>
+  <si>
+    <t>19,76%</t>
+  </si>
+  <si>
+    <t>15,0%</t>
+  </si>
+  <si>
+    <t>25,52%</t>
+  </si>
+  <si>
+    <t>21,16%</t>
+  </si>
+  <si>
+    <t>17,51%</t>
+  </si>
+  <si>
+    <t>25,11%</t>
+  </si>
+  <si>
+    <t>77,31%</t>
+  </si>
+  <si>
+    <t>71,4%</t>
+  </si>
+  <si>
+    <t>82,07%</t>
+  </si>
+  <si>
+    <t>80,24%</t>
+  </si>
+  <si>
+    <t>74,48%</t>
+  </si>
+  <si>
+    <t>85,0%</t>
+  </si>
+  <si>
+    <t>78,84%</t>
+  </si>
+  <si>
+    <t>74,89%</t>
+  </si>
+  <si>
+    <t>82,49%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>24,77%</t>
+  </si>
+  <si>
+    <t>30,11%</t>
+  </si>
+  <si>
+    <t>26,29%</t>
+  </si>
+  <si>
+    <t>21,78%</t>
+  </si>
+  <si>
+    <t>32,15%</t>
+  </si>
+  <si>
+    <t>25,53%</t>
+  </si>
+  <si>
+    <t>21,94%</t>
+  </si>
+  <si>
+    <t>29,21%</t>
+  </si>
+  <si>
+    <t>75,23%</t>
+  </si>
+  <si>
+    <t>69,89%</t>
+  </si>
+  <si>
+    <t>73,71%</t>
+  </si>
+  <si>
+    <t>67,85%</t>
+  </si>
+  <si>
+    <t>78,22%</t>
+  </si>
+  <si>
+    <t>74,47%</t>
+  </si>
+  <si>
+    <t>70,79%</t>
+  </si>
+  <si>
+    <t>78,06%</t>
+  </si>
+  <si>
+    <t>25,29%</t>
+  </si>
+  <si>
+    <t>22,8%</t>
+  </si>
+  <si>
+    <t>28,02%</t>
+  </si>
+  <si>
+    <t>23,41%</t>
+  </si>
+  <si>
+    <t>20,97%</t>
+  </si>
+  <si>
+    <t>26,0%</t>
+  </si>
+  <si>
+    <t>24,32%</t>
+  </si>
+  <si>
+    <t>22,42%</t>
   </si>
   <si>
     <t>26,13%</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>74,62%</t>
-  </si>
-  <si>
-    <t>56,68%</t>
-  </si>
-  <si>
-    <t>87,45%</t>
-  </si>
-  <si>
-    <t>96,86%</t>
-  </si>
-  <si>
-    <t>82,51%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>85,11%</t>
+    <t>74,71%</t>
+  </si>
+  <si>
+    <t>71,98%</t>
+  </si>
+  <si>
+    <t>77,2%</t>
+  </si>
+  <si>
+    <t>76,59%</t>
+  </si>
+  <si>
+    <t>74,0%</t>
+  </si>
+  <si>
+    <t>79,03%</t>
+  </si>
+  <si>
+    <t>75,68%</t>
   </si>
   <si>
     <t>73,87%</t>
   </si>
   <si>
-    <t>91,83%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>22,61%</t>
-  </si>
-  <si>
-    <t>17,23%</t>
-  </si>
-  <si>
-    <t>29,09%</t>
-  </si>
-  <si>
-    <t>29,54%</t>
-  </si>
-  <si>
-    <t>23,01%</t>
-  </si>
-  <si>
-    <t>36,95%</t>
-  </si>
-  <si>
-    <t>25,89%</t>
-  </si>
-  <si>
-    <t>21,71%</t>
-  </si>
-  <si>
-    <t>30,39%</t>
-  </si>
-  <si>
-    <t>77,39%</t>
-  </si>
-  <si>
-    <t>70,91%</t>
-  </si>
-  <si>
-    <t>82,77%</t>
-  </si>
-  <si>
-    <t>70,46%</t>
-  </si>
-  <si>
-    <t>63,05%</t>
-  </si>
-  <si>
-    <t>76,99%</t>
-  </si>
-  <si>
-    <t>74,11%</t>
-  </si>
-  <si>
-    <t>69,61%</t>
-  </si>
-  <si>
-    <t>78,29%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>23,42%</t>
-  </si>
-  <si>
-    <t>18,87%</t>
-  </si>
-  <si>
-    <t>28,4%</t>
-  </si>
-  <si>
-    <t>27,77%</t>
-  </si>
-  <si>
-    <t>22,52%</t>
-  </si>
-  <si>
-    <t>32,58%</t>
-  </si>
-  <si>
-    <t>25,5%</t>
+    <t>77,58%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según si no hacen ejercicio en su tiempo libre en 2012 (Tasa respuesta: 98,95%)</t>
+  </si>
+  <si>
+    <t>18,14%</t>
+  </si>
+  <si>
+    <t>13,4%</t>
+  </si>
+  <si>
+    <t>24,53%</t>
+  </si>
+  <si>
+    <t>15,37%</t>
+  </si>
+  <si>
+    <t>10,6%</t>
+  </si>
+  <si>
+    <t>20,52%</t>
+  </si>
+  <si>
+    <t>16,69%</t>
+  </si>
+  <si>
+    <t>13,24%</t>
+  </si>
+  <si>
+    <t>20,44%</t>
+  </si>
+  <si>
+    <t>81,86%</t>
+  </si>
+  <si>
+    <t>75,47%</t>
+  </si>
+  <si>
+    <t>86,6%</t>
+  </si>
+  <si>
+    <t>84,63%</t>
+  </si>
+  <si>
+    <t>79,48%</t>
+  </si>
+  <si>
+    <t>89,4%</t>
+  </si>
+  <si>
+    <t>83,31%</t>
+  </si>
+  <si>
+    <t>79,56%</t>
+  </si>
+  <si>
+    <t>86,76%</t>
+  </si>
+  <si>
+    <t>21,67%</t>
+  </si>
+  <si>
+    <t>17,33%</t>
+  </si>
+  <si>
+    <t>26,61%</t>
+  </si>
+  <si>
+    <t>15,84%</t>
+  </si>
+  <si>
+    <t>12,08%</t>
+  </si>
+  <si>
+    <t>19,98%</t>
+  </si>
+  <si>
+    <t>18,65%</t>
+  </si>
+  <si>
+    <t>15,83%</t>
   </si>
   <si>
     <t>21,93%</t>
   </si>
   <si>
-    <t>29,02%</t>
-  </si>
-  <si>
-    <t>76,58%</t>
-  </si>
-  <si>
-    <t>71,6%</t>
-  </si>
-  <si>
-    <t>81,13%</t>
-  </si>
-  <si>
-    <t>72,23%</t>
-  </si>
-  <si>
-    <t>67,42%</t>
-  </si>
-  <si>
-    <t>77,48%</t>
-  </si>
-  <si>
-    <t>74,5%</t>
-  </si>
-  <si>
-    <t>70,98%</t>
+    <t>78,33%</t>
+  </si>
+  <si>
+    <t>73,39%</t>
+  </si>
+  <si>
+    <t>82,67%</t>
+  </si>
+  <si>
+    <t>84,16%</t>
+  </si>
+  <si>
+    <t>80,02%</t>
+  </si>
+  <si>
+    <t>87,92%</t>
+  </si>
+  <si>
+    <t>81,35%</t>
   </si>
   <si>
     <t>78,07%</t>
   </si>
   <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>19,76%</t>
+    <t>84,17%</t>
+  </si>
+  <si>
+    <t>21,9%</t>
+  </si>
+  <si>
+    <t>17,01%</t>
+  </si>
+  <si>
+    <t>27,81%</t>
+  </si>
+  <si>
+    <t>17,92%</t>
+  </si>
+  <si>
+    <t>12,89%</t>
+  </si>
+  <si>
+    <t>22,74%</t>
+  </si>
+  <si>
+    <t>19,84%</t>
+  </si>
+  <si>
+    <t>16,36%</t>
+  </si>
+  <si>
+    <t>23,14%</t>
+  </si>
+  <si>
+    <t>78,1%</t>
+  </si>
+  <si>
+    <t>72,19%</t>
+  </si>
+  <si>
+    <t>82,99%</t>
+  </si>
+  <si>
+    <t>82,08%</t>
+  </si>
+  <si>
+    <t>77,26%</t>
+  </si>
+  <si>
+    <t>87,11%</t>
+  </si>
+  <si>
+    <t>80,16%</t>
+  </si>
+  <si>
+    <t>76,86%</t>
+  </si>
+  <si>
+    <t>83,64%</t>
+  </si>
+  <si>
+    <t>19,28%</t>
+  </si>
+  <si>
+    <t>14,67%</t>
+  </si>
+  <si>
+    <t>24,29%</t>
+  </si>
+  <si>
+    <t>14,86%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>19,18%</t>
+  </si>
+  <si>
+    <t>17,1%</t>
+  </si>
+  <si>
+    <t>14,21%</t>
+  </si>
+  <si>
+    <t>20,34%</t>
+  </si>
+  <si>
+    <t>80,72%</t>
+  </si>
+  <si>
+    <t>75,71%</t>
+  </si>
+  <si>
+    <t>85,33%</t>
+  </si>
+  <si>
+    <t>85,14%</t>
+  </si>
+  <si>
+    <t>80,82%</t>
+  </si>
+  <si>
+    <t>88,99%</t>
+  </si>
+  <si>
+    <t>82,9%</t>
+  </si>
+  <si>
+    <t>79,66%</t>
+  </si>
+  <si>
+    <t>85,79%</t>
+  </si>
+  <si>
+    <t>20,33%</t>
+  </si>
+  <si>
+    <t>18,08%</t>
+  </si>
+  <si>
+    <t>22,89%</t>
+  </si>
+  <si>
+    <t>15,94%</t>
+  </si>
+  <si>
+    <t>13,83%</t>
+  </si>
+  <si>
+    <t>18,31%</t>
+  </si>
+  <si>
+    <t>16,22%</t>
+  </si>
+  <si>
+    <t>19,69%</t>
+  </si>
+  <si>
+    <t>79,67%</t>
+  </si>
+  <si>
+    <t>77,11%</t>
+  </si>
+  <si>
+    <t>81,92%</t>
+  </si>
+  <si>
+    <t>84,06%</t>
+  </si>
+  <si>
+    <t>81,69%</t>
+  </si>
+  <si>
+    <t>86,17%</t>
+  </si>
+  <si>
+    <t>80,31%</t>
+  </si>
+  <si>
+    <t>83,78%</t>
+  </si>
+  <si>
+    <t>Menores según si no hacen ejercicio en su tiempo libre en 2016 (Tasa respuesta: 99,62%)</t>
+  </si>
+  <si>
+    <t>23,28%</t>
+  </si>
+  <si>
+    <t>17,82%</t>
+  </si>
+  <si>
+    <t>30,59%</t>
+  </si>
+  <si>
+    <t>13,99%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>19,39%</t>
+  </si>
+  <si>
+    <t>18,4%</t>
   </si>
   <si>
     <t>14,76%</t>
   </si>
   <si>
-    <t>25,02%</t>
-  </si>
-  <si>
-    <t>22,69%</t>
-  </si>
-  <si>
-    <t>17,47%</t>
-  </si>
-  <si>
-    <t>28,01%</t>
-  </si>
-  <si>
-    <t>21,16%</t>
-  </si>
-  <si>
-    <t>17,4%</t>
-  </si>
-  <si>
-    <t>24,77%</t>
-  </si>
-  <si>
-    <t>80,24%</t>
-  </si>
-  <si>
-    <t>74,98%</t>
+    <t>22,47%</t>
+  </si>
+  <si>
+    <t>76,72%</t>
+  </si>
+  <si>
+    <t>69,41%</t>
+  </si>
+  <si>
+    <t>82,18%</t>
+  </si>
+  <si>
+    <t>86,01%</t>
+  </si>
+  <si>
+    <t>80,61%</t>
+  </si>
+  <si>
+    <t>90,62%</t>
+  </si>
+  <si>
+    <t>81,6%</t>
+  </si>
+  <si>
+    <t>77,53%</t>
   </si>
   <si>
     <t>85,24%</t>
   </si>
   <si>
-    <t>77,31%</t>
-  </si>
-  <si>
-    <t>71,99%</t>
-  </si>
-  <si>
-    <t>82,53%</t>
-  </si>
-  <si>
-    <t>78,84%</t>
-  </si>
-  <si>
-    <t>75,23%</t>
-  </si>
-  <si>
-    <t>82,6%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>26,29%</t>
-  </si>
-  <si>
-    <t>21,25%</t>
-  </si>
-  <si>
-    <t>31,15%</t>
-  </si>
-  <si>
-    <t>19,96%</t>
-  </si>
-  <si>
-    <t>30,5%</t>
-  </si>
-  <si>
-    <t>25,53%</t>
-  </si>
-  <si>
-    <t>22,11%</t>
-  </si>
-  <si>
-    <t>29,14%</t>
-  </si>
-  <si>
-    <t>73,71%</t>
-  </si>
-  <si>
-    <t>68,85%</t>
-  </si>
-  <si>
-    <t>78,75%</t>
-  </si>
-  <si>
-    <t>69,5%</t>
-  </si>
-  <si>
-    <t>80,04%</t>
-  </si>
-  <si>
-    <t>74,47%</t>
-  </si>
-  <si>
-    <t>70,86%</t>
-  </si>
-  <si>
-    <t>77,89%</t>
-  </si>
-  <si>
-    <t>23,41%</t>
-  </si>
-  <si>
-    <t>21,03%</t>
-  </si>
-  <si>
-    <t>25,98%</t>
-  </si>
-  <si>
-    <t>25,29%</t>
-  </si>
-  <si>
-    <t>22,63%</t>
-  </si>
-  <si>
-    <t>28,03%</t>
-  </si>
-  <si>
-    <t>24,32%</t>
-  </si>
-  <si>
-    <t>22,46%</t>
-  </si>
-  <si>
-    <t>26,2%</t>
-  </si>
-  <si>
-    <t>76,59%</t>
-  </si>
-  <si>
-    <t>74,02%</t>
-  </si>
-  <si>
-    <t>78,97%</t>
-  </si>
-  <si>
-    <t>74,71%</t>
-  </si>
-  <si>
-    <t>71,97%</t>
-  </si>
-  <si>
-    <t>77,37%</t>
-  </si>
-  <si>
-    <t>75,68%</t>
-  </si>
-  <si>
-    <t>73,8%</t>
-  </si>
-  <si>
-    <t>77,54%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según si no hacen ejercicio en 2012 (Tasa respuesta: 98,95%)</t>
-  </si>
-  <si>
-    <t>13,11%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>31,37%</t>
-  </si>
-  <si>
-    <t>28,6%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>49,04%</t>
-  </si>
-  <si>
-    <t>20,51%</t>
-  </si>
-  <si>
-    <t>10,9%</t>
-  </si>
-  <si>
-    <t>34,04%</t>
-  </si>
-  <si>
-    <t>86,89%</t>
-  </si>
-  <si>
-    <t>68,63%</t>
-  </si>
-  <si>
-    <t>96,73%</t>
-  </si>
-  <si>
-    <t>71,4%</t>
-  </si>
-  <si>
-    <t>50,96%</t>
-  </si>
-  <si>
-    <t>87,39%</t>
-  </si>
-  <si>
-    <t>79,49%</t>
-  </si>
-  <si>
-    <t>65,96%</t>
-  </si>
-  <si>
-    <t>89,1%</t>
-  </si>
-  <si>
-    <t>15,8%</t>
-  </si>
-  <si>
-    <t>11,07%</t>
+    <t>21,15%</t>
+  </si>
+  <si>
+    <t>16,99%</t>
+  </si>
+  <si>
+    <t>25,87%</t>
+  </si>
+  <si>
+    <t>19,37%</t>
+  </si>
+  <si>
+    <t>15,78%</t>
+  </si>
+  <si>
+    <t>24,08%</t>
+  </si>
+  <si>
+    <t>20,22%</t>
+  </si>
+  <si>
+    <t>17,21%</t>
+  </si>
+  <si>
+    <t>23,11%</t>
+  </si>
+  <si>
+    <t>78,85%</t>
+  </si>
+  <si>
+    <t>74,13%</t>
+  </si>
+  <si>
+    <t>83,01%</t>
+  </si>
+  <si>
+    <t>80,63%</t>
+  </si>
+  <si>
+    <t>75,92%</t>
+  </si>
+  <si>
+    <t>84,22%</t>
+  </si>
+  <si>
+    <t>79,78%</t>
+  </si>
+  <si>
+    <t>76,89%</t>
+  </si>
+  <si>
+    <t>82,79%</t>
+  </si>
+  <si>
+    <t>21,66%</t>
+  </si>
+  <si>
+    <t>17,13%</t>
+  </si>
+  <si>
+    <t>26,78%</t>
+  </si>
+  <si>
+    <t>15,23%</t>
+  </si>
+  <si>
+    <t>10,96%</t>
+  </si>
+  <si>
+    <t>20,15%</t>
+  </si>
+  <si>
+    <t>18,34%</t>
+  </si>
+  <si>
+    <t>15,14%</t>
+  </si>
+  <si>
+    <t>21,81%</t>
+  </si>
+  <si>
+    <t>78,34%</t>
+  </si>
+  <si>
+    <t>73,22%</t>
+  </si>
+  <si>
+    <t>82,87%</t>
+  </si>
+  <si>
+    <t>84,77%</t>
+  </si>
+  <si>
+    <t>79,85%</t>
+  </si>
+  <si>
+    <t>89,04%</t>
+  </si>
+  <si>
+    <t>81,66%</t>
+  </si>
+  <si>
+    <t>78,19%</t>
+  </si>
+  <si>
+    <t>84,86%</t>
+  </si>
+  <si>
+    <t>22,15%</t>
+  </si>
+  <si>
+    <t>17,56%</t>
+  </si>
+  <si>
+    <t>26,91%</t>
+  </si>
+  <si>
+    <t>17,28%</t>
+  </si>
+  <si>
+    <t>13,33%</t>
+  </si>
+  <si>
+    <t>22,39%</t>
+  </si>
+  <si>
+    <t>19,73%</t>
+  </si>
+  <si>
+    <t>16,66%</t>
+  </si>
+  <si>
+    <t>23,37%</t>
+  </si>
+  <si>
+    <t>77,85%</t>
+  </si>
+  <si>
+    <t>73,09%</t>
+  </si>
+  <si>
+    <t>82,44%</t>
+  </si>
+  <si>
+    <t>82,72%</t>
+  </si>
+  <si>
+    <t>77,61%</t>
+  </si>
+  <si>
+    <t>86,67%</t>
+  </si>
+  <si>
+    <t>80,27%</t>
+  </si>
+  <si>
+    <t>76,63%</t>
+  </si>
+  <si>
+    <t>83,34%</t>
   </si>
   <si>
     <t>21,96%</t>
   </si>
   <si>
-    <t>16,12%</t>
-  </si>
-  <si>
-    <t>11,44%</t>
-  </si>
-  <si>
-    <t>23,08%</t>
-  </si>
-  <si>
-    <t>15,95%</t>
-  </si>
-  <si>
-    <t>12,52%</t>
-  </si>
-  <si>
-    <t>20,33%</t>
-  </si>
-  <si>
-    <t>84,2%</t>
+    <t>19,51%</t>
+  </si>
+  <si>
+    <t>24,36%</t>
+  </si>
+  <si>
+    <t>16,8%</t>
+  </si>
+  <si>
+    <t>14,58%</t>
+  </si>
+  <si>
+    <t>19,0%</t>
+  </si>
+  <si>
+    <t>19,31%</t>
+  </si>
+  <si>
+    <t>17,64%</t>
+  </si>
+  <si>
+    <t>21,0%</t>
   </si>
   <si>
     <t>78,04%</t>
   </si>
   <si>
-    <t>88,93%</t>
-  </si>
-  <si>
-    <t>83,88%</t>
-  </si>
-  <si>
-    <t>76,92%</t>
-  </si>
-  <si>
-    <t>88,56%</t>
-  </si>
-  <si>
-    <t>84,05%</t>
-  </si>
-  <si>
-    <t>79,67%</t>
-  </si>
-  <si>
-    <t>87,48%</t>
-  </si>
-  <si>
-    <t>15,84%</t>
-  </si>
-  <si>
-    <t>12,07%</t>
-  </si>
-  <si>
-    <t>19,98%</t>
-  </si>
-  <si>
-    <t>21,67%</t>
-  </si>
-  <si>
-    <t>17,01%</t>
-  </si>
-  <si>
-    <t>26,01%</t>
-  </si>
-  <si>
-    <t>18,65%</t>
-  </si>
-  <si>
-    <t>15,86%</t>
-  </si>
-  <si>
-    <t>21,78%</t>
-  </si>
-  <si>
-    <t>84,16%</t>
-  </si>
-  <si>
-    <t>80,02%</t>
-  </si>
-  <si>
-    <t>87,93%</t>
-  </si>
-  <si>
-    <t>78,33%</t>
-  </si>
-  <si>
-    <t>73,99%</t>
-  </si>
-  <si>
-    <t>82,99%</t>
-  </si>
-  <si>
-    <t>81,35%</t>
-  </si>
-  <si>
-    <t>78,22%</t>
-  </si>
-  <si>
-    <t>84,14%</t>
-  </si>
-  <si>
-    <t>17,92%</t>
-  </si>
-  <si>
-    <t>13,25%</t>
-  </si>
-  <si>
-    <t>23,28%</t>
-  </si>
-  <si>
-    <t>21,9%</t>
-  </si>
-  <si>
-    <t>16,48%</t>
-  </si>
-  <si>
-    <t>27,41%</t>
-  </si>
-  <si>
-    <t>19,84%</t>
-  </si>
-  <si>
-    <t>16,65%</t>
-  </si>
-  <si>
-    <t>23,56%</t>
-  </si>
-  <si>
-    <t>82,08%</t>
-  </si>
-  <si>
-    <t>76,72%</t>
-  </si>
-  <si>
-    <t>86,75%</t>
-  </si>
-  <si>
-    <t>78,1%</t>
-  </si>
-  <si>
-    <t>72,59%</t>
-  </si>
-  <si>
-    <t>83,52%</t>
-  </si>
-  <si>
-    <t>80,16%</t>
-  </si>
-  <si>
-    <t>76,44%</t>
-  </si>
-  <si>
-    <t>83,35%</t>
-  </si>
-  <si>
-    <t>14,86%</t>
-  </si>
-  <si>
-    <t>11,26%</t>
-  </si>
-  <si>
-    <t>19,32%</t>
-  </si>
-  <si>
-    <t>19,28%</t>
-  </si>
-  <si>
-    <t>14,95%</t>
-  </si>
-  <si>
-    <t>24,57%</t>
-  </si>
-  <si>
-    <t>17,1%</t>
-  </si>
-  <si>
-    <t>14,46%</t>
-  </si>
-  <si>
-    <t>20,81%</t>
-  </si>
-  <si>
-    <t>85,14%</t>
-  </si>
-  <si>
-    <t>80,68%</t>
-  </si>
-  <si>
-    <t>88,74%</t>
-  </si>
-  <si>
-    <t>80,72%</t>
-  </si>
-  <si>
-    <t>75,43%</t>
-  </si>
-  <si>
-    <t>85,05%</t>
-  </si>
-  <si>
-    <t>82,9%</t>
-  </si>
-  <si>
-    <t>79,19%</t>
-  </si>
-  <si>
-    <t>85,54%</t>
-  </si>
-  <si>
-    <t>15,94%</t>
-  </si>
-  <si>
-    <t>13,68%</t>
-  </si>
-  <si>
-    <t>18,24%</t>
-  </si>
-  <si>
-    <t>18,05%</t>
-  </si>
-  <si>
-    <t>22,81%</t>
-  </si>
-  <si>
-    <t>18,08%</t>
-  </si>
-  <si>
-    <t>16,26%</t>
-  </si>
-  <si>
-    <t>19,74%</t>
-  </si>
-  <si>
-    <t>84,06%</t>
-  </si>
-  <si>
-    <t>81,76%</t>
-  </si>
-  <si>
-    <t>86,32%</t>
-  </si>
-  <si>
-    <t>77,19%</t>
-  </si>
-  <si>
-    <t>81,95%</t>
-  </si>
-  <si>
-    <t>81,92%</t>
-  </si>
-  <si>
-    <t>80,26%</t>
-  </si>
-  <si>
-    <t>83,74%</t>
-  </si>
-  <si>
-    <t>Menores según si no hacen ejercicio en 2016 (Tasa respuesta: 99,62%)</t>
-  </si>
-  <si>
-    <t>17,85%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>35,95%</t>
-  </si>
-  <si>
-    <t>24,3%</t>
-  </si>
-  <si>
-    <t>9,34%</t>
-  </si>
-  <si>
-    <t>46,27%</t>
-  </si>
-  <si>
-    <t>20,94%</t>
-  </si>
-  <si>
-    <t>11,29%</t>
-  </si>
-  <si>
-    <t>34,26%</t>
-  </si>
-  <si>
-    <t>82,15%</t>
-  </si>
-  <si>
-    <t>64,05%</t>
-  </si>
-  <si>
-    <t>93,26%</t>
-  </si>
-  <si>
-    <t>75,7%</t>
-  </si>
-  <si>
-    <t>53,73%</t>
-  </si>
-  <si>
-    <t>90,66%</t>
-  </si>
-  <si>
-    <t>79,06%</t>
-  </si>
-  <si>
-    <t>65,74%</t>
-  </si>
-  <si>
-    <t>88,71%</t>
-  </si>
-  <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>19,19%</t>
-  </si>
-  <si>
-    <t>23,07%</t>
-  </si>
-  <si>
-    <t>17,38%</t>
-  </si>
-  <si>
-    <t>29,44%</t>
-  </si>
-  <si>
-    <t>17,89%</t>
-  </si>
-  <si>
-    <t>13,95%</t>
-  </si>
-  <si>
-    <t>22,02%</t>
-  </si>
-  <si>
-    <t>86,78%</t>
-  </si>
-  <si>
-    <t>80,81%</t>
-  </si>
-  <si>
-    <t>91,34%</t>
-  </si>
-  <si>
-    <t>76,93%</t>
-  </si>
-  <si>
-    <t>70,56%</t>
-  </si>
-  <si>
-    <t>82,62%</t>
-  </si>
-  <si>
-    <t>82,11%</t>
-  </si>
-  <si>
-    <t>77,98%</t>
-  </si>
-  <si>
-    <t>86,05%</t>
-  </si>
-  <si>
-    <t>19,37%</t>
-  </si>
-  <si>
-    <t>15,47%</t>
-  </si>
-  <si>
-    <t>23,94%</t>
-  </si>
-  <si>
-    <t>21,15%</t>
-  </si>
-  <si>
-    <t>17,28%</t>
-  </si>
-  <si>
-    <t>20,22%</t>
-  </si>
-  <si>
-    <t>17,46%</t>
-  </si>
-  <si>
-    <t>23,35%</t>
-  </si>
-  <si>
-    <t>80,63%</t>
-  </si>
-  <si>
-    <t>76,06%</t>
-  </si>
-  <si>
-    <t>84,53%</t>
-  </si>
-  <si>
-    <t>78,85%</t>
-  </si>
-  <si>
-    <t>82,72%</t>
-  </si>
-  <si>
-    <t>79,78%</t>
-  </si>
-  <si>
-    <t>76,65%</t>
-  </si>
-  <si>
-    <t>82,54%</t>
-  </si>
-  <si>
-    <t>15,23%</t>
-  </si>
-  <si>
-    <t>11,31%</t>
-  </si>
-  <si>
-    <t>21,66%</t>
-  </si>
-  <si>
-    <t>17,33%</t>
-  </si>
-  <si>
-    <t>26,44%</t>
-  </si>
-  <si>
-    <t>18,34%</t>
-  </si>
-  <si>
-    <t>15,21%</t>
+    <t>75,64%</t>
+  </si>
+  <si>
+    <t>80,49%</t>
+  </si>
+  <si>
+    <t>83,2%</t>
+  </si>
+  <si>
+    <t>81,0%</t>
+  </si>
+  <si>
+    <t>85,42%</t>
+  </si>
+  <si>
+    <t>80,69%</t>
+  </si>
+  <si>
+    <t>79,0%</t>
+  </si>
+  <si>
+    <t>82,36%</t>
+  </si>
+  <si>
+    <t>Menores según si no hacen ejercicio en su tiempo libre en 2023 (Tasa respuesta: 99,38%)</t>
+  </si>
+  <si>
+    <t>14,75%</t>
+  </si>
+  <si>
+    <t>10,38%</t>
+  </si>
+  <si>
+    <t>20,32%</t>
+  </si>
+  <si>
+    <t>20,64%</t>
+  </si>
+  <si>
+    <t>12,12%</t>
+  </si>
+  <si>
+    <t>39,08%</t>
+  </si>
+  <si>
+    <t>17,96%</t>
+  </si>
+  <si>
+    <t>13,09%</t>
+  </si>
+  <si>
+    <t>29,39%</t>
+  </si>
+  <si>
+    <t>85,25%</t>
+  </si>
+  <si>
+    <t>79,68%</t>
+  </si>
+  <si>
+    <t>89,62%</t>
+  </si>
+  <si>
+    <t>79,36%</t>
+  </si>
+  <si>
+    <t>60,92%</t>
+  </si>
+  <si>
+    <t>87,88%</t>
+  </si>
+  <si>
+    <t>82,04%</t>
+  </si>
+  <si>
+    <t>70,61%</t>
+  </si>
+  <si>
+    <t>86,91%</t>
+  </si>
+  <si>
+    <t>21,02%</t>
+  </si>
+  <si>
+    <t>15,52%</t>
+  </si>
+  <si>
+    <t>29,87%</t>
+  </si>
+  <si>
+    <t>16,31%</t>
+  </si>
+  <si>
+    <t>12,09%</t>
+  </si>
+  <si>
+    <t>20,71%</t>
+  </si>
+  <si>
+    <t>18,33%</t>
+  </si>
+  <si>
+    <t>15,19%</t>
+  </si>
+  <si>
+    <t>22,51%</t>
+  </si>
+  <si>
+    <t>78,98%</t>
+  </si>
+  <si>
+    <t>70,13%</t>
+  </si>
+  <si>
+    <t>84,48%</t>
+  </si>
+  <si>
+    <t>83,69%</t>
+  </si>
+  <si>
+    <t>79,29%</t>
+  </si>
+  <si>
+    <t>87,91%</t>
+  </si>
+  <si>
+    <t>81,67%</t>
+  </si>
+  <si>
+    <t>77,49%</t>
+  </si>
+  <si>
+    <t>84,81%</t>
+  </si>
+  <si>
+    <t>35,03%</t>
+  </si>
+  <si>
+    <t>21,85%</t>
+  </si>
+  <si>
+    <t>60,2%</t>
+  </si>
+  <si>
+    <t>22,62%</t>
+  </si>
+  <si>
+    <t>17,07%</t>
+  </si>
+  <si>
+    <t>29,3%</t>
+  </si>
+  <si>
+    <t>28,94%</t>
   </si>
   <si>
     <t>21,89%</t>
   </si>
   <si>
-    <t>84,77%</t>
-  </si>
-  <si>
-    <t>88,69%</t>
-  </si>
-  <si>
-    <t>78,34%</t>
-  </si>
-  <si>
-    <t>73,56%</t>
-  </si>
-  <si>
-    <t>82,67%</t>
-  </si>
-  <si>
-    <t>81,66%</t>
+    <t>45,39%</t>
+  </si>
+  <si>
+    <t>64,97%</t>
+  </si>
+  <si>
+    <t>39,8%</t>
+  </si>
+  <si>
+    <t>78,15%</t>
+  </si>
+  <si>
+    <t>77,38%</t>
+  </si>
+  <si>
+    <t>70,7%</t>
+  </si>
+  <si>
+    <t>82,93%</t>
+  </si>
+  <si>
+    <t>71,06%</t>
+  </si>
+  <si>
+    <t>54,61%</t>
   </si>
   <si>
     <t>78,11%</t>
   </si>
   <si>
-    <t>84,79%</t>
-  </si>
-  <si>
-    <t>13,35%</t>
-  </si>
-  <si>
-    <t>21,62%</t>
-  </si>
-  <si>
-    <t>22,15%</t>
-  </si>
-  <si>
-    <t>17,12%</t>
-  </si>
-  <si>
-    <t>27,44%</t>
-  </si>
-  <si>
-    <t>19,73%</t>
-  </si>
-  <si>
-    <t>16,78%</t>
-  </si>
-  <si>
-    <t>78,38%</t>
-  </si>
-  <si>
-    <t>86,65%</t>
-  </si>
-  <si>
-    <t>77,85%</t>
-  </si>
-  <si>
-    <t>72,56%</t>
-  </si>
-  <si>
-    <t>82,88%</t>
-  </si>
-  <si>
-    <t>80,27%</t>
-  </si>
-  <si>
-    <t>83,22%</t>
-  </si>
-  <si>
-    <t>16,8%</t>
-  </si>
-  <si>
-    <t>14,9%</t>
-  </si>
-  <si>
-    <t>19,38%</t>
-  </si>
-  <si>
-    <t>19,48%</t>
-  </si>
-  <si>
-    <t>24,52%</t>
-  </si>
-  <si>
-    <t>19,31%</t>
-  </si>
-  <si>
-    <t>17,67%</t>
-  </si>
-  <si>
-    <t>83,2%</t>
-  </si>
-  <si>
-    <t>80,62%</t>
-  </si>
-  <si>
-    <t>85,1%</t>
-  </si>
-  <si>
-    <t>75,48%</t>
-  </si>
-  <si>
-    <t>80,52%</t>
-  </si>
-  <si>
-    <t>80,69%</t>
-  </si>
-  <si>
-    <t>82,33%</t>
-  </si>
-  <si>
-    <t>Menores según si no hacen ejercicio en 2023 (Tasa respuesta: 99,38%)</t>
-  </si>
-  <si>
-    <t>21,8%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>49,51%</t>
-  </si>
-  <si>
-    <t>22,94%</t>
-  </si>
-  <si>
-    <t>10,34%</t>
-  </si>
-  <si>
-    <t>40,09%</t>
-  </si>
-  <si>
-    <t>13,09%</t>
-  </si>
-  <si>
-    <t>36,62%</t>
-  </si>
-  <si>
-    <t>78,2%</t>
-  </si>
-  <si>
-    <t>50,49%</t>
-  </si>
-  <si>
-    <t>94,48%</t>
-  </si>
-  <si>
-    <t>77,06%</t>
-  </si>
-  <si>
-    <t>59,91%</t>
-  </si>
-  <si>
-    <t>89,66%</t>
-  </si>
-  <si>
-    <t>63,38%</t>
-  </si>
-  <si>
-    <t>86,91%</t>
-  </si>
-  <si>
-    <t>17,52%</t>
-  </si>
-  <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>33,98%</t>
-  </si>
-  <si>
-    <t>12,53%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>17,66%</t>
-  </si>
-  <si>
-    <t>15,15%</t>
-  </si>
-  <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>25,35%</t>
-  </si>
-  <si>
-    <t>82,48%</t>
-  </si>
-  <si>
-    <t>66,02%</t>
-  </si>
-  <si>
-    <t>89,29%</t>
-  </si>
-  <si>
-    <t>87,47%</t>
-  </si>
-  <si>
-    <t>82,34%</t>
-  </si>
-  <si>
-    <t>91,85%</t>
-  </si>
-  <si>
-    <t>84,85%</t>
-  </si>
-  <si>
-    <t>74,65%</t>
-  </si>
-  <si>
-    <t>89,22%</t>
-  </si>
-  <si>
-    <t>15,28%</t>
-  </si>
-  <si>
-    <t>11,77%</t>
-  </si>
-  <si>
-    <t>19,58%</t>
-  </si>
-  <si>
-    <t>18,37%</t>
-  </si>
-  <si>
-    <t>13,96%</t>
-  </si>
-  <si>
-    <t>24,53%</t>
-  </si>
-  <si>
-    <t>16,62%</t>
-  </si>
-  <si>
-    <t>13,84%</t>
-  </si>
-  <si>
-    <t>19,85%</t>
-  </si>
-  <si>
-    <t>84,72%</t>
-  </si>
-  <si>
-    <t>80,42%</t>
-  </si>
-  <si>
-    <t>88,23%</t>
-  </si>
-  <si>
-    <t>81,63%</t>
-  </si>
-  <si>
-    <t>75,47%</t>
-  </si>
-  <si>
-    <t>86,04%</t>
-  </si>
-  <si>
-    <t>83,38%</t>
-  </si>
-  <si>
-    <t>80,15%</t>
-  </si>
-  <si>
-    <t>86,16%</t>
-  </si>
-  <si>
-    <t>21,08%</t>
-  </si>
-  <si>
-    <t>15,9%</t>
-  </si>
-  <si>
-    <t>27,3%</t>
-  </si>
-  <si>
-    <t>26,28%</t>
-  </si>
-  <si>
-    <t>39,5%</t>
-  </si>
-  <si>
-    <t>23,66%</t>
-  </si>
-  <si>
-    <t>19,16%</t>
-  </si>
-  <si>
-    <t>30,64%</t>
-  </si>
-  <si>
-    <t>78,92%</t>
-  </si>
-  <si>
-    <t>72,7%</t>
-  </si>
-  <si>
-    <t>84,1%</t>
-  </si>
-  <si>
-    <t>73,72%</t>
-  </si>
-  <si>
-    <t>60,5%</t>
-  </si>
-  <si>
-    <t>76,34%</t>
-  </si>
-  <si>
-    <t>69,36%</t>
-  </si>
-  <si>
-    <t>80,84%</t>
-  </si>
-  <si>
-    <t>12,76%</t>
-  </si>
-  <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>17,37%</t>
-  </si>
-  <si>
-    <t>18,16%</t>
-  </si>
-  <si>
-    <t>13,78%</t>
-  </si>
-  <si>
-    <t>23,81%</t>
-  </si>
-  <si>
-    <t>15,43%</t>
-  </si>
-  <si>
-    <t>12,41%</t>
-  </si>
-  <si>
-    <t>18,82%</t>
-  </si>
-  <si>
-    <t>87,24%</t>
-  </si>
-  <si>
-    <t>82,63%</t>
-  </si>
-  <si>
-    <t>90,93%</t>
-  </si>
-  <si>
-    <t>81,84%</t>
-  </si>
-  <si>
-    <t>76,19%</t>
-  </si>
-  <si>
-    <t>86,22%</t>
-  </si>
-  <si>
-    <t>84,57%</t>
-  </si>
-  <si>
-    <t>81,18%</t>
-  </si>
-  <si>
-    <t>87,59%</t>
-  </si>
-  <si>
-    <t>16,51%</t>
-  </si>
-  <si>
-    <t>14,01%</t>
-  </si>
-  <si>
-    <t>19,54%</t>
-  </si>
-  <si>
-    <t>16,89%</t>
-  </si>
-  <si>
-    <t>23,68%</t>
-  </si>
-  <si>
-    <t>17,95%</t>
-  </si>
-  <si>
-    <t>16,0%</t>
-  </si>
-  <si>
-    <t>20,56%</t>
-  </si>
-  <si>
-    <t>83,49%</t>
-  </si>
-  <si>
-    <t>85,99%</t>
-  </si>
-  <si>
-    <t>80,46%</t>
-  </si>
-  <si>
-    <t>76,32%</t>
-  </si>
-  <si>
-    <t>83,11%</t>
-  </si>
-  <si>
-    <t>82,05%</t>
-  </si>
-  <si>
-    <t>79,44%</t>
-  </si>
-  <si>
-    <t>84,0%</t>
+    <t>18,99%</t>
+  </si>
+  <si>
+    <t>13,97%</t>
+  </si>
+  <si>
+    <t>13,18%</t>
+  </si>
+  <si>
+    <t>9,43%</t>
+  </si>
+  <si>
+    <t>18,02%</t>
+  </si>
+  <si>
+    <t>15,96%</t>
+  </si>
+  <si>
+    <t>12,87%</t>
+  </si>
+  <si>
+    <t>19,61%</t>
+  </si>
+  <si>
+    <t>81,01%</t>
+  </si>
+  <si>
+    <t>86,03%</t>
+  </si>
+  <si>
+    <t>86,82%</t>
+  </si>
+  <si>
+    <t>81,98%</t>
+  </si>
+  <si>
+    <t>90,57%</t>
+  </si>
+  <si>
+    <t>84,04%</t>
+  </si>
+  <si>
+    <t>80,39%</t>
+  </si>
+  <si>
+    <t>87,13%</t>
+  </si>
+  <si>
+    <t>19,13%</t>
+  </si>
+  <si>
+    <t>35,05%</t>
+  </si>
+  <si>
+    <t>17,88%</t>
+  </si>
+  <si>
+    <t>15,33%</t>
+  </si>
+  <si>
+    <t>20,46%</t>
+  </si>
+  <si>
+    <t>17,87%</t>
+  </si>
+  <si>
+    <t>25,8%</t>
+  </si>
+  <si>
+    <t>64,95%</t>
+  </si>
+  <si>
+    <t>80,87%</t>
+  </si>
+  <si>
+    <t>82,12%</t>
+  </si>
+  <si>
+    <t>84,67%</t>
+  </si>
+  <si>
+    <t>79,54%</t>
+  </si>
+  <si>
+    <t>74,2%</t>
+  </si>
+  <si>
+    <t>82,13%</t>
   </si>
 </sst>
 </file>
@@ -1743,8 +1560,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF97ADBD-74B8-406A-83AA-1993873D0E21}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8B261FE-F17E-4390-BD38-70609DBA9D30}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1861,10 +1678,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>8</v>
+        <v>52</v>
       </c>
       <c r="D4" s="7">
-        <v>6458</v>
+        <v>34556</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1876,10 +1693,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>1</v>
+        <v>51</v>
       </c>
       <c r="I4" s="7">
-        <v>714</v>
+        <v>35312</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1891,10 +1708,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>9</v>
+        <v>103</v>
       </c>
       <c r="N4" s="7">
-        <v>7172</v>
+        <v>69869</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1912,10 +1729,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>25</v>
+        <v>149</v>
       </c>
       <c r="D5" s="7">
-        <v>18986</v>
+        <v>102716</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1927,10 +1744,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>28</v>
+        <v>175</v>
       </c>
       <c r="I5" s="7">
-        <v>22010</v>
+        <v>117765</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1942,10 +1759,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>53</v>
+        <v>324</v>
       </c>
       <c r="N5" s="7">
-        <v>40996</v>
+        <v>220480</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1963,10 +1780,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>33</v>
+        <v>201</v>
       </c>
       <c r="D6" s="7">
-        <v>25444</v>
+        <v>137272</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -1978,10 +1795,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>29</v>
+        <v>226</v>
       </c>
       <c r="I6" s="7">
-        <v>22724</v>
+        <v>153077</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1993,10 +1810,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>62</v>
+        <v>427</v>
       </c>
       <c r="N6" s="7">
-        <v>48168</v>
+        <v>290349</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -2016,10 +1833,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>43</v>
+        <v>86</v>
       </c>
       <c r="D7" s="7">
-        <v>28855</v>
+        <v>54188</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -2031,10 +1848,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>51</v>
+        <v>75</v>
       </c>
       <c r="I7" s="7">
-        <v>33842</v>
+        <v>49692</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -2046,10 +1863,10 @@
         <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>94</v>
+        <v>161</v>
       </c>
       <c r="N7" s="7">
-        <v>62697</v>
+        <v>103880</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -2067,10 +1884,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>150</v>
+        <v>226</v>
       </c>
       <c r="D8" s="7">
-        <v>98778</v>
+        <v>140975</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -2082,10 +1899,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>121</v>
+        <v>247</v>
       </c>
       <c r="I8" s="7">
-        <v>80706</v>
+        <v>162450</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -2097,10 +1914,10 @@
         <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>271</v>
+        <v>473</v>
       </c>
       <c r="N8" s="7">
-        <v>179484</v>
+        <v>303425</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -2118,10 +1935,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>193</v>
+        <v>312</v>
       </c>
       <c r="D9" s="7">
-        <v>127633</v>
+        <v>195163</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -2133,10 +1950,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>172</v>
+        <v>322</v>
       </c>
       <c r="I9" s="7">
-        <v>114548</v>
+        <v>212142</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -2148,10 +1965,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>365</v>
+        <v>634</v>
       </c>
       <c r="N9" s="7">
-        <v>242181</v>
+        <v>407305</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -2171,10 +1988,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>75</v>
+        <v>53</v>
       </c>
       <c r="D10" s="7">
-        <v>49692</v>
+        <v>31129</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -2186,10 +2003,10 @@
         <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>86</v>
+        <v>45</v>
       </c>
       <c r="I10" s="7">
-        <v>54188</v>
+        <v>29577</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -2201,10 +2018,10 @@
         <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>161</v>
+        <v>98</v>
       </c>
       <c r="N10" s="7">
-        <v>103880</v>
+        <v>60706</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -2222,10 +2039,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>247</v>
+        <v>175</v>
       </c>
       <c r="D11" s="7">
-        <v>162450</v>
+        <v>106056</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -2237,10 +2054,10 @@
         <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>226</v>
+        <v>187</v>
       </c>
       <c r="I11" s="7">
-        <v>140975</v>
+        <v>120080</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -2252,10 +2069,10 @@
         <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>473</v>
+        <v>362</v>
       </c>
       <c r="N11" s="7">
-        <v>303425</v>
+        <v>226136</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -2273,10 +2090,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>322</v>
+        <v>228</v>
       </c>
       <c r="D12" s="7">
-        <v>212142</v>
+        <v>137185</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -2288,10 +2105,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>312</v>
+        <v>232</v>
       </c>
       <c r="I12" s="7">
-        <v>195163</v>
+        <v>149657</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -2303,10 +2120,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>634</v>
+        <v>460</v>
       </c>
       <c r="N12" s="7">
-        <v>407305</v>
+        <v>286842</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -2326,49 +2143,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>45</v>
+        <v>69</v>
       </c>
       <c r="D13" s="7">
-        <v>29577</v>
+        <v>51857</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>70</v>
       </c>
       <c r="F13" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="H13" s="7">
+        <v>82</v>
+      </c>
+      <c r="I13" s="7">
+        <v>54292</v>
+      </c>
+      <c r="J13" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="H13" s="7">
-        <v>53</v>
-      </c>
-      <c r="I13" s="7">
-        <v>31129</v>
-      </c>
-      <c r="J13" s="7" t="s">
+      <c r="K13" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="L13" s="7" t="s">
+      <c r="M13" s="7">
+        <v>151</v>
+      </c>
+      <c r="N13" s="7">
+        <v>106149</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="M13" s="7">
-        <v>98</v>
-      </c>
-      <c r="N13" s="7">
-        <v>60706</v>
-      </c>
-      <c r="O13" s="7" t="s">
+      <c r="P13" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2377,49 +2194,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>187</v>
+        <v>205</v>
       </c>
       <c r="D14" s="7">
-        <v>120080</v>
+        <v>157458</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="H14" s="7">
+        <v>222</v>
+      </c>
+      <c r="I14" s="7">
+        <v>152180</v>
+      </c>
+      <c r="J14" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="K14" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="H14" s="7">
-        <v>175</v>
-      </c>
-      <c r="I14" s="7">
-        <v>106056</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="M14" s="7">
+        <v>427</v>
+      </c>
+      <c r="N14" s="7">
+        <v>309638</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="L14" s="7" t="s">
+      <c r="P14" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="M14" s="7">
-        <v>362</v>
-      </c>
-      <c r="N14" s="7">
-        <v>226136</v>
-      </c>
-      <c r="O14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2428,10 +2245,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>232</v>
+        <v>274</v>
       </c>
       <c r="D15" s="7">
-        <v>149657</v>
+        <v>209315</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -2443,10 +2260,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>228</v>
+        <v>304</v>
       </c>
       <c r="I15" s="7">
-        <v>137185</v>
+        <v>206472</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -2458,10 +2275,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>460</v>
+        <v>578</v>
       </c>
       <c r="N15" s="7">
-        <v>286842</v>
+        <v>415787</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -2475,55 +2292,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>82</v>
+        <v>260</v>
       </c>
       <c r="D16" s="7">
-        <v>54292</v>
+        <v>171730</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="H16" s="7">
+        <v>253</v>
+      </c>
+      <c r="I16" s="7">
+        <v>168873</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="H16" s="7">
-        <v>69</v>
-      </c>
-      <c r="I16" s="7">
-        <v>51857</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="K16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>513</v>
+      </c>
+      <c r="N16" s="7">
+        <v>340603</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="L16" s="7" t="s">
+      <c r="P16" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="M16" s="7">
-        <v>151</v>
-      </c>
-      <c r="N16" s="7">
-        <v>106149</v>
-      </c>
-      <c r="O16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2532,49 +2349,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>222</v>
+        <v>755</v>
       </c>
       <c r="D17" s="7">
-        <v>152180</v>
+        <v>507205</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="H17" s="7">
+        <v>831</v>
+      </c>
+      <c r="I17" s="7">
+        <v>552475</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="H17" s="7">
-        <v>205</v>
-      </c>
-      <c r="I17" s="7">
-        <v>157458</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="L17" s="7" t="s">
+      <c r="M17" s="7">
+        <v>1586</v>
+      </c>
+      <c r="N17" s="7">
+        <v>1059680</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="M17" s="7">
-        <v>427</v>
-      </c>
-      <c r="N17" s="7">
-        <v>309638</v>
-      </c>
-      <c r="O17" s="7" t="s">
+      <c r="P17" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2583,10 +2400,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>304</v>
+        <v>1015</v>
       </c>
       <c r="D18" s="7">
-        <v>206472</v>
+        <v>678935</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -2598,10 +2415,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>274</v>
+        <v>1084</v>
       </c>
       <c r="I18" s="7">
-        <v>209315</v>
+        <v>721348</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -2613,10 +2430,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>578</v>
+        <v>2099</v>
       </c>
       <c r="N18" s="7">
-        <v>415787</v>
+        <v>1400283</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -2629,171 +2446,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>253</v>
-      </c>
-      <c r="D19" s="7">
-        <v>168873</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="H19" s="7">
-        <v>260</v>
-      </c>
-      <c r="I19" s="7">
-        <v>171730</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="M19" s="7">
-        <v>513</v>
-      </c>
-      <c r="N19" s="7">
-        <v>340603</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>831</v>
-      </c>
-      <c r="D20" s="7">
-        <v>552475</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="H20" s="7">
-        <v>755</v>
-      </c>
-      <c r="I20" s="7">
-        <v>507205</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="M20" s="7">
-        <v>1586</v>
-      </c>
-      <c r="N20" s="7">
-        <v>1059680</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>1084</v>
-      </c>
-      <c r="D21" s="7">
-        <v>721348</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>1015</v>
-      </c>
-      <c r="I21" s="7">
-        <v>678935</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>2099</v>
-      </c>
-      <c r="N21" s="7">
-        <v>1400283</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>123</v>
+      <c r="A19" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2806,8 +2467,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38177E22-7795-4B01-9EB3-88125A2DB730}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A13A467-CB49-4219-B2B2-A924EC66CB57}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2823,7 +2484,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>124</v>
+        <v>105</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2924,49 +2585,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="D4" s="7">
-        <v>3209</v>
+        <v>24981</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>125</v>
+        <v>106</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>126</v>
+        <v>107</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
       <c r="H4" s="7">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="I4" s="7">
-        <v>6398</v>
+        <v>23391</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>128</v>
+        <v>109</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>129</v>
+        <v>110</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="M4" s="7">
-        <v>11</v>
+        <v>67</v>
       </c>
       <c r="N4" s="7">
-        <v>9607</v>
+        <v>48372</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>131</v>
+        <v>112</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>132</v>
+        <v>113</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>133</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2975,49 +2636,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>23</v>
+        <v>153</v>
       </c>
       <c r="D5" s="7">
-        <v>21264</v>
+        <v>112705</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>134</v>
+        <v>115</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>135</v>
+        <v>116</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>136</v>
+        <v>117</v>
       </c>
       <c r="H5" s="7">
-        <v>19</v>
+        <v>175</v>
       </c>
       <c r="I5" s="7">
-        <v>15975</v>
+        <v>128794</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>137</v>
+        <v>118</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>138</v>
+        <v>119</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>139</v>
+        <v>120</v>
       </c>
       <c r="M5" s="7">
-        <v>42</v>
+        <v>328</v>
       </c>
       <c r="N5" s="7">
-        <v>37239</v>
+        <v>241498</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>140</v>
+        <v>121</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>141</v>
+        <v>122</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>142</v>
+        <v>123</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3026,10 +2687,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>27</v>
+        <v>187</v>
       </c>
       <c r="D6" s="7">
-        <v>24473</v>
+        <v>137686</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -3041,10 +2702,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>26</v>
+        <v>208</v>
       </c>
       <c r="I6" s="7">
-        <v>22373</v>
+        <v>152185</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -3056,10 +2717,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>53</v>
+        <v>395</v>
       </c>
       <c r="N6" s="7">
-        <v>46846</v>
+        <v>289870</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -3079,49 +2740,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>29</v>
+        <v>71</v>
       </c>
       <c r="D7" s="7">
-        <v>20181</v>
+        <v>44578</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>144</v>
+        <v>125</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>145</v>
+        <v>126</v>
       </c>
       <c r="H7" s="7">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="I7" s="7">
-        <v>18583</v>
+        <v>35153</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>146</v>
+        <v>127</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>147</v>
+        <v>128</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>148</v>
+        <v>129</v>
       </c>
       <c r="M7" s="7">
-        <v>56</v>
+        <v>121</v>
       </c>
       <c r="N7" s="7">
-        <v>38765</v>
+        <v>79731</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>149</v>
+        <v>130</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>150</v>
+        <v>131</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>151</v>
+        <v>132</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3130,49 +2791,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>152</v>
+        <v>247</v>
       </c>
       <c r="D8" s="7">
-        <v>107530</v>
+        <v>161143</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>152</v>
+        <v>133</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>153</v>
+        <v>134</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>154</v>
+        <v>135</v>
       </c>
       <c r="H8" s="7">
-        <v>134</v>
+        <v>271</v>
       </c>
       <c r="I8" s="7">
-        <v>96730</v>
+        <v>186720</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>155</v>
+        <v>136</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>156</v>
+        <v>137</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>157</v>
+        <v>138</v>
       </c>
       <c r="M8" s="7">
-        <v>286</v>
+        <v>518</v>
       </c>
       <c r="N8" s="7">
-        <v>204259</v>
+        <v>347863</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>158</v>
+        <v>139</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>159</v>
+        <v>140</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>160</v>
+        <v>141</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3181,10 +2842,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>181</v>
+        <v>318</v>
       </c>
       <c r="D9" s="7">
-        <v>127711</v>
+        <v>205721</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -3196,10 +2857,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>161</v>
+        <v>321</v>
       </c>
       <c r="I9" s="7">
-        <v>115313</v>
+        <v>221873</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3211,10 +2872,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>342</v>
+        <v>639</v>
       </c>
       <c r="N9" s="7">
-        <v>243024</v>
+        <v>427594</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -3234,49 +2895,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D10" s="7">
-        <v>35153</v>
+        <v>33802</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>161</v>
+        <v>142</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>162</v>
+        <v>143</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>163</v>
+        <v>144</v>
       </c>
       <c r="H10" s="7">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="I10" s="7">
-        <v>44578</v>
+        <v>29737</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>164</v>
+        <v>145</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>165</v>
+        <v>146</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>166</v>
+        <v>147</v>
       </c>
       <c r="M10" s="7">
-        <v>121</v>
+        <v>94</v>
       </c>
       <c r="N10" s="7">
-        <v>79731</v>
+        <v>63539</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>167</v>
+        <v>148</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>168</v>
+        <v>149</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>169</v>
+        <v>150</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3285,49 +2946,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>271</v>
+        <v>188</v>
       </c>
       <c r="D11" s="7">
-        <v>186720</v>
+        <v>120550</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>170</v>
+        <v>151</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>171</v>
+        <v>152</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>172</v>
+        <v>153</v>
       </c>
       <c r="H11" s="7">
-        <v>247</v>
+        <v>213</v>
       </c>
       <c r="I11" s="7">
-        <v>161143</v>
+        <v>136227</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>173</v>
+        <v>154</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>174</v>
+        <v>155</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>175</v>
+        <v>156</v>
       </c>
       <c r="M11" s="7">
-        <v>518</v>
+        <v>401</v>
       </c>
       <c r="N11" s="7">
-        <v>347863</v>
+        <v>256777</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>176</v>
+        <v>157</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>177</v>
+        <v>158</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>178</v>
+        <v>159</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3336,10 +2997,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>321</v>
+        <v>240</v>
       </c>
       <c r="D12" s="7">
-        <v>221873</v>
+        <v>154352</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -3351,10 +3012,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>318</v>
+        <v>255</v>
       </c>
       <c r="I12" s="7">
-        <v>205721</v>
+        <v>165964</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -3366,10 +3027,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>639</v>
+        <v>495</v>
       </c>
       <c r="N12" s="7">
-        <v>427594</v>
+        <v>320316</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -3389,49 +3050,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="D13" s="7">
-        <v>29737</v>
+        <v>40090</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>179</v>
+        <v>160</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>180</v>
+        <v>161</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>181</v>
+        <v>162</v>
       </c>
       <c r="H13" s="7">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="I13" s="7">
-        <v>33802</v>
+        <v>30165</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>182</v>
+        <v>163</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>183</v>
+        <v>164</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>184</v>
+        <v>165</v>
       </c>
       <c r="M13" s="7">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="N13" s="7">
-        <v>63539</v>
+        <v>70255</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>185</v>
+        <v>166</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>187</v>
+        <v>168</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3440,49 +3101,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="D14" s="7">
-        <v>136227</v>
+        <v>167889</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>188</v>
+        <v>169</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>189</v>
+        <v>170</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>190</v>
+        <v>171</v>
       </c>
       <c r="H14" s="7">
-        <v>188</v>
+        <v>233</v>
       </c>
       <c r="I14" s="7">
-        <v>120550</v>
+        <v>172769</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>191</v>
+        <v>172</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>192</v>
+        <v>173</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>193</v>
+        <v>174</v>
       </c>
       <c r="M14" s="7">
-        <v>401</v>
+        <v>451</v>
       </c>
       <c r="N14" s="7">
-        <v>256777</v>
+        <v>340659</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>194</v>
+        <v>175</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>195</v>
+        <v>176</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>196</v>
+        <v>177</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3491,10 +3152,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>255</v>
+        <v>272</v>
       </c>
       <c r="D15" s="7">
-        <v>165964</v>
+        <v>207979</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -3506,10 +3167,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>240</v>
+        <v>276</v>
       </c>
       <c r="I15" s="7">
-        <v>154352</v>
+        <v>202934</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -3521,10 +3182,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>495</v>
+        <v>548</v>
       </c>
       <c r="N15" s="7">
-        <v>320316</v>
+        <v>410914</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -3538,55 +3199,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>43</v>
+        <v>211</v>
       </c>
       <c r="D16" s="7">
-        <v>30165</v>
+        <v>143451</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>197</v>
+        <v>178</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>198</v>
+        <v>179</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>199</v>
+        <v>180</v>
       </c>
       <c r="H16" s="7">
-        <v>54</v>
+        <v>168</v>
       </c>
       <c r="I16" s="7">
-        <v>40090</v>
+        <v>118446</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>200</v>
+        <v>181</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>201</v>
+        <v>182</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>202</v>
+        <v>183</v>
       </c>
       <c r="M16" s="7">
-        <v>97</v>
+        <v>379</v>
       </c>
       <c r="N16" s="7">
-        <v>70255</v>
+        <v>261896</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>203</v>
+        <v>179</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>204</v>
+        <v>184</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>205</v>
+        <v>185</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3595,49 +3256,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>233</v>
+        <v>806</v>
       </c>
       <c r="D17" s="7">
-        <v>172769</v>
+        <v>562287</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>206</v>
+        <v>186</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>207</v>
+        <v>187</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>208</v>
+        <v>188</v>
       </c>
       <c r="H17" s="7">
-        <v>218</v>
+        <v>892</v>
       </c>
       <c r="I17" s="7">
-        <v>167889</v>
+        <v>624510</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>209</v>
+        <v>189</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>210</v>
+        <v>190</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>211</v>
+        <v>191</v>
       </c>
       <c r="M17" s="7">
-        <v>451</v>
+        <v>1698</v>
       </c>
       <c r="N17" s="7">
-        <v>340659</v>
+        <v>1186798</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>212</v>
+        <v>188</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>213</v>
+        <v>192</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>214</v>
+        <v>193</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3646,10 +3307,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>276</v>
+        <v>1017</v>
       </c>
       <c r="D18" s="7">
-        <v>202934</v>
+        <v>705738</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -3661,10 +3322,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>272</v>
+        <v>1060</v>
       </c>
       <c r="I18" s="7">
-        <v>207979</v>
+        <v>742956</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -3676,10 +3337,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>548</v>
+        <v>2077</v>
       </c>
       <c r="N18" s="7">
-        <v>410914</v>
+        <v>1448694</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -3692,171 +3353,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>168</v>
-      </c>
-      <c r="D19" s="7">
-        <v>118446</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="H19" s="7">
-        <v>211</v>
-      </c>
-      <c r="I19" s="7">
-        <v>143451</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="M19" s="7">
-        <v>379</v>
-      </c>
-      <c r="N19" s="7">
-        <v>261896</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>892</v>
-      </c>
-      <c r="D20" s="7">
-        <v>624510</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="H20" s="7">
-        <v>806</v>
-      </c>
-      <c r="I20" s="7">
-        <v>562287</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="M20" s="7">
-        <v>1698</v>
-      </c>
-      <c r="N20" s="7">
-        <v>1186798</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>1060</v>
-      </c>
-      <c r="D21" s="7">
-        <v>742956</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>1017</v>
-      </c>
-      <c r="I21" s="7">
-        <v>705738</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>2077</v>
-      </c>
-      <c r="N21" s="7">
-        <v>1448694</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>123</v>
+      <c r="A19" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3869,8 +3374,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58B8B6D2-3D74-4995-9E32-30F530A8157F}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11FF0B08-395F-4A78-86F1-94D9B1224D0C}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3886,7 +3391,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>231</v>
+        <v>194</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3987,49 +3492,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>5</v>
+        <v>44</v>
       </c>
       <c r="D4" s="7">
-        <v>4378</v>
+        <v>30965</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>232</v>
+        <v>195</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>233</v>
+        <v>196</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>234</v>
+        <v>197</v>
       </c>
       <c r="H4" s="7">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="I4" s="7">
-        <v>5475</v>
+        <v>20576</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>235</v>
+        <v>198</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>236</v>
+        <v>199</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>237</v>
+        <v>200</v>
       </c>
       <c r="M4" s="7">
-        <v>11</v>
+        <v>72</v>
       </c>
       <c r="N4" s="7">
-        <v>9853</v>
+        <v>51541</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>238</v>
+        <v>201</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>239</v>
+        <v>202</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>240</v>
+        <v>203</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4038,49 +3543,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>24</v>
+        <v>142</v>
       </c>
       <c r="D5" s="7">
-        <v>20149</v>
+        <v>102055</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>241</v>
+        <v>204</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>242</v>
+        <v>205</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>243</v>
+        <v>206</v>
       </c>
       <c r="H5" s="7">
-        <v>18</v>
+        <v>166</v>
       </c>
       <c r="I5" s="7">
-        <v>17052</v>
+        <v>126453</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>244</v>
+        <v>207</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>245</v>
+        <v>208</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>246</v>
+        <v>209</v>
       </c>
       <c r="M5" s="7">
-        <v>42</v>
+        <v>308</v>
       </c>
       <c r="N5" s="7">
-        <v>37201</v>
+        <v>228508</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>247</v>
+        <v>210</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>248</v>
+        <v>211</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>249</v>
+        <v>212</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4089,10 +3594,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>29</v>
+        <v>186</v>
       </c>
       <c r="D6" s="7">
-        <v>24527</v>
+        <v>133020</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -4104,10 +3609,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>24</v>
+        <v>194</v>
       </c>
       <c r="I6" s="7">
-        <v>22527</v>
+        <v>147029</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -4119,10 +3624,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>53</v>
+        <v>380</v>
       </c>
       <c r="N6" s="7">
-        <v>47054</v>
+        <v>280049</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -4142,49 +3647,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>23</v>
+        <v>72</v>
       </c>
       <c r="D7" s="7">
-        <v>16198</v>
+        <v>43826</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>250</v>
+        <v>213</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>251</v>
+        <v>214</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>252</v>
+        <v>215</v>
       </c>
       <c r="H7" s="7">
-        <v>38</v>
+        <v>66</v>
       </c>
       <c r="I7" s="7">
-        <v>25490</v>
+        <v>43336</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>253</v>
+        <v>216</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>254</v>
+        <v>217</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>255</v>
+        <v>218</v>
       </c>
       <c r="M7" s="7">
-        <v>61</v>
+        <v>138</v>
       </c>
       <c r="N7" s="7">
-        <v>41688</v>
+        <v>87161</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>256</v>
+        <v>219</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>257</v>
+        <v>220</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>258</v>
+        <v>221</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4193,49 +3698,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>142</v>
+        <v>262</v>
       </c>
       <c r="D8" s="7">
-        <v>106304</v>
+        <v>163421</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>259</v>
+        <v>222</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>260</v>
+        <v>223</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>261</v>
+        <v>224</v>
       </c>
       <c r="H8" s="7">
-        <v>124</v>
+        <v>265</v>
       </c>
       <c r="I8" s="7">
-        <v>85003</v>
+        <v>180416</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>262</v>
+        <v>225</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>263</v>
+        <v>226</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>264</v>
+        <v>227</v>
       </c>
       <c r="M8" s="7">
-        <v>266</v>
+        <v>527</v>
       </c>
       <c r="N8" s="7">
-        <v>191307</v>
+        <v>343838</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>265</v>
+        <v>228</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>266</v>
+        <v>229</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>267</v>
+        <v>230</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4244,10 +3749,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>165</v>
+        <v>334</v>
       </c>
       <c r="D9" s="7">
-        <v>122502</v>
+        <v>207247</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -4259,10 +3764,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>162</v>
+        <v>331</v>
       </c>
       <c r="I9" s="7">
-        <v>110493</v>
+        <v>223752</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -4274,10 +3779,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>327</v>
+        <v>665</v>
       </c>
       <c r="N9" s="7">
-        <v>232995</v>
+        <v>430999</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -4297,49 +3802,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="D10" s="7">
-        <v>43336</v>
+        <v>33783</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>268</v>
+        <v>231</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>269</v>
+        <v>232</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>270</v>
+        <v>233</v>
       </c>
       <c r="H10" s="7">
-        <v>72</v>
+        <v>39</v>
       </c>
       <c r="I10" s="7">
-        <v>43826</v>
+        <v>25272</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>271</v>
+        <v>234</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>272</v>
+        <v>235</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>166</v>
+        <v>236</v>
       </c>
       <c r="M10" s="7">
-        <v>138</v>
+        <v>97</v>
       </c>
       <c r="N10" s="7">
-        <v>87161</v>
+        <v>59056</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>273</v>
+        <v>237</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>274</v>
+        <v>238</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>275</v>
+        <v>239</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4348,49 +3853,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>265</v>
+        <v>201</v>
       </c>
       <c r="D11" s="7">
-        <v>180416</v>
+        <v>122214</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>276</v>
+        <v>240</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>277</v>
+        <v>241</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>278</v>
+        <v>242</v>
       </c>
       <c r="H11" s="7">
-        <v>262</v>
+        <v>208</v>
       </c>
       <c r="I11" s="7">
-        <v>163421</v>
+        <v>140701</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>279</v>
+        <v>243</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>174</v>
+        <v>244</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>280</v>
+        <v>245</v>
       </c>
       <c r="M11" s="7">
-        <v>527</v>
+        <v>409</v>
       </c>
       <c r="N11" s="7">
-        <v>343838</v>
+        <v>262914</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>281</v>
+        <v>246</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>282</v>
+        <v>247</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>283</v>
+        <v>248</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4399,10 +3904,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>331</v>
+        <v>259</v>
       </c>
       <c r="D12" s="7">
-        <v>223752</v>
+        <v>155997</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -4414,10 +3919,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>334</v>
+        <v>247</v>
       </c>
       <c r="I12" s="7">
-        <v>207247</v>
+        <v>165973</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -4429,10 +3934,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>665</v>
+        <v>506</v>
       </c>
       <c r="N12" s="7">
-        <v>430999</v>
+        <v>321970</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -4452,49 +3957,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>39</v>
+        <v>63</v>
       </c>
       <c r="D13" s="7">
-        <v>25272</v>
+        <v>45792</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>284</v>
+        <v>249</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>285</v>
+        <v>250</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>131</v>
+        <v>251</v>
       </c>
       <c r="H13" s="7">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="I13" s="7">
-        <v>33783</v>
+        <v>35220</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>286</v>
+        <v>252</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>287</v>
+        <v>253</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>288</v>
+        <v>254</v>
       </c>
       <c r="M13" s="7">
-        <v>97</v>
+        <v>114</v>
       </c>
       <c r="N13" s="7">
-        <v>59056</v>
+        <v>81012</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>289</v>
+        <v>255</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>290</v>
+        <v>256</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>291</v>
+        <v>257</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4503,49 +4008,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="D14" s="7">
-        <v>140701</v>
+        <v>160958</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>292</v>
+        <v>258</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>140</v>
+        <v>259</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>293</v>
+        <v>260</v>
       </c>
       <c r="H14" s="7">
-        <v>201</v>
+        <v>236</v>
       </c>
       <c r="I14" s="7">
-        <v>122214</v>
+        <v>168579</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>294</v>
+        <v>261</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>295</v>
+        <v>262</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>296</v>
+        <v>263</v>
       </c>
       <c r="M14" s="7">
-        <v>409</v>
+        <v>453</v>
       </c>
       <c r="N14" s="7">
-        <v>262914</v>
+        <v>329537</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>297</v>
+        <v>264</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>298</v>
+        <v>265</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>299</v>
+        <v>266</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4554,10 +4059,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>247</v>
+        <v>280</v>
       </c>
       <c r="D15" s="7">
-        <v>165973</v>
+        <v>206750</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4569,10 +4074,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>259</v>
+        <v>287</v>
       </c>
       <c r="I15" s="7">
-        <v>155997</v>
+        <v>203799</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4584,10 +4089,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>506</v>
+        <v>567</v>
       </c>
       <c r="N15" s="7">
-        <v>321970</v>
+        <v>410549</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -4601,55 +4106,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>51</v>
+        <v>237</v>
       </c>
       <c r="D16" s="7">
-        <v>35220</v>
+        <v>154366</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="H16" s="7">
+        <v>184</v>
+      </c>
+      <c r="I16" s="7">
+        <v>124404</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>272</v>
       </c>
-      <c r="F16" s="7" t="s">
-        <v>300</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="H16" s="7">
-        <v>63</v>
-      </c>
-      <c r="I16" s="7">
-        <v>45792</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>302</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>303</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>304</v>
-      </c>
       <c r="M16" s="7">
-        <v>114</v>
+        <v>421</v>
       </c>
       <c r="N16" s="7">
-        <v>81012</v>
+        <v>278770</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>305</v>
+        <v>273</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>306</v>
+        <v>274</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>51</v>
+        <v>275</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4658,49 +4163,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>236</v>
+        <v>822</v>
       </c>
       <c r="D17" s="7">
-        <v>168579</v>
+        <v>548648</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="H17" s="7">
+        <v>875</v>
+      </c>
+      <c r="I17" s="7">
+        <v>616149</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>280</v>
       </c>
-      <c r="F17" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="H17" s="7">
-        <v>217</v>
-      </c>
-      <c r="I17" s="7">
-        <v>160958</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>310</v>
-      </c>
       <c r="L17" s="7" t="s">
-        <v>311</v>
+        <v>281</v>
       </c>
       <c r="M17" s="7">
-        <v>453</v>
+        <v>1697</v>
       </c>
       <c r="N17" s="7">
-        <v>329537</v>
+        <v>1164797</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>312</v>
+        <v>282</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>60</v>
+        <v>283</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>313</v>
+        <v>284</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4709,10 +4214,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>287</v>
+        <v>1059</v>
       </c>
       <c r="D18" s="7">
-        <v>203799</v>
+        <v>703014</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -4724,10 +4229,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>280</v>
+        <v>1059</v>
       </c>
       <c r="I18" s="7">
-        <v>206750</v>
+        <v>740553</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -4739,10 +4244,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>567</v>
+        <v>2118</v>
       </c>
       <c r="N18" s="7">
-        <v>410549</v>
+        <v>1443567</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -4755,171 +4260,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>184</v>
-      </c>
-      <c r="D19" s="7">
-        <v>124404</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="H19" s="7">
-        <v>237</v>
-      </c>
-      <c r="I19" s="7">
-        <v>154366</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="M19" s="7">
-        <v>421</v>
-      </c>
-      <c r="N19" s="7">
-        <v>278770</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>875</v>
-      </c>
-      <c r="D20" s="7">
-        <v>616149</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="H20" s="7">
-        <v>822</v>
-      </c>
-      <c r="I20" s="7">
-        <v>548648</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="M20" s="7">
-        <v>1697</v>
-      </c>
-      <c r="N20" s="7">
-        <v>1164797</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>326</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>1059</v>
-      </c>
-      <c r="D21" s="7">
-        <v>740553</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>1059</v>
-      </c>
-      <c r="I21" s="7">
-        <v>703014</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>2118</v>
-      </c>
-      <c r="N21" s="7">
-        <v>1443567</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>123</v>
+      <c r="A19" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4932,8 +4281,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01B352DE-0509-48A5-8812-865BE72CB76D}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0689CDA0-28AC-487D-959D-1E6A273F674B}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4949,7 +4298,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>328</v>
+        <v>285</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5050,49 +4399,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="D4" s="7">
-        <v>2658</v>
+        <v>17241</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>329</v>
+        <v>286</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>330</v>
+        <v>287</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>331</v>
+        <v>288</v>
       </c>
       <c r="H4" s="7">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="I4" s="7">
-        <v>3850</v>
+        <v>28872</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>332</v>
+        <v>289</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>333</v>
+        <v>290</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>334</v>
+        <v>291</v>
       </c>
       <c r="M4" s="7">
-        <v>12</v>
+        <v>63</v>
       </c>
       <c r="N4" s="7">
-        <v>6509</v>
+        <v>46113</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>112</v>
+        <v>292</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>335</v>
+        <v>293</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>336</v>
+        <v>294</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5101,49 +4450,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>14</v>
+        <v>161</v>
       </c>
       <c r="D5" s="7">
-        <v>9537</v>
+        <v>99660</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>337</v>
+        <v>295</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>338</v>
+        <v>296</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>339</v>
+        <v>297</v>
       </c>
       <c r="H5" s="7">
-        <v>20</v>
+        <v>141</v>
       </c>
       <c r="I5" s="7">
-        <v>12937</v>
+        <v>111011</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>340</v>
+        <v>298</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>341</v>
+        <v>299</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>342</v>
+        <v>300</v>
       </c>
       <c r="M5" s="7">
-        <v>34</v>
+        <v>302</v>
       </c>
       <c r="N5" s="7">
-        <v>22474</v>
+        <v>210670</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>122</v>
+        <v>301</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>343</v>
+        <v>302</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>344</v>
+        <v>303</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5152,10 +4501,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>18</v>
+        <v>195</v>
       </c>
       <c r="D6" s="7">
-        <v>12195</v>
+        <v>116901</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -5167,10 +4516,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>28</v>
+        <v>170</v>
       </c>
       <c r="I6" s="7">
-        <v>16787</v>
+        <v>139883</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -5182,10 +4531,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>46</v>
+        <v>365</v>
       </c>
       <c r="N6" s="7">
-        <v>28983</v>
+        <v>256783</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -5205,49 +4554,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="D7" s="7">
-        <v>20082</v>
+        <v>40049</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>345</v>
+        <v>304</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>346</v>
+        <v>305</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>347</v>
+        <v>306</v>
       </c>
       <c r="H7" s="7">
-        <v>26</v>
+        <v>68</v>
       </c>
       <c r="I7" s="7">
-        <v>12968</v>
+        <v>41390</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>348</v>
+        <v>307</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>349</v>
+        <v>308</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>350</v>
+        <v>309</v>
       </c>
       <c r="M7" s="7">
-        <v>51</v>
+        <v>121</v>
       </c>
       <c r="N7" s="7">
-        <v>33049</v>
+        <v>81439</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>351</v>
+        <v>310</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>352</v>
+        <v>311</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>353</v>
+        <v>312</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5256,49 +4605,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>127</v>
+        <v>227</v>
       </c>
       <c r="D8" s="7">
-        <v>94514</v>
+        <v>150463</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>354</v>
+        <v>313</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>355</v>
+        <v>314</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>356</v>
+        <v>315</v>
       </c>
       <c r="H8" s="7">
-        <v>141</v>
+        <v>273</v>
       </c>
       <c r="I8" s="7">
-        <v>90547</v>
+        <v>212317</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>357</v>
+        <v>316</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>358</v>
+        <v>317</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>359</v>
+        <v>318</v>
       </c>
       <c r="M8" s="7">
-        <v>268</v>
+        <v>500</v>
       </c>
       <c r="N8" s="7">
-        <v>185061</v>
+        <v>362781</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>360</v>
+        <v>319</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>361</v>
+        <v>320</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>362</v>
+        <v>321</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5307,10 +4656,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>152</v>
+        <v>280</v>
       </c>
       <c r="D9" s="7">
-        <v>114596</v>
+        <v>190512</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -5322,10 +4671,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>167</v>
+        <v>341</v>
       </c>
       <c r="I9" s="7">
-        <v>103515</v>
+        <v>253707</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -5337,10 +4686,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>319</v>
+        <v>621</v>
       </c>
       <c r="N9" s="7">
-        <v>218110</v>
+        <v>444220</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -5360,49 +4709,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="D10" s="7">
-        <v>38031</v>
+        <v>66418</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>363</v>
+        <v>322</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>364</v>
+        <v>323</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>365</v>
+        <v>324</v>
       </c>
       <c r="H10" s="7">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I10" s="7">
-        <v>35329</v>
+        <v>41357</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>366</v>
+        <v>325</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>367</v>
+        <v>326</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>368</v>
+        <v>327</v>
       </c>
       <c r="M10" s="7">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="N10" s="7">
-        <v>73360</v>
+        <v>107775</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>369</v>
+        <v>328</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>370</v>
+        <v>329</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>371</v>
+        <v>330</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5411,49 +4760,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>273</v>
+        <v>172</v>
       </c>
       <c r="D11" s="7">
-        <v>210887</v>
+        <v>123167</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>372</v>
+        <v>331</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>373</v>
+        <v>332</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>374</v>
+        <v>333</v>
       </c>
       <c r="H11" s="7">
-        <v>227</v>
+        <v>168</v>
       </c>
       <c r="I11" s="7">
-        <v>157023</v>
+        <v>141511</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>375</v>
+        <v>334</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>376</v>
+        <v>335</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>377</v>
+        <v>336</v>
       </c>
       <c r="M11" s="7">
-        <v>500</v>
+        <v>340</v>
       </c>
       <c r="N11" s="7">
-        <v>367910</v>
+        <v>264678</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>378</v>
+        <v>337</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>379</v>
+        <v>338</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>380</v>
+        <v>339</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5462,10 +4811,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>341</v>
+        <v>226</v>
       </c>
       <c r="D12" s="7">
-        <v>248918</v>
+        <v>189585</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -5477,10 +4826,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>280</v>
+        <v>220</v>
       </c>
       <c r="I12" s="7">
-        <v>192352</v>
+        <v>182868</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -5492,10 +4841,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>621</v>
+        <v>446</v>
       </c>
       <c r="N12" s="7">
-        <v>441270</v>
+        <v>372453</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -5515,49 +4864,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="D13" s="7">
-        <v>36018</v>
+        <v>31687</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>381</v>
+        <v>340</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>382</v>
+        <v>341</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>383</v>
+        <v>92</v>
       </c>
       <c r="H13" s="7">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="I13" s="7">
-        <v>44126</v>
+        <v>23882</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>384</v>
+        <v>342</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>371</v>
+        <v>343</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>385</v>
+        <v>344</v>
       </c>
       <c r="M13" s="7">
-        <v>106</v>
+        <v>81</v>
       </c>
       <c r="N13" s="7">
-        <v>80144</v>
+        <v>55569</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>386</v>
+        <v>345</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>387</v>
+        <v>346</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>388</v>
+        <v>347</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5566,49 +4915,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>168</v>
+        <v>194</v>
       </c>
       <c r="D14" s="7">
-        <v>134840</v>
+        <v>135144</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>389</v>
+        <v>348</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>390</v>
+        <v>101</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>391</v>
+        <v>349</v>
       </c>
       <c r="H14" s="7">
-        <v>172</v>
+        <v>201</v>
       </c>
       <c r="I14" s="7">
-        <v>123776</v>
+        <v>157356</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>392</v>
+        <v>350</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>393</v>
+        <v>351</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>379</v>
+        <v>352</v>
       </c>
       <c r="M14" s="7">
-        <v>340</v>
+        <v>395</v>
       </c>
       <c r="N14" s="7">
-        <v>258616</v>
+        <v>292500</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>394</v>
+        <v>353</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>395</v>
+        <v>354</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>396</v>
+        <v>355</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5617,10 +4966,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>220</v>
+        <v>238</v>
       </c>
       <c r="D15" s="7">
-        <v>170858</v>
+        <v>166831</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -5632,10 +4981,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>226</v>
+        <v>238</v>
       </c>
       <c r="I15" s="7">
-        <v>167902</v>
+        <v>181238</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -5647,10 +4996,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>446</v>
+        <v>476</v>
       </c>
       <c r="N15" s="7">
-        <v>338760</v>
+        <v>348069</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -5664,55 +5013,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>37</v>
+        <v>185</v>
       </c>
       <c r="D16" s="7">
-        <v>22332</v>
+        <v>155395</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>397</v>
+        <v>89</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>398</v>
+        <v>356</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>399</v>
+        <v>357</v>
       </c>
       <c r="H16" s="7">
-        <v>44</v>
+        <v>186</v>
       </c>
       <c r="I16" s="7">
-        <v>31025</v>
+        <v>135501</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>400</v>
+        <v>358</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>401</v>
+        <v>359</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>402</v>
+        <v>203</v>
       </c>
       <c r="M16" s="7">
-        <v>81</v>
+        <v>371</v>
       </c>
       <c r="N16" s="7">
-        <v>53357</v>
+        <v>290896</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>403</v>
+        <v>360</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>404</v>
+        <v>361</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>405</v>
+        <v>362</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5721,49 +5070,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>201</v>
+        <v>754</v>
       </c>
       <c r="D17" s="7">
-        <v>152684</v>
+        <v>508434</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>406</v>
+        <v>98</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>407</v>
+        <v>363</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>408</v>
+        <v>364</v>
       </c>
       <c r="H17" s="7">
-        <v>194</v>
+        <v>783</v>
       </c>
       <c r="I17" s="7">
-        <v>139782</v>
+        <v>622196</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>409</v>
+        <v>365</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>410</v>
+        <v>211</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>411</v>
+        <v>366</v>
       </c>
       <c r="M17" s="7">
-        <v>395</v>
+        <v>1537</v>
       </c>
       <c r="N17" s="7">
-        <v>292465</v>
+        <v>1130630</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>412</v>
+        <v>367</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>413</v>
+        <v>368</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>414</v>
+        <v>369</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5772,10 +5121,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>238</v>
+        <v>939</v>
       </c>
       <c r="D18" s="7">
-        <v>175016</v>
+        <v>663829</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -5787,10 +5136,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>238</v>
+        <v>969</v>
       </c>
       <c r="I18" s="7">
-        <v>170807</v>
+        <v>757697</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -5802,10 +5151,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>476</v>
+        <v>1908</v>
       </c>
       <c r="N18" s="7">
-        <v>345822</v>
+        <v>1421526</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -5818,171 +5167,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>186</v>
-      </c>
-      <c r="D19" s="7">
-        <v>119121</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>415</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>416</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>365</v>
-      </c>
-      <c r="H19" s="7">
-        <v>185</v>
-      </c>
-      <c r="I19" s="7">
-        <v>127298</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>417</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>418</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>419</v>
-      </c>
-      <c r="M19" s="7">
-        <v>371</v>
-      </c>
-      <c r="N19" s="7">
-        <v>246419</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>420</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>421</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>783</v>
-      </c>
-      <c r="D20" s="7">
-        <v>602461</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>423</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>373</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>424</v>
-      </c>
-      <c r="H20" s="7">
-        <v>754</v>
-      </c>
-      <c r="I20" s="7">
-        <v>524065</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>425</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>426</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>427</v>
-      </c>
-      <c r="M20" s="7">
-        <v>1537</v>
-      </c>
-      <c r="N20" s="7">
-        <v>1126527</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>428</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>429</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>969</v>
-      </c>
-      <c r="D21" s="7">
-        <v>721582</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>939</v>
-      </c>
-      <c r="I21" s="7">
-        <v>651363</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>1908</v>
-      </c>
-      <c r="N21" s="7">
-        <v>1372946</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>123</v>
+      <c r="A19" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
